--- a/Database_project/project/data_base_/static/files/A.xlsx
+++ b/Database_project/project/data_base_/static/files/A.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F160AE39-F9C7-4C5C-9583-15AEDC1395C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D639CBD2-C3D7-4FC9-9DB7-745AF38C7374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{62A6008E-A78B-419E-91E2-38541C4429B2}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{62A6008E-A78B-419E-91E2-38541C4429B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="26" sheetId="1" r:id="rId1"/>
+    <sheet name="27" sheetId="2" r:id="rId2"/>
+    <sheet name="28" sheetId="3" r:id="rId3"/>
+    <sheet name="29" sheetId="4" r:id="rId4"/>
+    <sheet name="31" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="505">
   <si>
     <t>SOCIETE BAILLEUR</t>
   </si>
@@ -763,6 +767,783 @@
   </si>
   <si>
     <t>22656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUY HOQUET BUSSAT DUNNE IMMOBILIER </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 234 RUE DE LA CONVENTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARIS </t>
+  </si>
+  <si>
+    <t>ROSINSKI MATTHIEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 RUE DE VOUILLE</t>
+  </si>
+  <si>
+    <t>ROS BLANDINE ET SOPHORN</t>
+  </si>
+  <si>
+    <t>22329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUY HOQUET - CABINET FREDELION </t>
+  </si>
+  <si>
+    <t>67 RUE CAULAINCOURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTE DROITE </t>
+  </si>
+  <si>
+    <t>CASTAIGNET GUILLAUME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 117 RUE DAMREMONT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARCIN CAROLINE </t>
+  </si>
+  <si>
+    <t>22592</t>
+  </si>
+  <si>
+    <t>SEREC PARIS REPRESENTE PAR KHOUN NANCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 270 RUE DU FAUBOURG SAINT MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCIETE SNEA </t>
+  </si>
+  <si>
+    <t>LOCAL COMMERCIAL</t>
+  </si>
+  <si>
+    <t>LOCAL COMMERCIA</t>
+  </si>
+  <si>
+    <t>22613</t>
+  </si>
+  <si>
+    <t>BILLAULT LAUREEN</t>
+  </si>
+  <si>
+    <t>22 RUE DU DOCTEUR CHAILLOUX</t>
+  </si>
+  <si>
+    <t>CHAMPIGNE</t>
+  </si>
+  <si>
+    <t>GRAZELIE MAX</t>
+  </si>
+  <si>
+    <t>22290</t>
+  </si>
+  <si>
+    <t>DUBOST CLEMENT</t>
+  </si>
+  <si>
+    <t>3 RUE DU HAUT LAUNAY</t>
+  </si>
+  <si>
+    <t>PARE ERIC  ESTELLE</t>
+  </si>
+  <si>
+    <t>22662</t>
+  </si>
+  <si>
+    <t>DENIZOT</t>
+  </si>
+  <si>
+    <t>DEUTINE BRIGITTE</t>
+  </si>
+  <si>
+    <t>62 BOULEVARD DU ROI RENE</t>
+  </si>
+  <si>
+    <t>DE LA SAYETTE MICHEL - OLIVIER</t>
+  </si>
+  <si>
+    <t>21673</t>
+  </si>
+  <si>
+    <t>DELARUE Meghan</t>
+  </si>
+  <si>
+    <t>31 RUE ANDRE MAGINOT</t>
+  </si>
+  <si>
+    <t>REYNAUD JEAN-MICHEL</t>
+  </si>
+  <si>
+    <t>22645</t>
+  </si>
+  <si>
+    <t>THACH GILLES ; RIQUEL CHLOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 ALLEE D'ANDREZIEUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHABANEIX </t>
+  </si>
+  <si>
+    <t>22286</t>
+  </si>
+  <si>
+    <t>POCH CAMILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93 RUE DUHESME</t>
+  </si>
+  <si>
+    <t>DESSERVILLE CLAIRE</t>
+  </si>
+  <si>
+    <t>22639</t>
+  </si>
+  <si>
+    <t>DE LARQUIER ALDRIC ; PETIT SABINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 RUE EUGENE SUE</t>
+  </si>
+  <si>
+    <t>DUTHEIL BENOIT</t>
+  </si>
+  <si>
+    <t>22598</t>
+  </si>
+  <si>
+    <t>ZODMI ALEXANDRE ; RICO CHARLOTTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36 RUE DAMREMONT</t>
+  </si>
+  <si>
+    <t>LE CORRE  NADINE</t>
+  </si>
+  <si>
+    <t>22502</t>
+  </si>
+  <si>
+    <t>CANN CHRISTOPHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 ALLEE CLAUDE MONET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARLY LE ROI </t>
+  </si>
+  <si>
+    <t>SOLEIHAVOUP JOSETTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON </t>
+  </si>
+  <si>
+    <t>22437</t>
+  </si>
+  <si>
+    <t>HIJAZI HALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 105 RUE DE CLIGNANCOURT</t>
+  </si>
+  <si>
+    <t>LABIDI KHALIL ET HATEM</t>
+  </si>
+  <si>
+    <t>22666</t>
+  </si>
+  <si>
+    <t>LEBRUN ALEXIS</t>
+  </si>
+  <si>
+    <t>116 AVENUE PASTEUR</t>
+  </si>
+  <si>
+    <t>BOURGAT  JORY</t>
+  </si>
+  <si>
+    <t>22658</t>
+  </si>
+  <si>
+    <t>PARENTEAU  Louis-Pierre et Christine</t>
+  </si>
+  <si>
+    <t>5  ANTOINE DE JUSSIEU</t>
+  </si>
+  <si>
+    <t>AVRILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THELLIER et GUENET Florent et Priscilla</t>
+  </si>
+  <si>
+    <t>22580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'ADRESSE 4 IMMO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 RUE JEANNE D'ARC</t>
+  </si>
+  <si>
+    <t>GUILLOIS Nicolas</t>
+  </si>
+  <si>
+    <t>8 RUE DES CHEVREFEUILLES</t>
+  </si>
+  <si>
+    <t>LA CHAPELLE SUR ERDRE</t>
+  </si>
+  <si>
+    <t>LAMI Henri &amp; Sylvianne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22558  </t>
+  </si>
+  <si>
+    <t>LE MEUR CHRISTELLE</t>
+  </si>
+  <si>
+    <t>4 RUE DE L'ÎLE BENIGUET</t>
+  </si>
+  <si>
+    <t>GILARD JOSEPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22445 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'ADRESSE - LAU DES NAIADES </t>
+  </si>
+  <si>
+    <t>11 BIS RUE GEORGES CLEMENCEAU</t>
+  </si>
+  <si>
+    <t>FONTENAY LE COMTE</t>
+  </si>
+  <si>
+    <t>RIMETZ CHRISTOPHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 RUE DES BERGERONNETTES</t>
+  </si>
+  <si>
+    <t>BAUR LAURENCE</t>
+  </si>
+  <si>
+    <t>21409</t>
+  </si>
+  <si>
+    <t>ENCELLE LILA ; FENOT ALEXANDRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 TER RUE PAUL FEVAL</t>
+  </si>
+  <si>
+    <t>SALONITIS EURL LODGE PLUS MME CORENTIN</t>
+  </si>
+  <si>
+    <t>22478</t>
+  </si>
+  <si>
+    <t>DE GEUSER BARBARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69 RUE MARCADET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYUSO </t>
+  </si>
+  <si>
+    <t>22285</t>
+  </si>
+  <si>
+    <t>LESTIENNE THOMAS PARTICULIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 118 RUE DE PREAU</t>
+  </si>
+  <si>
+    <t>LE MANS</t>
+  </si>
+  <si>
+    <t>ZHAO MIANMIAN</t>
+  </si>
+  <si>
+    <t>42 RUE WAGRAM</t>
+  </si>
+  <si>
+    <t>LESTIENNE THOMAS</t>
+  </si>
+  <si>
+    <t>22571</t>
+  </si>
+  <si>
+    <t>PELISSET LUCIE ; GOUDONNET LAURENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64 RUE DE WATTIGNIES</t>
+  </si>
+  <si>
+    <t>JIAR FARID</t>
+  </si>
+  <si>
+    <t>APPT-F4 M</t>
+  </si>
+  <si>
+    <t>TN150 APPT F4M</t>
+  </si>
+  <si>
+    <t>22579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'ADRESSE LES HERBIERS GESTION </t>
+  </si>
+  <si>
+    <t>48  RUE DU BRANDON</t>
+  </si>
+  <si>
+    <t>ST MICHEL MONT MERCURE</t>
+  </si>
+  <si>
+    <t>LES HERBIERS</t>
+  </si>
+  <si>
+    <t>SINDATRY RUDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 PLACE DU MAIL</t>
+  </si>
+  <si>
+    <t>SEVREMONT</t>
+  </si>
+  <si>
+    <t>BELY MOUILLE JACKIE ET MARTINE</t>
+  </si>
+  <si>
+    <t>22400</t>
+  </si>
+  <si>
+    <t>DURET VERONIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39 ALLEE DES EGLANTIERS</t>
+  </si>
+  <si>
+    <t>DURAND_ARTARY REMI_BENEDICTE</t>
+  </si>
+  <si>
+    <t>22412</t>
+  </si>
+  <si>
+    <t>LE BATARD Mélina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95 RUE LA JONQUIERE</t>
+  </si>
+  <si>
+    <t>MME  GOUPIL DE BOUILLE Stéphanie</t>
+  </si>
+  <si>
+    <t>22622</t>
+  </si>
+  <si>
+    <t>PORTE GAUCHE FACE</t>
+  </si>
+  <si>
+    <t>PERRET JIMMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 RUE DE L'EVANGILE</t>
+  </si>
+  <si>
+    <t>M. DAMBRINES DE RAMECOURT GUILLAUME</t>
+  </si>
+  <si>
+    <t>22387</t>
+  </si>
+  <si>
+    <t>ORPI ROSNY SOUS BOIS AGENCE DE LA MAIRIE</t>
+  </si>
+  <si>
+    <t>2 RUE DU GENERAL LECLERC</t>
+  </si>
+  <si>
+    <t>ROSNY SOUS BOIS</t>
+  </si>
+  <si>
+    <t>LEITE RAJAO JOSE CARLOS ; MARQUES RAMOS ANDREIA SOFIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30-32 BIS RUE GUSTAVE NAST</t>
+  </si>
+  <si>
+    <t>JOUANNY LAURENT ET MONIQUE</t>
+  </si>
+  <si>
+    <t>22381</t>
+  </si>
+  <si>
+    <t>ROUSSEAU SOPHIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49 RUE EUGENE CARRIERE</t>
+  </si>
+  <si>
+    <t>COTE PIERRE</t>
+  </si>
+  <si>
+    <t>22414</t>
+  </si>
+  <si>
+    <t>CATURANO ALFREDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46 RUE SAINT ANDRE DES ARTS</t>
+  </si>
+  <si>
+    <t>SADA 26 MR Dan BELLAICHE</t>
+  </si>
+  <si>
+    <t>22693</t>
+  </si>
+  <si>
+    <t>HAUTIER VLADIMIR ; MARLAT SALOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 BOULEVARD DE GRENELLE</t>
+  </si>
+  <si>
+    <t>CAPLOUN ET CAUET JOSSELINE</t>
+  </si>
+  <si>
+    <t>22671</t>
+  </si>
+  <si>
+    <t>CENTRAL IMMOBILIER JEREMY GARCIA</t>
+  </si>
+  <si>
+    <t>21 COURS DUPONT</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>BEDUNEAU STEPHANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 BOULEVARD LAPLACE</t>
+  </si>
+  <si>
+    <t>NEAU YOLANDE</t>
+  </si>
+  <si>
+    <t>22683</t>
+  </si>
+  <si>
+    <t>DUHAMEL LEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37 RUE MICHELET</t>
+  </si>
+  <si>
+    <t>SAINT MARTIN CHRISTOPHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22279 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'ADRESSE MAISON BLANCHE </t>
+  </si>
+  <si>
+    <t>50 BOULEVARD FELIX GRAT</t>
+  </si>
+  <si>
+    <t>LAVAL</t>
+  </si>
+  <si>
+    <t>OFFRET AURELIA</t>
+  </si>
+  <si>
+    <t>3 RUE DU LAVOIR</t>
+  </si>
+  <si>
+    <t>AMPOIGNE</t>
+  </si>
+  <si>
+    <t>BOCQUET CEDRIC</t>
+  </si>
+  <si>
+    <t>PAV-T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22646 </t>
+  </si>
+  <si>
+    <t>RESIDENCE DES 7 ETOILES</t>
+  </si>
+  <si>
+    <t>NORBIS Marjorie</t>
+  </si>
+  <si>
+    <t>1 PASSAGE FRONSAC</t>
+  </si>
+  <si>
+    <t>ZASPI IZAR MME ITHURBURU</t>
+  </si>
+  <si>
+    <t>22394</t>
+  </si>
+  <si>
+    <t>GUERZIDER ET PESLERBE Antoine et Léa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59 RUE SAINT NICOLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INDIVISION CONSTANTIN BARGUILLET</t>
+  </si>
+  <si>
+    <t>21767</t>
+  </si>
+  <si>
+    <t>BRASSELET Nicolas et Emilie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 IMPASSE HERACLES </t>
+  </si>
+  <si>
+    <t>GALLERINE CHRISTELLE</t>
+  </si>
+  <si>
+    <t>22269</t>
+  </si>
+  <si>
+    <t>BOUSQUET LUCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 PLACE SAINT PIERRE</t>
+  </si>
+  <si>
+    <t>MOSSET PAUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21815 </t>
+  </si>
+  <si>
+    <t>NUMERO 4 SUR COUR</t>
+  </si>
+  <si>
+    <t>OUICE MAELLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 BIS RUE DU MAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIL 49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21610 </t>
+  </si>
+  <si>
+    <t>2EME ETAGE GAUCHE / lot N° 5</t>
+  </si>
+  <si>
+    <t>CROS et NEDJAR Alice et Ines</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 RUE JEAN JAURES</t>
+  </si>
+  <si>
+    <t>CROCHET Erwan</t>
+  </si>
+  <si>
+    <t>21735</t>
+  </si>
+  <si>
+    <t>PERCHE LOUISON</t>
+  </si>
+  <si>
+    <t>21 RUE DU MAIL</t>
+  </si>
+  <si>
+    <t>SCI MAIL 49 Monsieur BIEULES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S22085 E22421 </t>
+  </si>
+  <si>
+    <t>BINESSE MELISSA</t>
+  </si>
+  <si>
+    <t>DUPONT GRACE - ALLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4  Allée Couchouren</t>
+  </si>
+  <si>
+    <t>DEROUIN PISANI  Antoine et Raffaello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22615 </t>
+  </si>
+  <si>
+    <t>BUANNEC CHARLOTTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 C RUE DE VERDUN</t>
+  </si>
+  <si>
+    <t>M ET M DURET MAXIME ET MARIE</t>
+  </si>
+  <si>
+    <t>TN100 PAV T2</t>
+  </si>
+  <si>
+    <t>48.88</t>
+  </si>
+  <si>
+    <t>21546</t>
+  </si>
+  <si>
+    <t>BARBADO MELVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 RUE DES CLOYS</t>
+  </si>
+  <si>
+    <t>KENTISH AGNES</t>
+  </si>
+  <si>
+    <t>20.26</t>
+  </si>
+  <si>
+    <t>22324</t>
+  </si>
+  <si>
+    <t>OGER ELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76 RUE CHRISTOPHE COLOMB</t>
+  </si>
+  <si>
+    <t>TRELAZE</t>
+  </si>
+  <si>
+    <t>TRUPIANO  CHRISTOPHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21294</t>
+  </si>
+  <si>
+    <t>2 EME PORTE DROITE PORTE 5</t>
+  </si>
+  <si>
+    <t>DUMANT -MAITRE COLOMBE-MARIE ET CLOTILDE</t>
+  </si>
+  <si>
+    <t>34 RUE DE LA BLANCHERAIE</t>
+  </si>
+  <si>
+    <t>GOURDON BENOIT et NATHALIE</t>
+  </si>
+  <si>
+    <t>22402</t>
+  </si>
+  <si>
+    <t>LECOMTE CATHERINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 RUE KRUGER</t>
+  </si>
+  <si>
+    <t>LEGOT DIDIER</t>
+  </si>
+  <si>
+    <t>22175</t>
+  </si>
+  <si>
+    <t>LEROY SULLIVAN</t>
+  </si>
+  <si>
+    <t>3 3 PLACE DE L'EGLISE</t>
+  </si>
+  <si>
+    <t>MORANNES</t>
+  </si>
+  <si>
+    <t>MEZIERE ROLAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22430 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A DROITE sur descente escalier </t>
+  </si>
+  <si>
+    <t>LE DROGO Lucie</t>
+  </si>
+  <si>
+    <t>5 RUE DU LEON</t>
+  </si>
+  <si>
+    <t>NICOLAS MARIN</t>
+  </si>
+  <si>
+    <t>22401</t>
+  </si>
+  <si>
+    <t>VIDY - JONCHERAY DAVID - LOUISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 RUE DU CERCLE </t>
+  </si>
+  <si>
+    <t>COUTURES</t>
+  </si>
+  <si>
+    <t>CERCEAU MICHEL</t>
+  </si>
+  <si>
+    <t>22648</t>
+  </si>
+  <si>
+    <t>BEN AISSA SAFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 RUE DE VERDUN</t>
+  </si>
+  <si>
+    <t>RUBIO SYLVIE</t>
+  </si>
+  <si>
+    <t>31.93</t>
+  </si>
+  <si>
+    <t>22685</t>
+  </si>
+  <si>
+    <t>DERACHE SEBASTIEN</t>
+  </si>
+  <si>
+    <t>41/43 AVENUE JACQUES HEUCLIN</t>
+  </si>
+  <si>
+    <t>PARADELA FERNANDO</t>
+  </si>
+  <si>
+    <t>30.80</t>
+  </si>
+  <si>
+    <t>22550</t>
   </si>
 </sst>
 </file>
@@ -780,13 +1561,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="0"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1133,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3D4165-67DE-45DB-87C2-B985E9688069}">
-  <dimension ref="B1:BL33"/>
+  <dimension ref="B1:BL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,6 +3159,8524 @@
     </row>
     <row r="2" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>75015</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44342</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1">
+        <v>116200</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>75015</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>25864</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>33</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44342</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="1">
+        <v>116205</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="X3" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>1128</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>25</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>44342</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="1">
+        <v>116207</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>75010</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>25866</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>105</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <v>44342</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="1">
+        <v>116212</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
+        <v>49330</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>25867</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>49.74</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>44470</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="2">
+        <v>44342</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="1">
+        <v>116213</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>44300</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>24928</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>49.66</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2">
+        <v>44342</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S7" s="1">
+        <v>116214</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
+        <v>49100</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>1602</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>33700</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="2">
+        <v>44342</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" s="1">
+        <v>116216</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1">
+        <v>33700</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>23534</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>24</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>44342</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" s="1">
+        <v>116232</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>25717</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>80.44</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E18335-3299-46BE-B41E-025F5FABF9F4}">
+  <dimension ref="B1:BL10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="40" width="11.42578125" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" customWidth="1"/>
+    <col min="43" max="44" width="8.85546875" customWidth="1"/>
+    <col min="45" max="49" width="11.42578125" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" customWidth="1"/>
+    <col min="51" max="53" width="11.42578125" customWidth="1"/>
+    <col min="54" max="54" width="8.85546875" customWidth="1"/>
+    <col min="55" max="59" width="11.42578125" customWidth="1"/>
+    <col min="60" max="64" width="8.85546875" customWidth="1"/>
+    <col min="65" max="257" width="11.42578125" customWidth="1"/>
+    <col min="258" max="259" width="8.85546875" customWidth="1"/>
+    <col min="260" max="260" width="11.42578125" customWidth="1"/>
+    <col min="261" max="264" width="8.85546875" customWidth="1"/>
+    <col min="265" max="268" width="11.42578125" customWidth="1"/>
+    <col min="269" max="269" width="8.85546875" customWidth="1"/>
+    <col min="270" max="272" width="11.42578125" customWidth="1"/>
+    <col min="273" max="281" width="8.85546875" customWidth="1"/>
+    <col min="282" max="296" width="11.42578125" customWidth="1"/>
+    <col min="297" max="297" width="8.85546875" customWidth="1"/>
+    <col min="298" max="298" width="11.42578125" customWidth="1"/>
+    <col min="299" max="300" width="8.85546875" customWidth="1"/>
+    <col min="301" max="305" width="11.42578125" customWidth="1"/>
+    <col min="306" max="306" width="8.85546875" customWidth="1"/>
+    <col min="307" max="309" width="11.42578125" customWidth="1"/>
+    <col min="310" max="310" width="8.85546875" customWidth="1"/>
+    <col min="311" max="315" width="11.42578125" customWidth="1"/>
+    <col min="316" max="320" width="8.85546875" customWidth="1"/>
+    <col min="321" max="513" width="11.42578125" customWidth="1"/>
+    <col min="514" max="515" width="8.85546875" customWidth="1"/>
+    <col min="516" max="516" width="11.42578125" customWidth="1"/>
+    <col min="517" max="520" width="8.85546875" customWidth="1"/>
+    <col min="521" max="524" width="11.42578125" customWidth="1"/>
+    <col min="525" max="525" width="8.85546875" customWidth="1"/>
+    <col min="526" max="528" width="11.42578125" customWidth="1"/>
+    <col min="529" max="537" width="8.85546875" customWidth="1"/>
+    <col min="538" max="552" width="11.42578125" customWidth="1"/>
+    <col min="553" max="553" width="8.85546875" customWidth="1"/>
+    <col min="554" max="554" width="11.42578125" customWidth="1"/>
+    <col min="555" max="556" width="8.85546875" customWidth="1"/>
+    <col min="557" max="561" width="11.42578125" customWidth="1"/>
+    <col min="562" max="562" width="8.85546875" customWidth="1"/>
+    <col min="563" max="565" width="11.42578125" customWidth="1"/>
+    <col min="566" max="566" width="8.85546875" customWidth="1"/>
+    <col min="567" max="571" width="11.42578125" customWidth="1"/>
+    <col min="572" max="576" width="8.85546875" customWidth="1"/>
+    <col min="577" max="769" width="11.42578125" customWidth="1"/>
+    <col min="770" max="771" width="8.85546875" customWidth="1"/>
+    <col min="772" max="772" width="11.42578125" customWidth="1"/>
+    <col min="773" max="776" width="8.85546875" customWidth="1"/>
+    <col min="777" max="780" width="11.42578125" customWidth="1"/>
+    <col min="781" max="781" width="8.85546875" customWidth="1"/>
+    <col min="782" max="784" width="11.42578125" customWidth="1"/>
+    <col min="785" max="793" width="8.85546875" customWidth="1"/>
+    <col min="794" max="808" width="11.42578125" customWidth="1"/>
+    <col min="809" max="809" width="8.85546875" customWidth="1"/>
+    <col min="810" max="810" width="11.42578125" customWidth="1"/>
+    <col min="811" max="812" width="8.85546875" customWidth="1"/>
+    <col min="813" max="817" width="11.42578125" customWidth="1"/>
+    <col min="818" max="818" width="8.85546875" customWidth="1"/>
+    <col min="819" max="821" width="11.42578125" customWidth="1"/>
+    <col min="822" max="822" width="8.85546875" customWidth="1"/>
+    <col min="823" max="827" width="11.42578125" customWidth="1"/>
+    <col min="828" max="832" width="8.85546875" customWidth="1"/>
+    <col min="833" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="1026" max="1027" width="8.85546875" customWidth="1"/>
+    <col min="1028" max="1028" width="11.42578125" customWidth="1"/>
+    <col min="1029" max="1032" width="8.85546875" customWidth="1"/>
+    <col min="1033" max="1036" width="11.42578125" customWidth="1"/>
+    <col min="1037" max="1037" width="8.85546875" customWidth="1"/>
+    <col min="1038" max="1040" width="11.42578125" customWidth="1"/>
+    <col min="1041" max="1049" width="8.85546875" customWidth="1"/>
+    <col min="1050" max="1064" width="11.42578125" customWidth="1"/>
+    <col min="1065" max="1065" width="8.85546875" customWidth="1"/>
+    <col min="1066" max="1066" width="11.42578125" customWidth="1"/>
+    <col min="1067" max="1068" width="8.85546875" customWidth="1"/>
+    <col min="1069" max="1073" width="11.42578125" customWidth="1"/>
+    <col min="1074" max="1074" width="8.85546875" customWidth="1"/>
+    <col min="1075" max="1077" width="11.42578125" customWidth="1"/>
+    <col min="1078" max="1078" width="8.85546875" customWidth="1"/>
+    <col min="1079" max="1083" width="11.42578125" customWidth="1"/>
+    <col min="1084" max="1088" width="8.85546875" customWidth="1"/>
+    <col min="1089" max="1281" width="11.42578125" customWidth="1"/>
+    <col min="1282" max="1283" width="8.85546875" customWidth="1"/>
+    <col min="1284" max="1284" width="11.42578125" customWidth="1"/>
+    <col min="1285" max="1288" width="8.85546875" customWidth="1"/>
+    <col min="1289" max="1292" width="11.42578125" customWidth="1"/>
+    <col min="1293" max="1293" width="8.85546875" customWidth="1"/>
+    <col min="1294" max="1296" width="11.42578125" customWidth="1"/>
+    <col min="1297" max="1305" width="8.85546875" customWidth="1"/>
+    <col min="1306" max="1320" width="11.42578125" customWidth="1"/>
+    <col min="1321" max="1321" width="8.85546875" customWidth="1"/>
+    <col min="1322" max="1322" width="11.42578125" customWidth="1"/>
+    <col min="1323" max="1324" width="8.85546875" customWidth="1"/>
+    <col min="1325" max="1329" width="11.42578125" customWidth="1"/>
+    <col min="1330" max="1330" width="8.85546875" customWidth="1"/>
+    <col min="1331" max="1333" width="11.42578125" customWidth="1"/>
+    <col min="1334" max="1334" width="8.85546875" customWidth="1"/>
+    <col min="1335" max="1339" width="11.42578125" customWidth="1"/>
+    <col min="1340" max="1344" width="8.85546875" customWidth="1"/>
+    <col min="1345" max="1537" width="11.42578125" customWidth="1"/>
+    <col min="1538" max="1539" width="8.85546875" customWidth="1"/>
+    <col min="1540" max="1540" width="11.42578125" customWidth="1"/>
+    <col min="1541" max="1544" width="8.85546875" customWidth="1"/>
+    <col min="1545" max="1548" width="11.42578125" customWidth="1"/>
+    <col min="1549" max="1549" width="8.85546875" customWidth="1"/>
+    <col min="1550" max="1552" width="11.42578125" customWidth="1"/>
+    <col min="1553" max="1561" width="8.85546875" customWidth="1"/>
+    <col min="1562" max="1576" width="11.42578125" customWidth="1"/>
+    <col min="1577" max="1577" width="8.85546875" customWidth="1"/>
+    <col min="1578" max="1578" width="11.42578125" customWidth="1"/>
+    <col min="1579" max="1580" width="8.85546875" customWidth="1"/>
+    <col min="1581" max="1585" width="11.42578125" customWidth="1"/>
+    <col min="1586" max="1586" width="8.85546875" customWidth="1"/>
+    <col min="1587" max="1589" width="11.42578125" customWidth="1"/>
+    <col min="1590" max="1590" width="8.85546875" customWidth="1"/>
+    <col min="1591" max="1595" width="11.42578125" customWidth="1"/>
+    <col min="1596" max="1600" width="8.85546875" customWidth="1"/>
+    <col min="1601" max="1793" width="11.42578125" customWidth="1"/>
+    <col min="1794" max="1795" width="8.85546875" customWidth="1"/>
+    <col min="1796" max="1796" width="11.42578125" customWidth="1"/>
+    <col min="1797" max="1800" width="8.85546875" customWidth="1"/>
+    <col min="1801" max="1804" width="11.42578125" customWidth="1"/>
+    <col min="1805" max="1805" width="8.85546875" customWidth="1"/>
+    <col min="1806" max="1808" width="11.42578125" customWidth="1"/>
+    <col min="1809" max="1817" width="8.85546875" customWidth="1"/>
+    <col min="1818" max="1832" width="11.42578125" customWidth="1"/>
+    <col min="1833" max="1833" width="8.85546875" customWidth="1"/>
+    <col min="1834" max="1834" width="11.42578125" customWidth="1"/>
+    <col min="1835" max="1836" width="8.85546875" customWidth="1"/>
+    <col min="1837" max="1841" width="11.42578125" customWidth="1"/>
+    <col min="1842" max="1842" width="8.85546875" customWidth="1"/>
+    <col min="1843" max="1845" width="11.42578125" customWidth="1"/>
+    <col min="1846" max="1846" width="8.85546875" customWidth="1"/>
+    <col min="1847" max="1851" width="11.42578125" customWidth="1"/>
+    <col min="1852" max="1856" width="8.85546875" customWidth="1"/>
+    <col min="1857" max="2049" width="11.42578125" customWidth="1"/>
+    <col min="2050" max="2051" width="8.85546875" customWidth="1"/>
+    <col min="2052" max="2052" width="11.42578125" customWidth="1"/>
+    <col min="2053" max="2056" width="8.85546875" customWidth="1"/>
+    <col min="2057" max="2060" width="11.42578125" customWidth="1"/>
+    <col min="2061" max="2061" width="8.85546875" customWidth="1"/>
+    <col min="2062" max="2064" width="11.42578125" customWidth="1"/>
+    <col min="2065" max="2073" width="8.85546875" customWidth="1"/>
+    <col min="2074" max="2088" width="11.42578125" customWidth="1"/>
+    <col min="2089" max="2089" width="8.85546875" customWidth="1"/>
+    <col min="2090" max="2090" width="11.42578125" customWidth="1"/>
+    <col min="2091" max="2092" width="8.85546875" customWidth="1"/>
+    <col min="2093" max="2097" width="11.42578125" customWidth="1"/>
+    <col min="2098" max="2098" width="8.85546875" customWidth="1"/>
+    <col min="2099" max="2101" width="11.42578125" customWidth="1"/>
+    <col min="2102" max="2102" width="8.85546875" customWidth="1"/>
+    <col min="2103" max="2107" width="11.42578125" customWidth="1"/>
+    <col min="2108" max="2112" width="8.85546875" customWidth="1"/>
+    <col min="2113" max="2305" width="11.42578125" customWidth="1"/>
+    <col min="2306" max="2307" width="8.85546875" customWidth="1"/>
+    <col min="2308" max="2308" width="11.42578125" customWidth="1"/>
+    <col min="2309" max="2312" width="8.85546875" customWidth="1"/>
+    <col min="2313" max="2316" width="11.42578125" customWidth="1"/>
+    <col min="2317" max="2317" width="8.85546875" customWidth="1"/>
+    <col min="2318" max="2320" width="11.42578125" customWidth="1"/>
+    <col min="2321" max="2329" width="8.85546875" customWidth="1"/>
+    <col min="2330" max="2344" width="11.42578125" customWidth="1"/>
+    <col min="2345" max="2345" width="8.85546875" customWidth="1"/>
+    <col min="2346" max="2346" width="11.42578125" customWidth="1"/>
+    <col min="2347" max="2348" width="8.85546875" customWidth="1"/>
+    <col min="2349" max="2353" width="11.42578125" customWidth="1"/>
+    <col min="2354" max="2354" width="8.85546875" customWidth="1"/>
+    <col min="2355" max="2357" width="11.42578125" customWidth="1"/>
+    <col min="2358" max="2358" width="8.85546875" customWidth="1"/>
+    <col min="2359" max="2363" width="11.42578125" customWidth="1"/>
+    <col min="2364" max="2368" width="8.85546875" customWidth="1"/>
+    <col min="2369" max="2561" width="11.42578125" customWidth="1"/>
+    <col min="2562" max="2563" width="8.85546875" customWidth="1"/>
+    <col min="2564" max="2564" width="11.42578125" customWidth="1"/>
+    <col min="2565" max="2568" width="8.85546875" customWidth="1"/>
+    <col min="2569" max="2572" width="11.42578125" customWidth="1"/>
+    <col min="2573" max="2573" width="8.85546875" customWidth="1"/>
+    <col min="2574" max="2576" width="11.42578125" customWidth="1"/>
+    <col min="2577" max="2585" width="8.85546875" customWidth="1"/>
+    <col min="2586" max="2600" width="11.42578125" customWidth="1"/>
+    <col min="2601" max="2601" width="8.85546875" customWidth="1"/>
+    <col min="2602" max="2602" width="11.42578125" customWidth="1"/>
+    <col min="2603" max="2604" width="8.85546875" customWidth="1"/>
+    <col min="2605" max="2609" width="11.42578125" customWidth="1"/>
+    <col min="2610" max="2610" width="8.85546875" customWidth="1"/>
+    <col min="2611" max="2613" width="11.42578125" customWidth="1"/>
+    <col min="2614" max="2614" width="8.85546875" customWidth="1"/>
+    <col min="2615" max="2619" width="11.42578125" customWidth="1"/>
+    <col min="2620" max="2624" width="8.85546875" customWidth="1"/>
+    <col min="2625" max="2817" width="11.42578125" customWidth="1"/>
+    <col min="2818" max="2819" width="8.85546875" customWidth="1"/>
+    <col min="2820" max="2820" width="11.42578125" customWidth="1"/>
+    <col min="2821" max="2824" width="8.85546875" customWidth="1"/>
+    <col min="2825" max="2828" width="11.42578125" customWidth="1"/>
+    <col min="2829" max="2829" width="8.85546875" customWidth="1"/>
+    <col min="2830" max="2832" width="11.42578125" customWidth="1"/>
+    <col min="2833" max="2841" width="8.85546875" customWidth="1"/>
+    <col min="2842" max="2856" width="11.42578125" customWidth="1"/>
+    <col min="2857" max="2857" width="8.85546875" customWidth="1"/>
+    <col min="2858" max="2858" width="11.42578125" customWidth="1"/>
+    <col min="2859" max="2860" width="8.85546875" customWidth="1"/>
+    <col min="2861" max="2865" width="11.42578125" customWidth="1"/>
+    <col min="2866" max="2866" width="8.85546875" customWidth="1"/>
+    <col min="2867" max="2869" width="11.42578125" customWidth="1"/>
+    <col min="2870" max="2870" width="8.85546875" customWidth="1"/>
+    <col min="2871" max="2875" width="11.42578125" customWidth="1"/>
+    <col min="2876" max="2880" width="8.85546875" customWidth="1"/>
+    <col min="2881" max="3073" width="11.42578125" customWidth="1"/>
+    <col min="3074" max="3075" width="8.85546875" customWidth="1"/>
+    <col min="3076" max="3076" width="11.42578125" customWidth="1"/>
+    <col min="3077" max="3080" width="8.85546875" customWidth="1"/>
+    <col min="3081" max="3084" width="11.42578125" customWidth="1"/>
+    <col min="3085" max="3085" width="8.85546875" customWidth="1"/>
+    <col min="3086" max="3088" width="11.42578125" customWidth="1"/>
+    <col min="3089" max="3097" width="8.85546875" customWidth="1"/>
+    <col min="3098" max="3112" width="11.42578125" customWidth="1"/>
+    <col min="3113" max="3113" width="8.85546875" customWidth="1"/>
+    <col min="3114" max="3114" width="11.42578125" customWidth="1"/>
+    <col min="3115" max="3116" width="8.85546875" customWidth="1"/>
+    <col min="3117" max="3121" width="11.42578125" customWidth="1"/>
+    <col min="3122" max="3122" width="8.85546875" customWidth="1"/>
+    <col min="3123" max="3125" width="11.42578125" customWidth="1"/>
+    <col min="3126" max="3126" width="8.85546875" customWidth="1"/>
+    <col min="3127" max="3131" width="11.42578125" customWidth="1"/>
+    <col min="3132" max="3136" width="8.85546875" customWidth="1"/>
+    <col min="3137" max="3329" width="11.42578125" customWidth="1"/>
+    <col min="3330" max="3331" width="8.85546875" customWidth="1"/>
+    <col min="3332" max="3332" width="11.42578125" customWidth="1"/>
+    <col min="3333" max="3336" width="8.85546875" customWidth="1"/>
+    <col min="3337" max="3340" width="11.42578125" customWidth="1"/>
+    <col min="3341" max="3341" width="8.85546875" customWidth="1"/>
+    <col min="3342" max="3344" width="11.42578125" customWidth="1"/>
+    <col min="3345" max="3353" width="8.85546875" customWidth="1"/>
+    <col min="3354" max="3368" width="11.42578125" customWidth="1"/>
+    <col min="3369" max="3369" width="8.85546875" customWidth="1"/>
+    <col min="3370" max="3370" width="11.42578125" customWidth="1"/>
+    <col min="3371" max="3372" width="8.85546875" customWidth="1"/>
+    <col min="3373" max="3377" width="11.42578125" customWidth="1"/>
+    <col min="3378" max="3378" width="8.85546875" customWidth="1"/>
+    <col min="3379" max="3381" width="11.42578125" customWidth="1"/>
+    <col min="3382" max="3382" width="8.85546875" customWidth="1"/>
+    <col min="3383" max="3387" width="11.42578125" customWidth="1"/>
+    <col min="3388" max="3392" width="8.85546875" customWidth="1"/>
+    <col min="3393" max="3585" width="11.42578125" customWidth="1"/>
+    <col min="3586" max="3587" width="8.85546875" customWidth="1"/>
+    <col min="3588" max="3588" width="11.42578125" customWidth="1"/>
+    <col min="3589" max="3592" width="8.85546875" customWidth="1"/>
+    <col min="3593" max="3596" width="11.42578125" customWidth="1"/>
+    <col min="3597" max="3597" width="8.85546875" customWidth="1"/>
+    <col min="3598" max="3600" width="11.42578125" customWidth="1"/>
+    <col min="3601" max="3609" width="8.85546875" customWidth="1"/>
+    <col min="3610" max="3624" width="11.42578125" customWidth="1"/>
+    <col min="3625" max="3625" width="8.85546875" customWidth="1"/>
+    <col min="3626" max="3626" width="11.42578125" customWidth="1"/>
+    <col min="3627" max="3628" width="8.85546875" customWidth="1"/>
+    <col min="3629" max="3633" width="11.42578125" customWidth="1"/>
+    <col min="3634" max="3634" width="8.85546875" customWidth="1"/>
+    <col min="3635" max="3637" width="11.42578125" customWidth="1"/>
+    <col min="3638" max="3638" width="8.85546875" customWidth="1"/>
+    <col min="3639" max="3643" width="11.42578125" customWidth="1"/>
+    <col min="3644" max="3648" width="8.85546875" customWidth="1"/>
+    <col min="3649" max="3841" width="11.42578125" customWidth="1"/>
+    <col min="3842" max="3843" width="8.85546875" customWidth="1"/>
+    <col min="3844" max="3844" width="11.42578125" customWidth="1"/>
+    <col min="3845" max="3848" width="8.85546875" customWidth="1"/>
+    <col min="3849" max="3852" width="11.42578125" customWidth="1"/>
+    <col min="3853" max="3853" width="8.85546875" customWidth="1"/>
+    <col min="3854" max="3856" width="11.42578125" customWidth="1"/>
+    <col min="3857" max="3865" width="8.85546875" customWidth="1"/>
+    <col min="3866" max="3880" width="11.42578125" customWidth="1"/>
+    <col min="3881" max="3881" width="8.85546875" customWidth="1"/>
+    <col min="3882" max="3882" width="11.42578125" customWidth="1"/>
+    <col min="3883" max="3884" width="8.85546875" customWidth="1"/>
+    <col min="3885" max="3889" width="11.42578125" customWidth="1"/>
+    <col min="3890" max="3890" width="8.85546875" customWidth="1"/>
+    <col min="3891" max="3893" width="11.42578125" customWidth="1"/>
+    <col min="3894" max="3894" width="8.85546875" customWidth="1"/>
+    <col min="3895" max="3899" width="11.42578125" customWidth="1"/>
+    <col min="3900" max="3904" width="8.85546875" customWidth="1"/>
+    <col min="3905" max="4097" width="11.42578125" customWidth="1"/>
+    <col min="4098" max="4099" width="8.85546875" customWidth="1"/>
+    <col min="4100" max="4100" width="11.42578125" customWidth="1"/>
+    <col min="4101" max="4104" width="8.85546875" customWidth="1"/>
+    <col min="4105" max="4108" width="11.42578125" customWidth="1"/>
+    <col min="4109" max="4109" width="8.85546875" customWidth="1"/>
+    <col min="4110" max="4112" width="11.42578125" customWidth="1"/>
+    <col min="4113" max="4121" width="8.85546875" customWidth="1"/>
+    <col min="4122" max="4136" width="11.42578125" customWidth="1"/>
+    <col min="4137" max="4137" width="8.85546875" customWidth="1"/>
+    <col min="4138" max="4138" width="11.42578125" customWidth="1"/>
+    <col min="4139" max="4140" width="8.85546875" customWidth="1"/>
+    <col min="4141" max="4145" width="11.42578125" customWidth="1"/>
+    <col min="4146" max="4146" width="8.85546875" customWidth="1"/>
+    <col min="4147" max="4149" width="11.42578125" customWidth="1"/>
+    <col min="4150" max="4150" width="8.85546875" customWidth="1"/>
+    <col min="4151" max="4155" width="11.42578125" customWidth="1"/>
+    <col min="4156" max="4160" width="8.85546875" customWidth="1"/>
+    <col min="4161" max="4353" width="11.42578125" customWidth="1"/>
+    <col min="4354" max="4355" width="8.85546875" customWidth="1"/>
+    <col min="4356" max="4356" width="11.42578125" customWidth="1"/>
+    <col min="4357" max="4360" width="8.85546875" customWidth="1"/>
+    <col min="4361" max="4364" width="11.42578125" customWidth="1"/>
+    <col min="4365" max="4365" width="8.85546875" customWidth="1"/>
+    <col min="4366" max="4368" width="11.42578125" customWidth="1"/>
+    <col min="4369" max="4377" width="8.85546875" customWidth="1"/>
+    <col min="4378" max="4392" width="11.42578125" customWidth="1"/>
+    <col min="4393" max="4393" width="8.85546875" customWidth="1"/>
+    <col min="4394" max="4394" width="11.42578125" customWidth="1"/>
+    <col min="4395" max="4396" width="8.85546875" customWidth="1"/>
+    <col min="4397" max="4401" width="11.42578125" customWidth="1"/>
+    <col min="4402" max="4402" width="8.85546875" customWidth="1"/>
+    <col min="4403" max="4405" width="11.42578125" customWidth="1"/>
+    <col min="4406" max="4406" width="8.85546875" customWidth="1"/>
+    <col min="4407" max="4411" width="11.42578125" customWidth="1"/>
+    <col min="4412" max="4416" width="8.85546875" customWidth="1"/>
+    <col min="4417" max="4609" width="11.42578125" customWidth="1"/>
+    <col min="4610" max="4611" width="8.85546875" customWidth="1"/>
+    <col min="4612" max="4612" width="11.42578125" customWidth="1"/>
+    <col min="4613" max="4616" width="8.85546875" customWidth="1"/>
+    <col min="4617" max="4620" width="11.42578125" customWidth="1"/>
+    <col min="4621" max="4621" width="8.85546875" customWidth="1"/>
+    <col min="4622" max="4624" width="11.42578125" customWidth="1"/>
+    <col min="4625" max="4633" width="8.85546875" customWidth="1"/>
+    <col min="4634" max="4648" width="11.42578125" customWidth="1"/>
+    <col min="4649" max="4649" width="8.85546875" customWidth="1"/>
+    <col min="4650" max="4650" width="11.42578125" customWidth="1"/>
+    <col min="4651" max="4652" width="8.85546875" customWidth="1"/>
+    <col min="4653" max="4657" width="11.42578125" customWidth="1"/>
+    <col min="4658" max="4658" width="8.85546875" customWidth="1"/>
+    <col min="4659" max="4661" width="11.42578125" customWidth="1"/>
+    <col min="4662" max="4662" width="8.85546875" customWidth="1"/>
+    <col min="4663" max="4667" width="11.42578125" customWidth="1"/>
+    <col min="4668" max="4672" width="8.85546875" customWidth="1"/>
+    <col min="4673" max="4865" width="11.42578125" customWidth="1"/>
+    <col min="4866" max="4867" width="8.85546875" customWidth="1"/>
+    <col min="4868" max="4868" width="11.42578125" customWidth="1"/>
+    <col min="4869" max="4872" width="8.85546875" customWidth="1"/>
+    <col min="4873" max="4876" width="11.42578125" customWidth="1"/>
+    <col min="4877" max="4877" width="8.85546875" customWidth="1"/>
+    <col min="4878" max="4880" width="11.42578125" customWidth="1"/>
+    <col min="4881" max="4889" width="8.85546875" customWidth="1"/>
+    <col min="4890" max="4904" width="11.42578125" customWidth="1"/>
+    <col min="4905" max="4905" width="8.85546875" customWidth="1"/>
+    <col min="4906" max="4906" width="11.42578125" customWidth="1"/>
+    <col min="4907" max="4908" width="8.85546875" customWidth="1"/>
+    <col min="4909" max="4913" width="11.42578125" customWidth="1"/>
+    <col min="4914" max="4914" width="8.85546875" customWidth="1"/>
+    <col min="4915" max="4917" width="11.42578125" customWidth="1"/>
+    <col min="4918" max="4918" width="8.85546875" customWidth="1"/>
+    <col min="4919" max="4923" width="11.42578125" customWidth="1"/>
+    <col min="4924" max="4928" width="8.85546875" customWidth="1"/>
+    <col min="4929" max="5121" width="11.42578125" customWidth="1"/>
+    <col min="5122" max="5123" width="8.85546875" customWidth="1"/>
+    <col min="5124" max="5124" width="11.42578125" customWidth="1"/>
+    <col min="5125" max="5128" width="8.85546875" customWidth="1"/>
+    <col min="5129" max="5132" width="11.42578125" customWidth="1"/>
+    <col min="5133" max="5133" width="8.85546875" customWidth="1"/>
+    <col min="5134" max="5136" width="11.42578125" customWidth="1"/>
+    <col min="5137" max="5145" width="8.85546875" customWidth="1"/>
+    <col min="5146" max="5160" width="11.42578125" customWidth="1"/>
+    <col min="5161" max="5161" width="8.85546875" customWidth="1"/>
+    <col min="5162" max="5162" width="11.42578125" customWidth="1"/>
+    <col min="5163" max="5164" width="8.85546875" customWidth="1"/>
+    <col min="5165" max="5169" width="11.42578125" customWidth="1"/>
+    <col min="5170" max="5170" width="8.85546875" customWidth="1"/>
+    <col min="5171" max="5173" width="11.42578125" customWidth="1"/>
+    <col min="5174" max="5174" width="8.85546875" customWidth="1"/>
+    <col min="5175" max="5179" width="11.42578125" customWidth="1"/>
+    <col min="5180" max="5184" width="8.85546875" customWidth="1"/>
+    <col min="5185" max="5377" width="11.42578125" customWidth="1"/>
+    <col min="5378" max="5379" width="8.85546875" customWidth="1"/>
+    <col min="5380" max="5380" width="11.42578125" customWidth="1"/>
+    <col min="5381" max="5384" width="8.85546875" customWidth="1"/>
+    <col min="5385" max="5388" width="11.42578125" customWidth="1"/>
+    <col min="5389" max="5389" width="8.85546875" customWidth="1"/>
+    <col min="5390" max="5392" width="11.42578125" customWidth="1"/>
+    <col min="5393" max="5401" width="8.85546875" customWidth="1"/>
+    <col min="5402" max="5416" width="11.42578125" customWidth="1"/>
+    <col min="5417" max="5417" width="8.85546875" customWidth="1"/>
+    <col min="5418" max="5418" width="11.42578125" customWidth="1"/>
+    <col min="5419" max="5420" width="8.85546875" customWidth="1"/>
+    <col min="5421" max="5425" width="11.42578125" customWidth="1"/>
+    <col min="5426" max="5426" width="8.85546875" customWidth="1"/>
+    <col min="5427" max="5429" width="11.42578125" customWidth="1"/>
+    <col min="5430" max="5430" width="8.85546875" customWidth="1"/>
+    <col min="5431" max="5435" width="11.42578125" customWidth="1"/>
+    <col min="5436" max="5440" width="8.85546875" customWidth="1"/>
+    <col min="5441" max="5633" width="11.42578125" customWidth="1"/>
+    <col min="5634" max="5635" width="8.85546875" customWidth="1"/>
+    <col min="5636" max="5636" width="11.42578125" customWidth="1"/>
+    <col min="5637" max="5640" width="8.85546875" customWidth="1"/>
+    <col min="5641" max="5644" width="11.42578125" customWidth="1"/>
+    <col min="5645" max="5645" width="8.85546875" customWidth="1"/>
+    <col min="5646" max="5648" width="11.42578125" customWidth="1"/>
+    <col min="5649" max="5657" width="8.85546875" customWidth="1"/>
+    <col min="5658" max="5672" width="11.42578125" customWidth="1"/>
+    <col min="5673" max="5673" width="8.85546875" customWidth="1"/>
+    <col min="5674" max="5674" width="11.42578125" customWidth="1"/>
+    <col min="5675" max="5676" width="8.85546875" customWidth="1"/>
+    <col min="5677" max="5681" width="11.42578125" customWidth="1"/>
+    <col min="5682" max="5682" width="8.85546875" customWidth="1"/>
+    <col min="5683" max="5685" width="11.42578125" customWidth="1"/>
+    <col min="5686" max="5686" width="8.85546875" customWidth="1"/>
+    <col min="5687" max="5691" width="11.42578125" customWidth="1"/>
+    <col min="5692" max="5696" width="8.85546875" customWidth="1"/>
+    <col min="5697" max="5889" width="11.42578125" customWidth="1"/>
+    <col min="5890" max="5891" width="8.85546875" customWidth="1"/>
+    <col min="5892" max="5892" width="11.42578125" customWidth="1"/>
+    <col min="5893" max="5896" width="8.85546875" customWidth="1"/>
+    <col min="5897" max="5900" width="11.42578125" customWidth="1"/>
+    <col min="5901" max="5901" width="8.85546875" customWidth="1"/>
+    <col min="5902" max="5904" width="11.42578125" customWidth="1"/>
+    <col min="5905" max="5913" width="8.85546875" customWidth="1"/>
+    <col min="5914" max="5928" width="11.42578125" customWidth="1"/>
+    <col min="5929" max="5929" width="8.85546875" customWidth="1"/>
+    <col min="5930" max="5930" width="11.42578125" customWidth="1"/>
+    <col min="5931" max="5932" width="8.85546875" customWidth="1"/>
+    <col min="5933" max="5937" width="11.42578125" customWidth="1"/>
+    <col min="5938" max="5938" width="8.85546875" customWidth="1"/>
+    <col min="5939" max="5941" width="11.42578125" customWidth="1"/>
+    <col min="5942" max="5942" width="8.85546875" customWidth="1"/>
+    <col min="5943" max="5947" width="11.42578125" customWidth="1"/>
+    <col min="5948" max="5952" width="8.85546875" customWidth="1"/>
+    <col min="5953" max="6145" width="11.42578125" customWidth="1"/>
+    <col min="6146" max="6147" width="8.85546875" customWidth="1"/>
+    <col min="6148" max="6148" width="11.42578125" customWidth="1"/>
+    <col min="6149" max="6152" width="8.85546875" customWidth="1"/>
+    <col min="6153" max="6156" width="11.42578125" customWidth="1"/>
+    <col min="6157" max="6157" width="8.85546875" customWidth="1"/>
+    <col min="6158" max="6160" width="11.42578125" customWidth="1"/>
+    <col min="6161" max="6169" width="8.85546875" customWidth="1"/>
+    <col min="6170" max="6184" width="11.42578125" customWidth="1"/>
+    <col min="6185" max="6185" width="8.85546875" customWidth="1"/>
+    <col min="6186" max="6186" width="11.42578125" customWidth="1"/>
+    <col min="6187" max="6188" width="8.85546875" customWidth="1"/>
+    <col min="6189" max="6193" width="11.42578125" customWidth="1"/>
+    <col min="6194" max="6194" width="8.85546875" customWidth="1"/>
+    <col min="6195" max="6197" width="11.42578125" customWidth="1"/>
+    <col min="6198" max="6198" width="8.85546875" customWidth="1"/>
+    <col min="6199" max="6203" width="11.42578125" customWidth="1"/>
+    <col min="6204" max="6208" width="8.85546875" customWidth="1"/>
+    <col min="6209" max="6401" width="11.42578125" customWidth="1"/>
+    <col min="6402" max="6403" width="8.85546875" customWidth="1"/>
+    <col min="6404" max="6404" width="11.42578125" customWidth="1"/>
+    <col min="6405" max="6408" width="8.85546875" customWidth="1"/>
+    <col min="6409" max="6412" width="11.42578125" customWidth="1"/>
+    <col min="6413" max="6413" width="8.85546875" customWidth="1"/>
+    <col min="6414" max="6416" width="11.42578125" customWidth="1"/>
+    <col min="6417" max="6425" width="8.85546875" customWidth="1"/>
+    <col min="6426" max="6440" width="11.42578125" customWidth="1"/>
+    <col min="6441" max="6441" width="8.85546875" customWidth="1"/>
+    <col min="6442" max="6442" width="11.42578125" customWidth="1"/>
+    <col min="6443" max="6444" width="8.85546875" customWidth="1"/>
+    <col min="6445" max="6449" width="11.42578125" customWidth="1"/>
+    <col min="6450" max="6450" width="8.85546875" customWidth="1"/>
+    <col min="6451" max="6453" width="11.42578125" customWidth="1"/>
+    <col min="6454" max="6454" width="8.85546875" customWidth="1"/>
+    <col min="6455" max="6459" width="11.42578125" customWidth="1"/>
+    <col min="6460" max="6464" width="8.85546875" customWidth="1"/>
+    <col min="6465" max="6657" width="11.42578125" customWidth="1"/>
+    <col min="6658" max="6659" width="8.85546875" customWidth="1"/>
+    <col min="6660" max="6660" width="11.42578125" customWidth="1"/>
+    <col min="6661" max="6664" width="8.85546875" customWidth="1"/>
+    <col min="6665" max="6668" width="11.42578125" customWidth="1"/>
+    <col min="6669" max="6669" width="8.85546875" customWidth="1"/>
+    <col min="6670" max="6672" width="11.42578125" customWidth="1"/>
+    <col min="6673" max="6681" width="8.85546875" customWidth="1"/>
+    <col min="6682" max="6696" width="11.42578125" customWidth="1"/>
+    <col min="6697" max="6697" width="8.85546875" customWidth="1"/>
+    <col min="6698" max="6698" width="11.42578125" customWidth="1"/>
+    <col min="6699" max="6700" width="8.85546875" customWidth="1"/>
+    <col min="6701" max="6705" width="11.42578125" customWidth="1"/>
+    <col min="6706" max="6706" width="8.85546875" customWidth="1"/>
+    <col min="6707" max="6709" width="11.42578125" customWidth="1"/>
+    <col min="6710" max="6710" width="8.85546875" customWidth="1"/>
+    <col min="6711" max="6715" width="11.42578125" customWidth="1"/>
+    <col min="6716" max="6720" width="8.85546875" customWidth="1"/>
+    <col min="6721" max="6913" width="11.42578125" customWidth="1"/>
+    <col min="6914" max="6915" width="8.85546875" customWidth="1"/>
+    <col min="6916" max="6916" width="11.42578125" customWidth="1"/>
+    <col min="6917" max="6920" width="8.85546875" customWidth="1"/>
+    <col min="6921" max="6924" width="11.42578125" customWidth="1"/>
+    <col min="6925" max="6925" width="8.85546875" customWidth="1"/>
+    <col min="6926" max="6928" width="11.42578125" customWidth="1"/>
+    <col min="6929" max="6937" width="8.85546875" customWidth="1"/>
+    <col min="6938" max="6952" width="11.42578125" customWidth="1"/>
+    <col min="6953" max="6953" width="8.85546875" customWidth="1"/>
+    <col min="6954" max="6954" width="11.42578125" customWidth="1"/>
+    <col min="6955" max="6956" width="8.85546875" customWidth="1"/>
+    <col min="6957" max="6961" width="11.42578125" customWidth="1"/>
+    <col min="6962" max="6962" width="8.85546875" customWidth="1"/>
+    <col min="6963" max="6965" width="11.42578125" customWidth="1"/>
+    <col min="6966" max="6966" width="8.85546875" customWidth="1"/>
+    <col min="6967" max="6971" width="11.42578125" customWidth="1"/>
+    <col min="6972" max="6976" width="8.85546875" customWidth="1"/>
+    <col min="6977" max="7169" width="11.42578125" customWidth="1"/>
+    <col min="7170" max="7171" width="8.85546875" customWidth="1"/>
+    <col min="7172" max="7172" width="11.42578125" customWidth="1"/>
+    <col min="7173" max="7176" width="8.85546875" customWidth="1"/>
+    <col min="7177" max="7180" width="11.42578125" customWidth="1"/>
+    <col min="7181" max="7181" width="8.85546875" customWidth="1"/>
+    <col min="7182" max="7184" width="11.42578125" customWidth="1"/>
+    <col min="7185" max="7193" width="8.85546875" customWidth="1"/>
+    <col min="7194" max="7208" width="11.42578125" customWidth="1"/>
+    <col min="7209" max="7209" width="8.85546875" customWidth="1"/>
+    <col min="7210" max="7210" width="11.42578125" customWidth="1"/>
+    <col min="7211" max="7212" width="8.85546875" customWidth="1"/>
+    <col min="7213" max="7217" width="11.42578125" customWidth="1"/>
+    <col min="7218" max="7218" width="8.85546875" customWidth="1"/>
+    <col min="7219" max="7221" width="11.42578125" customWidth="1"/>
+    <col min="7222" max="7222" width="8.85546875" customWidth="1"/>
+    <col min="7223" max="7227" width="11.42578125" customWidth="1"/>
+    <col min="7228" max="7232" width="8.85546875" customWidth="1"/>
+    <col min="7233" max="7425" width="11.42578125" customWidth="1"/>
+    <col min="7426" max="7427" width="8.85546875" customWidth="1"/>
+    <col min="7428" max="7428" width="11.42578125" customWidth="1"/>
+    <col min="7429" max="7432" width="8.85546875" customWidth="1"/>
+    <col min="7433" max="7436" width="11.42578125" customWidth="1"/>
+    <col min="7437" max="7437" width="8.85546875" customWidth="1"/>
+    <col min="7438" max="7440" width="11.42578125" customWidth="1"/>
+    <col min="7441" max="7449" width="8.85546875" customWidth="1"/>
+    <col min="7450" max="7464" width="11.42578125" customWidth="1"/>
+    <col min="7465" max="7465" width="8.85546875" customWidth="1"/>
+    <col min="7466" max="7466" width="11.42578125" customWidth="1"/>
+    <col min="7467" max="7468" width="8.85546875" customWidth="1"/>
+    <col min="7469" max="7473" width="11.42578125" customWidth="1"/>
+    <col min="7474" max="7474" width="8.85546875" customWidth="1"/>
+    <col min="7475" max="7477" width="11.42578125" customWidth="1"/>
+    <col min="7478" max="7478" width="8.85546875" customWidth="1"/>
+    <col min="7479" max="7483" width="11.42578125" customWidth="1"/>
+    <col min="7484" max="7488" width="8.85546875" customWidth="1"/>
+    <col min="7489" max="7681" width="11.42578125" customWidth="1"/>
+    <col min="7682" max="7683" width="8.85546875" customWidth="1"/>
+    <col min="7684" max="7684" width="11.42578125" customWidth="1"/>
+    <col min="7685" max="7688" width="8.85546875" customWidth="1"/>
+    <col min="7689" max="7692" width="11.42578125" customWidth="1"/>
+    <col min="7693" max="7693" width="8.85546875" customWidth="1"/>
+    <col min="7694" max="7696" width="11.42578125" customWidth="1"/>
+    <col min="7697" max="7705" width="8.85546875" customWidth="1"/>
+    <col min="7706" max="7720" width="11.42578125" customWidth="1"/>
+    <col min="7721" max="7721" width="8.85546875" customWidth="1"/>
+    <col min="7722" max="7722" width="11.42578125" customWidth="1"/>
+    <col min="7723" max="7724" width="8.85546875" customWidth="1"/>
+    <col min="7725" max="7729" width="11.42578125" customWidth="1"/>
+    <col min="7730" max="7730" width="8.85546875" customWidth="1"/>
+    <col min="7731" max="7733" width="11.42578125" customWidth="1"/>
+    <col min="7734" max="7734" width="8.85546875" customWidth="1"/>
+    <col min="7735" max="7739" width="11.42578125" customWidth="1"/>
+    <col min="7740" max="7744" width="8.85546875" customWidth="1"/>
+    <col min="7745" max="7937" width="11.42578125" customWidth="1"/>
+    <col min="7938" max="7939" width="8.85546875" customWidth="1"/>
+    <col min="7940" max="7940" width="11.42578125" customWidth="1"/>
+    <col min="7941" max="7944" width="8.85546875" customWidth="1"/>
+    <col min="7945" max="7948" width="11.42578125" customWidth="1"/>
+    <col min="7949" max="7949" width="8.85546875" customWidth="1"/>
+    <col min="7950" max="7952" width="11.42578125" customWidth="1"/>
+    <col min="7953" max="7961" width="8.85546875" customWidth="1"/>
+    <col min="7962" max="7976" width="11.42578125" customWidth="1"/>
+    <col min="7977" max="7977" width="8.85546875" customWidth="1"/>
+    <col min="7978" max="7978" width="11.42578125" customWidth="1"/>
+    <col min="7979" max="7980" width="8.85546875" customWidth="1"/>
+    <col min="7981" max="7985" width="11.42578125" customWidth="1"/>
+    <col min="7986" max="7986" width="8.85546875" customWidth="1"/>
+    <col min="7987" max="7989" width="11.42578125" customWidth="1"/>
+    <col min="7990" max="7990" width="8.85546875" customWidth="1"/>
+    <col min="7991" max="7995" width="11.42578125" customWidth="1"/>
+    <col min="7996" max="8000" width="8.85546875" customWidth="1"/>
+    <col min="8001" max="8193" width="11.42578125" customWidth="1"/>
+    <col min="8194" max="8195" width="8.85546875" customWidth="1"/>
+    <col min="8196" max="8196" width="11.42578125" customWidth="1"/>
+    <col min="8197" max="8200" width="8.85546875" customWidth="1"/>
+    <col min="8201" max="8204" width="11.42578125" customWidth="1"/>
+    <col min="8205" max="8205" width="8.85546875" customWidth="1"/>
+    <col min="8206" max="8208" width="11.42578125" customWidth="1"/>
+    <col min="8209" max="8217" width="8.85546875" customWidth="1"/>
+    <col min="8218" max="8232" width="11.42578125" customWidth="1"/>
+    <col min="8233" max="8233" width="8.85546875" customWidth="1"/>
+    <col min="8234" max="8234" width="11.42578125" customWidth="1"/>
+    <col min="8235" max="8236" width="8.85546875" customWidth="1"/>
+    <col min="8237" max="8241" width="11.42578125" customWidth="1"/>
+    <col min="8242" max="8242" width="8.85546875" customWidth="1"/>
+    <col min="8243" max="8245" width="11.42578125" customWidth="1"/>
+    <col min="8246" max="8246" width="8.85546875" customWidth="1"/>
+    <col min="8247" max="8251" width="11.42578125" customWidth="1"/>
+    <col min="8252" max="8256" width="8.85546875" customWidth="1"/>
+    <col min="8257" max="8449" width="11.42578125" customWidth="1"/>
+    <col min="8450" max="8451" width="8.85546875" customWidth="1"/>
+    <col min="8452" max="8452" width="11.42578125" customWidth="1"/>
+    <col min="8453" max="8456" width="8.85546875" customWidth="1"/>
+    <col min="8457" max="8460" width="11.42578125" customWidth="1"/>
+    <col min="8461" max="8461" width="8.85546875" customWidth="1"/>
+    <col min="8462" max="8464" width="11.42578125" customWidth="1"/>
+    <col min="8465" max="8473" width="8.85546875" customWidth="1"/>
+    <col min="8474" max="8488" width="11.42578125" customWidth="1"/>
+    <col min="8489" max="8489" width="8.85546875" customWidth="1"/>
+    <col min="8490" max="8490" width="11.42578125" customWidth="1"/>
+    <col min="8491" max="8492" width="8.85546875" customWidth="1"/>
+    <col min="8493" max="8497" width="11.42578125" customWidth="1"/>
+    <col min="8498" max="8498" width="8.85546875" customWidth="1"/>
+    <col min="8499" max="8501" width="11.42578125" customWidth="1"/>
+    <col min="8502" max="8502" width="8.85546875" customWidth="1"/>
+    <col min="8503" max="8507" width="11.42578125" customWidth="1"/>
+    <col min="8508" max="8512" width="8.85546875" customWidth="1"/>
+    <col min="8513" max="8705" width="11.42578125" customWidth="1"/>
+    <col min="8706" max="8707" width="8.85546875" customWidth="1"/>
+    <col min="8708" max="8708" width="11.42578125" customWidth="1"/>
+    <col min="8709" max="8712" width="8.85546875" customWidth="1"/>
+    <col min="8713" max="8716" width="11.42578125" customWidth="1"/>
+    <col min="8717" max="8717" width="8.85546875" customWidth="1"/>
+    <col min="8718" max="8720" width="11.42578125" customWidth="1"/>
+    <col min="8721" max="8729" width="8.85546875" customWidth="1"/>
+    <col min="8730" max="8744" width="11.42578125" customWidth="1"/>
+    <col min="8745" max="8745" width="8.85546875" customWidth="1"/>
+    <col min="8746" max="8746" width="11.42578125" customWidth="1"/>
+    <col min="8747" max="8748" width="8.85546875" customWidth="1"/>
+    <col min="8749" max="8753" width="11.42578125" customWidth="1"/>
+    <col min="8754" max="8754" width="8.85546875" customWidth="1"/>
+    <col min="8755" max="8757" width="11.42578125" customWidth="1"/>
+    <col min="8758" max="8758" width="8.85546875" customWidth="1"/>
+    <col min="8759" max="8763" width="11.42578125" customWidth="1"/>
+    <col min="8764" max="8768" width="8.85546875" customWidth="1"/>
+    <col min="8769" max="8961" width="11.42578125" customWidth="1"/>
+    <col min="8962" max="8963" width="8.85546875" customWidth="1"/>
+    <col min="8964" max="8964" width="11.42578125" customWidth="1"/>
+    <col min="8965" max="8968" width="8.85546875" customWidth="1"/>
+    <col min="8969" max="8972" width="11.42578125" customWidth="1"/>
+    <col min="8973" max="8973" width="8.85546875" customWidth="1"/>
+    <col min="8974" max="8976" width="11.42578125" customWidth="1"/>
+    <col min="8977" max="8985" width="8.85546875" customWidth="1"/>
+    <col min="8986" max="9000" width="11.42578125" customWidth="1"/>
+    <col min="9001" max="9001" width="8.85546875" customWidth="1"/>
+    <col min="9002" max="9002" width="11.42578125" customWidth="1"/>
+    <col min="9003" max="9004" width="8.85546875" customWidth="1"/>
+    <col min="9005" max="9009" width="11.42578125" customWidth="1"/>
+    <col min="9010" max="9010" width="8.85546875" customWidth="1"/>
+    <col min="9011" max="9013" width="11.42578125" customWidth="1"/>
+    <col min="9014" max="9014" width="8.85546875" customWidth="1"/>
+    <col min="9015" max="9019" width="11.42578125" customWidth="1"/>
+    <col min="9020" max="9024" width="8.85546875" customWidth="1"/>
+    <col min="9025" max="9217" width="11.42578125" customWidth="1"/>
+    <col min="9218" max="9219" width="8.85546875" customWidth="1"/>
+    <col min="9220" max="9220" width="11.42578125" customWidth="1"/>
+    <col min="9221" max="9224" width="8.85546875" customWidth="1"/>
+    <col min="9225" max="9228" width="11.42578125" customWidth="1"/>
+    <col min="9229" max="9229" width="8.85546875" customWidth="1"/>
+    <col min="9230" max="9232" width="11.42578125" customWidth="1"/>
+    <col min="9233" max="9241" width="8.85546875" customWidth="1"/>
+    <col min="9242" max="9256" width="11.42578125" customWidth="1"/>
+    <col min="9257" max="9257" width="8.85546875" customWidth="1"/>
+    <col min="9258" max="9258" width="11.42578125" customWidth="1"/>
+    <col min="9259" max="9260" width="8.85546875" customWidth="1"/>
+    <col min="9261" max="9265" width="11.42578125" customWidth="1"/>
+    <col min="9266" max="9266" width="8.85546875" customWidth="1"/>
+    <col min="9267" max="9269" width="11.42578125" customWidth="1"/>
+    <col min="9270" max="9270" width="8.85546875" customWidth="1"/>
+    <col min="9271" max="9275" width="11.42578125" customWidth="1"/>
+    <col min="9276" max="9280" width="8.85546875" customWidth="1"/>
+    <col min="9281" max="9473" width="11.42578125" customWidth="1"/>
+    <col min="9474" max="9475" width="8.85546875" customWidth="1"/>
+    <col min="9476" max="9476" width="11.42578125" customWidth="1"/>
+    <col min="9477" max="9480" width="8.85546875" customWidth="1"/>
+    <col min="9481" max="9484" width="11.42578125" customWidth="1"/>
+    <col min="9485" max="9485" width="8.85546875" customWidth="1"/>
+    <col min="9486" max="9488" width="11.42578125" customWidth="1"/>
+    <col min="9489" max="9497" width="8.85546875" customWidth="1"/>
+    <col min="9498" max="9512" width="11.42578125" customWidth="1"/>
+    <col min="9513" max="9513" width="8.85546875" customWidth="1"/>
+    <col min="9514" max="9514" width="11.42578125" customWidth="1"/>
+    <col min="9515" max="9516" width="8.85546875" customWidth="1"/>
+    <col min="9517" max="9521" width="11.42578125" customWidth="1"/>
+    <col min="9522" max="9522" width="8.85546875" customWidth="1"/>
+    <col min="9523" max="9525" width="11.42578125" customWidth="1"/>
+    <col min="9526" max="9526" width="8.85546875" customWidth="1"/>
+    <col min="9527" max="9531" width="11.42578125" customWidth="1"/>
+    <col min="9532" max="9536" width="8.85546875" customWidth="1"/>
+    <col min="9537" max="9729" width="11.42578125" customWidth="1"/>
+    <col min="9730" max="9731" width="8.85546875" customWidth="1"/>
+    <col min="9732" max="9732" width="11.42578125" customWidth="1"/>
+    <col min="9733" max="9736" width="8.85546875" customWidth="1"/>
+    <col min="9737" max="9740" width="11.42578125" customWidth="1"/>
+    <col min="9741" max="9741" width="8.85546875" customWidth="1"/>
+    <col min="9742" max="9744" width="11.42578125" customWidth="1"/>
+    <col min="9745" max="9753" width="8.85546875" customWidth="1"/>
+    <col min="9754" max="9768" width="11.42578125" customWidth="1"/>
+    <col min="9769" max="9769" width="8.85546875" customWidth="1"/>
+    <col min="9770" max="9770" width="11.42578125" customWidth="1"/>
+    <col min="9771" max="9772" width="8.85546875" customWidth="1"/>
+    <col min="9773" max="9777" width="11.42578125" customWidth="1"/>
+    <col min="9778" max="9778" width="8.85546875" customWidth="1"/>
+    <col min="9779" max="9781" width="11.42578125" customWidth="1"/>
+    <col min="9782" max="9782" width="8.85546875" customWidth="1"/>
+    <col min="9783" max="9787" width="11.42578125" customWidth="1"/>
+    <col min="9788" max="9792" width="8.85546875" customWidth="1"/>
+    <col min="9793" max="9985" width="11.42578125" customWidth="1"/>
+    <col min="9986" max="9987" width="8.85546875" customWidth="1"/>
+    <col min="9988" max="9988" width="11.42578125" customWidth="1"/>
+    <col min="9989" max="9992" width="8.85546875" customWidth="1"/>
+    <col min="9993" max="9996" width="11.42578125" customWidth="1"/>
+    <col min="9997" max="9997" width="8.85546875" customWidth="1"/>
+    <col min="9998" max="10000" width="11.42578125" customWidth="1"/>
+    <col min="10001" max="10009" width="8.85546875" customWidth="1"/>
+    <col min="10010" max="10024" width="11.42578125" customWidth="1"/>
+    <col min="10025" max="10025" width="8.85546875" customWidth="1"/>
+    <col min="10026" max="10026" width="11.42578125" customWidth="1"/>
+    <col min="10027" max="10028" width="8.85546875" customWidth="1"/>
+    <col min="10029" max="10033" width="11.42578125" customWidth="1"/>
+    <col min="10034" max="10034" width="8.85546875" customWidth="1"/>
+    <col min="10035" max="10037" width="11.42578125" customWidth="1"/>
+    <col min="10038" max="10038" width="8.85546875" customWidth="1"/>
+    <col min="10039" max="10043" width="11.42578125" customWidth="1"/>
+    <col min="10044" max="10048" width="8.85546875" customWidth="1"/>
+    <col min="10049" max="10241" width="11.42578125" customWidth="1"/>
+    <col min="10242" max="10243" width="8.85546875" customWidth="1"/>
+    <col min="10244" max="10244" width="11.42578125" customWidth="1"/>
+    <col min="10245" max="10248" width="8.85546875" customWidth="1"/>
+    <col min="10249" max="10252" width="11.42578125" customWidth="1"/>
+    <col min="10253" max="10253" width="8.85546875" customWidth="1"/>
+    <col min="10254" max="10256" width="11.42578125" customWidth="1"/>
+    <col min="10257" max="10265" width="8.85546875" customWidth="1"/>
+    <col min="10266" max="10280" width="11.42578125" customWidth="1"/>
+    <col min="10281" max="10281" width="8.85546875" customWidth="1"/>
+    <col min="10282" max="10282" width="11.42578125" customWidth="1"/>
+    <col min="10283" max="10284" width="8.85546875" customWidth="1"/>
+    <col min="10285" max="10289" width="11.42578125" customWidth="1"/>
+    <col min="10290" max="10290" width="8.85546875" customWidth="1"/>
+    <col min="10291" max="10293" width="11.42578125" customWidth="1"/>
+    <col min="10294" max="10294" width="8.85546875" customWidth="1"/>
+    <col min="10295" max="10299" width="11.42578125" customWidth="1"/>
+    <col min="10300" max="10304" width="8.85546875" customWidth="1"/>
+    <col min="10305" max="10497" width="11.42578125" customWidth="1"/>
+    <col min="10498" max="10499" width="8.85546875" customWidth="1"/>
+    <col min="10500" max="10500" width="11.42578125" customWidth="1"/>
+    <col min="10501" max="10504" width="8.85546875" customWidth="1"/>
+    <col min="10505" max="10508" width="11.42578125" customWidth="1"/>
+    <col min="10509" max="10509" width="8.85546875" customWidth="1"/>
+    <col min="10510" max="10512" width="11.42578125" customWidth="1"/>
+    <col min="10513" max="10521" width="8.85546875" customWidth="1"/>
+    <col min="10522" max="10536" width="11.42578125" customWidth="1"/>
+    <col min="10537" max="10537" width="8.85546875" customWidth="1"/>
+    <col min="10538" max="10538" width="11.42578125" customWidth="1"/>
+    <col min="10539" max="10540" width="8.85546875" customWidth="1"/>
+    <col min="10541" max="10545" width="11.42578125" customWidth="1"/>
+    <col min="10546" max="10546" width="8.85546875" customWidth="1"/>
+    <col min="10547" max="10549" width="11.42578125" customWidth="1"/>
+    <col min="10550" max="10550" width="8.85546875" customWidth="1"/>
+    <col min="10551" max="10555" width="11.42578125" customWidth="1"/>
+    <col min="10556" max="10560" width="8.85546875" customWidth="1"/>
+    <col min="10561" max="10753" width="11.42578125" customWidth="1"/>
+    <col min="10754" max="10755" width="8.85546875" customWidth="1"/>
+    <col min="10756" max="10756" width="11.42578125" customWidth="1"/>
+    <col min="10757" max="10760" width="8.85546875" customWidth="1"/>
+    <col min="10761" max="10764" width="11.42578125" customWidth="1"/>
+    <col min="10765" max="10765" width="8.85546875" customWidth="1"/>
+    <col min="10766" max="10768" width="11.42578125" customWidth="1"/>
+    <col min="10769" max="10777" width="8.85546875" customWidth="1"/>
+    <col min="10778" max="10792" width="11.42578125" customWidth="1"/>
+    <col min="10793" max="10793" width="8.85546875" customWidth="1"/>
+    <col min="10794" max="10794" width="11.42578125" customWidth="1"/>
+    <col min="10795" max="10796" width="8.85546875" customWidth="1"/>
+    <col min="10797" max="10801" width="11.42578125" customWidth="1"/>
+    <col min="10802" max="10802" width="8.85546875" customWidth="1"/>
+    <col min="10803" max="10805" width="11.42578125" customWidth="1"/>
+    <col min="10806" max="10806" width="8.85546875" customWidth="1"/>
+    <col min="10807" max="10811" width="11.42578125" customWidth="1"/>
+    <col min="10812" max="10816" width="8.85546875" customWidth="1"/>
+    <col min="10817" max="11009" width="11.42578125" customWidth="1"/>
+    <col min="11010" max="11011" width="8.85546875" customWidth="1"/>
+    <col min="11012" max="11012" width="11.42578125" customWidth="1"/>
+    <col min="11013" max="11016" width="8.85546875" customWidth="1"/>
+    <col min="11017" max="11020" width="11.42578125" customWidth="1"/>
+    <col min="11021" max="11021" width="8.85546875" customWidth="1"/>
+    <col min="11022" max="11024" width="11.42578125" customWidth="1"/>
+    <col min="11025" max="11033" width="8.85546875" customWidth="1"/>
+    <col min="11034" max="11048" width="11.42578125" customWidth="1"/>
+    <col min="11049" max="11049" width="8.85546875" customWidth="1"/>
+    <col min="11050" max="11050" width="11.42578125" customWidth="1"/>
+    <col min="11051" max="11052" width="8.85546875" customWidth="1"/>
+    <col min="11053" max="11057" width="11.42578125" customWidth="1"/>
+    <col min="11058" max="11058" width="8.85546875" customWidth="1"/>
+    <col min="11059" max="11061" width="11.42578125" customWidth="1"/>
+    <col min="11062" max="11062" width="8.85546875" customWidth="1"/>
+    <col min="11063" max="11067" width="11.42578125" customWidth="1"/>
+    <col min="11068" max="11072" width="8.85546875" customWidth="1"/>
+    <col min="11073" max="11265" width="11.42578125" customWidth="1"/>
+    <col min="11266" max="11267" width="8.85546875" customWidth="1"/>
+    <col min="11268" max="11268" width="11.42578125" customWidth="1"/>
+    <col min="11269" max="11272" width="8.85546875" customWidth="1"/>
+    <col min="11273" max="11276" width="11.42578125" customWidth="1"/>
+    <col min="11277" max="11277" width="8.85546875" customWidth="1"/>
+    <col min="11278" max="11280" width="11.42578125" customWidth="1"/>
+    <col min="11281" max="11289" width="8.85546875" customWidth="1"/>
+    <col min="11290" max="11304" width="11.42578125" customWidth="1"/>
+    <col min="11305" max="11305" width="8.85546875" customWidth="1"/>
+    <col min="11306" max="11306" width="11.42578125" customWidth="1"/>
+    <col min="11307" max="11308" width="8.85546875" customWidth="1"/>
+    <col min="11309" max="11313" width="11.42578125" customWidth="1"/>
+    <col min="11314" max="11314" width="8.85546875" customWidth="1"/>
+    <col min="11315" max="11317" width="11.42578125" customWidth="1"/>
+    <col min="11318" max="11318" width="8.85546875" customWidth="1"/>
+    <col min="11319" max="11323" width="11.42578125" customWidth="1"/>
+    <col min="11324" max="11328" width="8.85546875" customWidth="1"/>
+    <col min="11329" max="11521" width="11.42578125" customWidth="1"/>
+    <col min="11522" max="11523" width="8.85546875" customWidth="1"/>
+    <col min="11524" max="11524" width="11.42578125" customWidth="1"/>
+    <col min="11525" max="11528" width="8.85546875" customWidth="1"/>
+    <col min="11529" max="11532" width="11.42578125" customWidth="1"/>
+    <col min="11533" max="11533" width="8.85546875" customWidth="1"/>
+    <col min="11534" max="11536" width="11.42578125" customWidth="1"/>
+    <col min="11537" max="11545" width="8.85546875" customWidth="1"/>
+    <col min="11546" max="11560" width="11.42578125" customWidth="1"/>
+    <col min="11561" max="11561" width="8.85546875" customWidth="1"/>
+    <col min="11562" max="11562" width="11.42578125" customWidth="1"/>
+    <col min="11563" max="11564" width="8.85546875" customWidth="1"/>
+    <col min="11565" max="11569" width="11.42578125" customWidth="1"/>
+    <col min="11570" max="11570" width="8.85546875" customWidth="1"/>
+    <col min="11571" max="11573" width="11.42578125" customWidth="1"/>
+    <col min="11574" max="11574" width="8.85546875" customWidth="1"/>
+    <col min="11575" max="11579" width="11.42578125" customWidth="1"/>
+    <col min="11580" max="11584" width="8.85546875" customWidth="1"/>
+    <col min="11585" max="11777" width="11.42578125" customWidth="1"/>
+    <col min="11778" max="11779" width="8.85546875" customWidth="1"/>
+    <col min="11780" max="11780" width="11.42578125" customWidth="1"/>
+    <col min="11781" max="11784" width="8.85546875" customWidth="1"/>
+    <col min="11785" max="11788" width="11.42578125" customWidth="1"/>
+    <col min="11789" max="11789" width="8.85546875" customWidth="1"/>
+    <col min="11790" max="11792" width="11.42578125" customWidth="1"/>
+    <col min="11793" max="11801" width="8.85546875" customWidth="1"/>
+    <col min="11802" max="11816" width="11.42578125" customWidth="1"/>
+    <col min="11817" max="11817" width="8.85546875" customWidth="1"/>
+    <col min="11818" max="11818" width="11.42578125" customWidth="1"/>
+    <col min="11819" max="11820" width="8.85546875" customWidth="1"/>
+    <col min="11821" max="11825" width="11.42578125" customWidth="1"/>
+    <col min="11826" max="11826" width="8.85546875" customWidth="1"/>
+    <col min="11827" max="11829" width="11.42578125" customWidth="1"/>
+    <col min="11830" max="11830" width="8.85546875" customWidth="1"/>
+    <col min="11831" max="11835" width="11.42578125" customWidth="1"/>
+    <col min="11836" max="11840" width="8.85546875" customWidth="1"/>
+    <col min="11841" max="12033" width="11.42578125" customWidth="1"/>
+    <col min="12034" max="12035" width="8.85546875" customWidth="1"/>
+    <col min="12036" max="12036" width="11.42578125" customWidth="1"/>
+    <col min="12037" max="12040" width="8.85546875" customWidth="1"/>
+    <col min="12041" max="12044" width="11.42578125" customWidth="1"/>
+    <col min="12045" max="12045" width="8.85546875" customWidth="1"/>
+    <col min="12046" max="12048" width="11.42578125" customWidth="1"/>
+    <col min="12049" max="12057" width="8.85546875" customWidth="1"/>
+    <col min="12058" max="12072" width="11.42578125" customWidth="1"/>
+    <col min="12073" max="12073" width="8.85546875" customWidth="1"/>
+    <col min="12074" max="12074" width="11.42578125" customWidth="1"/>
+    <col min="12075" max="12076" width="8.85546875" customWidth="1"/>
+    <col min="12077" max="12081" width="11.42578125" customWidth="1"/>
+    <col min="12082" max="12082" width="8.85546875" customWidth="1"/>
+    <col min="12083" max="12085" width="11.42578125" customWidth="1"/>
+    <col min="12086" max="12086" width="8.85546875" customWidth="1"/>
+    <col min="12087" max="12091" width="11.42578125" customWidth="1"/>
+    <col min="12092" max="12096" width="8.85546875" customWidth="1"/>
+    <col min="12097" max="12289" width="11.42578125" customWidth="1"/>
+    <col min="12290" max="12291" width="8.85546875" customWidth="1"/>
+    <col min="12292" max="12292" width="11.42578125" customWidth="1"/>
+    <col min="12293" max="12296" width="8.85546875" customWidth="1"/>
+    <col min="12297" max="12300" width="11.42578125" customWidth="1"/>
+    <col min="12301" max="12301" width="8.85546875" customWidth="1"/>
+    <col min="12302" max="12304" width="11.42578125" customWidth="1"/>
+    <col min="12305" max="12313" width="8.85546875" customWidth="1"/>
+    <col min="12314" max="12328" width="11.42578125" customWidth="1"/>
+    <col min="12329" max="12329" width="8.85546875" customWidth="1"/>
+    <col min="12330" max="12330" width="11.42578125" customWidth="1"/>
+    <col min="12331" max="12332" width="8.85546875" customWidth="1"/>
+    <col min="12333" max="12337" width="11.42578125" customWidth="1"/>
+    <col min="12338" max="12338" width="8.85546875" customWidth="1"/>
+    <col min="12339" max="12341" width="11.42578125" customWidth="1"/>
+    <col min="12342" max="12342" width="8.85546875" customWidth="1"/>
+    <col min="12343" max="12347" width="11.42578125" customWidth="1"/>
+    <col min="12348" max="12352" width="8.85546875" customWidth="1"/>
+    <col min="12353" max="12545" width="11.42578125" customWidth="1"/>
+    <col min="12546" max="12547" width="8.85546875" customWidth="1"/>
+    <col min="12548" max="12548" width="11.42578125" customWidth="1"/>
+    <col min="12549" max="12552" width="8.85546875" customWidth="1"/>
+    <col min="12553" max="12556" width="11.42578125" customWidth="1"/>
+    <col min="12557" max="12557" width="8.85546875" customWidth="1"/>
+    <col min="12558" max="12560" width="11.42578125" customWidth="1"/>
+    <col min="12561" max="12569" width="8.85546875" customWidth="1"/>
+    <col min="12570" max="12584" width="11.42578125" customWidth="1"/>
+    <col min="12585" max="12585" width="8.85546875" customWidth="1"/>
+    <col min="12586" max="12586" width="11.42578125" customWidth="1"/>
+    <col min="12587" max="12588" width="8.85546875" customWidth="1"/>
+    <col min="12589" max="12593" width="11.42578125" customWidth="1"/>
+    <col min="12594" max="12594" width="8.85546875" customWidth="1"/>
+    <col min="12595" max="12597" width="11.42578125" customWidth="1"/>
+    <col min="12598" max="12598" width="8.85546875" customWidth="1"/>
+    <col min="12599" max="12603" width="11.42578125" customWidth="1"/>
+    <col min="12604" max="12608" width="8.85546875" customWidth="1"/>
+    <col min="12609" max="12801" width="11.42578125" customWidth="1"/>
+    <col min="12802" max="12803" width="8.85546875" customWidth="1"/>
+    <col min="12804" max="12804" width="11.42578125" customWidth="1"/>
+    <col min="12805" max="12808" width="8.85546875" customWidth="1"/>
+    <col min="12809" max="12812" width="11.42578125" customWidth="1"/>
+    <col min="12813" max="12813" width="8.85546875" customWidth="1"/>
+    <col min="12814" max="12816" width="11.42578125" customWidth="1"/>
+    <col min="12817" max="12825" width="8.85546875" customWidth="1"/>
+    <col min="12826" max="12840" width="11.42578125" customWidth="1"/>
+    <col min="12841" max="12841" width="8.85546875" customWidth="1"/>
+    <col min="12842" max="12842" width="11.42578125" customWidth="1"/>
+    <col min="12843" max="12844" width="8.85546875" customWidth="1"/>
+    <col min="12845" max="12849" width="11.42578125" customWidth="1"/>
+    <col min="12850" max="12850" width="8.85546875" customWidth="1"/>
+    <col min="12851" max="12853" width="11.42578125" customWidth="1"/>
+    <col min="12854" max="12854" width="8.85546875" customWidth="1"/>
+    <col min="12855" max="12859" width="11.42578125" customWidth="1"/>
+    <col min="12860" max="12864" width="8.85546875" customWidth="1"/>
+    <col min="12865" max="13057" width="11.42578125" customWidth="1"/>
+    <col min="13058" max="13059" width="8.85546875" customWidth="1"/>
+    <col min="13060" max="13060" width="11.42578125" customWidth="1"/>
+    <col min="13061" max="13064" width="8.85546875" customWidth="1"/>
+    <col min="13065" max="13068" width="11.42578125" customWidth="1"/>
+    <col min="13069" max="13069" width="8.85546875" customWidth="1"/>
+    <col min="13070" max="13072" width="11.42578125" customWidth="1"/>
+    <col min="13073" max="13081" width="8.85546875" customWidth="1"/>
+    <col min="13082" max="13096" width="11.42578125" customWidth="1"/>
+    <col min="13097" max="13097" width="8.85546875" customWidth="1"/>
+    <col min="13098" max="13098" width="11.42578125" customWidth="1"/>
+    <col min="13099" max="13100" width="8.85546875" customWidth="1"/>
+    <col min="13101" max="13105" width="11.42578125" customWidth="1"/>
+    <col min="13106" max="13106" width="8.85546875" customWidth="1"/>
+    <col min="13107" max="13109" width="11.42578125" customWidth="1"/>
+    <col min="13110" max="13110" width="8.85546875" customWidth="1"/>
+    <col min="13111" max="13115" width="11.42578125" customWidth="1"/>
+    <col min="13116" max="13120" width="8.85546875" customWidth="1"/>
+    <col min="13121" max="13313" width="11.42578125" customWidth="1"/>
+    <col min="13314" max="13315" width="8.85546875" customWidth="1"/>
+    <col min="13316" max="13316" width="11.42578125" customWidth="1"/>
+    <col min="13317" max="13320" width="8.85546875" customWidth="1"/>
+    <col min="13321" max="13324" width="11.42578125" customWidth="1"/>
+    <col min="13325" max="13325" width="8.85546875" customWidth="1"/>
+    <col min="13326" max="13328" width="11.42578125" customWidth="1"/>
+    <col min="13329" max="13337" width="8.85546875" customWidth="1"/>
+    <col min="13338" max="13352" width="11.42578125" customWidth="1"/>
+    <col min="13353" max="13353" width="8.85546875" customWidth="1"/>
+    <col min="13354" max="13354" width="11.42578125" customWidth="1"/>
+    <col min="13355" max="13356" width="8.85546875" customWidth="1"/>
+    <col min="13357" max="13361" width="11.42578125" customWidth="1"/>
+    <col min="13362" max="13362" width="8.85546875" customWidth="1"/>
+    <col min="13363" max="13365" width="11.42578125" customWidth="1"/>
+    <col min="13366" max="13366" width="8.85546875" customWidth="1"/>
+    <col min="13367" max="13371" width="11.42578125" customWidth="1"/>
+    <col min="13372" max="13376" width="8.85546875" customWidth="1"/>
+    <col min="13377" max="13569" width="11.42578125" customWidth="1"/>
+    <col min="13570" max="13571" width="8.85546875" customWidth="1"/>
+    <col min="13572" max="13572" width="11.42578125" customWidth="1"/>
+    <col min="13573" max="13576" width="8.85546875" customWidth="1"/>
+    <col min="13577" max="13580" width="11.42578125" customWidth="1"/>
+    <col min="13581" max="13581" width="8.85546875" customWidth="1"/>
+    <col min="13582" max="13584" width="11.42578125" customWidth="1"/>
+    <col min="13585" max="13593" width="8.85546875" customWidth="1"/>
+    <col min="13594" max="13608" width="11.42578125" customWidth="1"/>
+    <col min="13609" max="13609" width="8.85546875" customWidth="1"/>
+    <col min="13610" max="13610" width="11.42578125" customWidth="1"/>
+    <col min="13611" max="13612" width="8.85546875" customWidth="1"/>
+    <col min="13613" max="13617" width="11.42578125" customWidth="1"/>
+    <col min="13618" max="13618" width="8.85546875" customWidth="1"/>
+    <col min="13619" max="13621" width="11.42578125" customWidth="1"/>
+    <col min="13622" max="13622" width="8.85546875" customWidth="1"/>
+    <col min="13623" max="13627" width="11.42578125" customWidth="1"/>
+    <col min="13628" max="13632" width="8.85546875" customWidth="1"/>
+    <col min="13633" max="13825" width="11.42578125" customWidth="1"/>
+    <col min="13826" max="13827" width="8.85546875" customWidth="1"/>
+    <col min="13828" max="13828" width="11.42578125" customWidth="1"/>
+    <col min="13829" max="13832" width="8.85546875" customWidth="1"/>
+    <col min="13833" max="13836" width="11.42578125" customWidth="1"/>
+    <col min="13837" max="13837" width="8.85546875" customWidth="1"/>
+    <col min="13838" max="13840" width="11.42578125" customWidth="1"/>
+    <col min="13841" max="13849" width="8.85546875" customWidth="1"/>
+    <col min="13850" max="13864" width="11.42578125" customWidth="1"/>
+    <col min="13865" max="13865" width="8.85546875" customWidth="1"/>
+    <col min="13866" max="13866" width="11.42578125" customWidth="1"/>
+    <col min="13867" max="13868" width="8.85546875" customWidth="1"/>
+    <col min="13869" max="13873" width="11.42578125" customWidth="1"/>
+    <col min="13874" max="13874" width="8.85546875" customWidth="1"/>
+    <col min="13875" max="13877" width="11.42578125" customWidth="1"/>
+    <col min="13878" max="13878" width="8.85546875" customWidth="1"/>
+    <col min="13879" max="13883" width="11.42578125" customWidth="1"/>
+    <col min="13884" max="13888" width="8.85546875" customWidth="1"/>
+    <col min="13889" max="14081" width="11.42578125" customWidth="1"/>
+    <col min="14082" max="14083" width="8.85546875" customWidth="1"/>
+    <col min="14084" max="14084" width="11.42578125" customWidth="1"/>
+    <col min="14085" max="14088" width="8.85546875" customWidth="1"/>
+    <col min="14089" max="14092" width="11.42578125" customWidth="1"/>
+    <col min="14093" max="14093" width="8.85546875" customWidth="1"/>
+    <col min="14094" max="14096" width="11.42578125" customWidth="1"/>
+    <col min="14097" max="14105" width="8.85546875" customWidth="1"/>
+    <col min="14106" max="14120" width="11.42578125" customWidth="1"/>
+    <col min="14121" max="14121" width="8.85546875" customWidth="1"/>
+    <col min="14122" max="14122" width="11.42578125" customWidth="1"/>
+    <col min="14123" max="14124" width="8.85546875" customWidth="1"/>
+    <col min="14125" max="14129" width="11.42578125" customWidth="1"/>
+    <col min="14130" max="14130" width="8.85546875" customWidth="1"/>
+    <col min="14131" max="14133" width="11.42578125" customWidth="1"/>
+    <col min="14134" max="14134" width="8.85546875" customWidth="1"/>
+    <col min="14135" max="14139" width="11.42578125" customWidth="1"/>
+    <col min="14140" max="14144" width="8.85546875" customWidth="1"/>
+    <col min="14145" max="14337" width="11.42578125" customWidth="1"/>
+    <col min="14338" max="14339" width="8.85546875" customWidth="1"/>
+    <col min="14340" max="14340" width="11.42578125" customWidth="1"/>
+    <col min="14341" max="14344" width="8.85546875" customWidth="1"/>
+    <col min="14345" max="14348" width="11.42578125" customWidth="1"/>
+    <col min="14349" max="14349" width="8.85546875" customWidth="1"/>
+    <col min="14350" max="14352" width="11.42578125" customWidth="1"/>
+    <col min="14353" max="14361" width="8.85546875" customWidth="1"/>
+    <col min="14362" max="14376" width="11.42578125" customWidth="1"/>
+    <col min="14377" max="14377" width="8.85546875" customWidth="1"/>
+    <col min="14378" max="14378" width="11.42578125" customWidth="1"/>
+    <col min="14379" max="14380" width="8.85546875" customWidth="1"/>
+    <col min="14381" max="14385" width="11.42578125" customWidth="1"/>
+    <col min="14386" max="14386" width="8.85546875" customWidth="1"/>
+    <col min="14387" max="14389" width="11.42578125" customWidth="1"/>
+    <col min="14390" max="14390" width="8.85546875" customWidth="1"/>
+    <col min="14391" max="14395" width="11.42578125" customWidth="1"/>
+    <col min="14396" max="14400" width="8.85546875" customWidth="1"/>
+    <col min="14401" max="14593" width="11.42578125" customWidth="1"/>
+    <col min="14594" max="14595" width="8.85546875" customWidth="1"/>
+    <col min="14596" max="14596" width="11.42578125" customWidth="1"/>
+    <col min="14597" max="14600" width="8.85546875" customWidth="1"/>
+    <col min="14601" max="14604" width="11.42578125" customWidth="1"/>
+    <col min="14605" max="14605" width="8.85546875" customWidth="1"/>
+    <col min="14606" max="14608" width="11.42578125" customWidth="1"/>
+    <col min="14609" max="14617" width="8.85546875" customWidth="1"/>
+    <col min="14618" max="14632" width="11.42578125" customWidth="1"/>
+    <col min="14633" max="14633" width="8.85546875" customWidth="1"/>
+    <col min="14634" max="14634" width="11.42578125" customWidth="1"/>
+    <col min="14635" max="14636" width="8.85546875" customWidth="1"/>
+    <col min="14637" max="14641" width="11.42578125" customWidth="1"/>
+    <col min="14642" max="14642" width="8.85546875" customWidth="1"/>
+    <col min="14643" max="14645" width="11.42578125" customWidth="1"/>
+    <col min="14646" max="14646" width="8.85546875" customWidth="1"/>
+    <col min="14647" max="14651" width="11.42578125" customWidth="1"/>
+    <col min="14652" max="14656" width="8.85546875" customWidth="1"/>
+    <col min="14657" max="14849" width="11.42578125" customWidth="1"/>
+    <col min="14850" max="14851" width="8.85546875" customWidth="1"/>
+    <col min="14852" max="14852" width="11.42578125" customWidth="1"/>
+    <col min="14853" max="14856" width="8.85546875" customWidth="1"/>
+    <col min="14857" max="14860" width="11.42578125" customWidth="1"/>
+    <col min="14861" max="14861" width="8.85546875" customWidth="1"/>
+    <col min="14862" max="14864" width="11.42578125" customWidth="1"/>
+    <col min="14865" max="14873" width="8.85546875" customWidth="1"/>
+    <col min="14874" max="14888" width="11.42578125" customWidth="1"/>
+    <col min="14889" max="14889" width="8.85546875" customWidth="1"/>
+    <col min="14890" max="14890" width="11.42578125" customWidth="1"/>
+    <col min="14891" max="14892" width="8.85546875" customWidth="1"/>
+    <col min="14893" max="14897" width="11.42578125" customWidth="1"/>
+    <col min="14898" max="14898" width="8.85546875" customWidth="1"/>
+    <col min="14899" max="14901" width="11.42578125" customWidth="1"/>
+    <col min="14902" max="14902" width="8.85546875" customWidth="1"/>
+    <col min="14903" max="14907" width="11.42578125" customWidth="1"/>
+    <col min="14908" max="14912" width="8.85546875" customWidth="1"/>
+    <col min="14913" max="15105" width="11.42578125" customWidth="1"/>
+    <col min="15106" max="15107" width="8.85546875" customWidth="1"/>
+    <col min="15108" max="15108" width="11.42578125" customWidth="1"/>
+    <col min="15109" max="15112" width="8.85546875" customWidth="1"/>
+    <col min="15113" max="15116" width="11.42578125" customWidth="1"/>
+    <col min="15117" max="15117" width="8.85546875" customWidth="1"/>
+    <col min="15118" max="15120" width="11.42578125" customWidth="1"/>
+    <col min="15121" max="15129" width="8.85546875" customWidth="1"/>
+    <col min="15130" max="15144" width="11.42578125" customWidth="1"/>
+    <col min="15145" max="15145" width="8.85546875" customWidth="1"/>
+    <col min="15146" max="15146" width="11.42578125" customWidth="1"/>
+    <col min="15147" max="15148" width="8.85546875" customWidth="1"/>
+    <col min="15149" max="15153" width="11.42578125" customWidth="1"/>
+    <col min="15154" max="15154" width="8.85546875" customWidth="1"/>
+    <col min="15155" max="15157" width="11.42578125" customWidth="1"/>
+    <col min="15158" max="15158" width="8.85546875" customWidth="1"/>
+    <col min="15159" max="15163" width="11.42578125" customWidth="1"/>
+    <col min="15164" max="15168" width="8.85546875" customWidth="1"/>
+    <col min="15169" max="15361" width="11.42578125" customWidth="1"/>
+    <col min="15362" max="15363" width="8.85546875" customWidth="1"/>
+    <col min="15364" max="15364" width="11.42578125" customWidth="1"/>
+    <col min="15365" max="15368" width="8.85546875" customWidth="1"/>
+    <col min="15369" max="15372" width="11.42578125" customWidth="1"/>
+    <col min="15373" max="15373" width="8.85546875" customWidth="1"/>
+    <col min="15374" max="15376" width="11.42578125" customWidth="1"/>
+    <col min="15377" max="15385" width="8.85546875" customWidth="1"/>
+    <col min="15386" max="15400" width="11.42578125" customWidth="1"/>
+    <col min="15401" max="15401" width="8.85546875" customWidth="1"/>
+    <col min="15402" max="15402" width="11.42578125" customWidth="1"/>
+    <col min="15403" max="15404" width="8.85546875" customWidth="1"/>
+    <col min="15405" max="15409" width="11.42578125" customWidth="1"/>
+    <col min="15410" max="15410" width="8.85546875" customWidth="1"/>
+    <col min="15411" max="15413" width="11.42578125" customWidth="1"/>
+    <col min="15414" max="15414" width="8.85546875" customWidth="1"/>
+    <col min="15415" max="15419" width="11.42578125" customWidth="1"/>
+    <col min="15420" max="15424" width="8.85546875" customWidth="1"/>
+    <col min="15425" max="15617" width="11.42578125" customWidth="1"/>
+    <col min="15618" max="15619" width="8.85546875" customWidth="1"/>
+    <col min="15620" max="15620" width="11.42578125" customWidth="1"/>
+    <col min="15621" max="15624" width="8.85546875" customWidth="1"/>
+    <col min="15625" max="15628" width="11.42578125" customWidth="1"/>
+    <col min="15629" max="15629" width="8.85546875" customWidth="1"/>
+    <col min="15630" max="15632" width="11.42578125" customWidth="1"/>
+    <col min="15633" max="15641" width="8.85546875" customWidth="1"/>
+    <col min="15642" max="15656" width="11.42578125" customWidth="1"/>
+    <col min="15657" max="15657" width="8.85546875" customWidth="1"/>
+    <col min="15658" max="15658" width="11.42578125" customWidth="1"/>
+    <col min="15659" max="15660" width="8.85546875" customWidth="1"/>
+    <col min="15661" max="15665" width="11.42578125" customWidth="1"/>
+    <col min="15666" max="15666" width="8.85546875" customWidth="1"/>
+    <col min="15667" max="15669" width="11.42578125" customWidth="1"/>
+    <col min="15670" max="15670" width="8.85546875" customWidth="1"/>
+    <col min="15671" max="15675" width="11.42578125" customWidth="1"/>
+    <col min="15676" max="15680" width="8.85546875" customWidth="1"/>
+    <col min="15681" max="15873" width="11.42578125" customWidth="1"/>
+    <col min="15874" max="15875" width="8.85546875" customWidth="1"/>
+    <col min="15876" max="15876" width="11.42578125" customWidth="1"/>
+    <col min="15877" max="15880" width="8.85546875" customWidth="1"/>
+    <col min="15881" max="15884" width="11.42578125" customWidth="1"/>
+    <col min="15885" max="15885" width="8.85546875" customWidth="1"/>
+    <col min="15886" max="15888" width="11.42578125" customWidth="1"/>
+    <col min="15889" max="15897" width="8.85546875" customWidth="1"/>
+    <col min="15898" max="15912" width="11.42578125" customWidth="1"/>
+    <col min="15913" max="15913" width="8.85546875" customWidth="1"/>
+    <col min="15914" max="15914" width="11.42578125" customWidth="1"/>
+    <col min="15915" max="15916" width="8.85546875" customWidth="1"/>
+    <col min="15917" max="15921" width="11.42578125" customWidth="1"/>
+    <col min="15922" max="15922" width="8.85546875" customWidth="1"/>
+    <col min="15923" max="15925" width="11.42578125" customWidth="1"/>
+    <col min="15926" max="15926" width="8.85546875" customWidth="1"/>
+    <col min="15927" max="15931" width="11.42578125" customWidth="1"/>
+    <col min="15932" max="15936" width="8.85546875" customWidth="1"/>
+    <col min="15937" max="16129" width="11.42578125" customWidth="1"/>
+    <col min="16130" max="16131" width="8.85546875" customWidth="1"/>
+    <col min="16132" max="16132" width="11.42578125" customWidth="1"/>
+    <col min="16133" max="16136" width="8.85546875" customWidth="1"/>
+    <col min="16137" max="16140" width="11.42578125" customWidth="1"/>
+    <col min="16141" max="16141" width="8.85546875" customWidth="1"/>
+    <col min="16142" max="16144" width="11.42578125" customWidth="1"/>
+    <col min="16145" max="16153" width="8.85546875" customWidth="1"/>
+    <col min="16154" max="16168" width="11.42578125" customWidth="1"/>
+    <col min="16169" max="16169" width="8.85546875" customWidth="1"/>
+    <col min="16170" max="16170" width="11.42578125" customWidth="1"/>
+    <col min="16171" max="16172" width="8.85546875" customWidth="1"/>
+    <col min="16173" max="16177" width="11.42578125" customWidth="1"/>
+    <col min="16178" max="16178" width="8.85546875" customWidth="1"/>
+    <col min="16179" max="16181" width="11.42578125" customWidth="1"/>
+    <col min="16182" max="16182" width="8.85546875" customWidth="1"/>
+    <col min="16183" max="16187" width="11.42578125" customWidth="1"/>
+    <col min="16188" max="16192" width="8.85546875" customWidth="1"/>
+    <col min="16193" max="16384" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44343</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1">
+        <v>116237</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>15636</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>40.04</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44343</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="1">
+        <v>116239</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>25868</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>42.06</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>44343</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="1">
+        <v>116242</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>25670</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>70.91</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>78160</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2">
+        <v>44343</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1">
+        <v>93219</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
+        <v>78160</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>15993</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>52</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>44343</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1">
+        <v>116244</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>25816</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>30.81</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2">
+        <v>44343</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="1">
+        <v>116255</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
+        <v>49100</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>24320</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>25</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2">
+        <v>44343</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="1">
+        <v>116257</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1">
+        <v>49240</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>25872</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>103</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>44000</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="2">
+        <v>44343</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="1">
+        <v>116259</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
+        <v>44240</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>25873</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>29000</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="2">
+        <v>44343</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="1">
+        <v>116261</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1">
+        <v>29000</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>25874</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>44</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2D1BB-D299-4D6F-89E9-73F8139B1378}">
+  <dimension ref="B1:BL26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="40" width="11.42578125" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" customWidth="1"/>
+    <col min="43" max="44" width="8.85546875" customWidth="1"/>
+    <col min="45" max="49" width="11.42578125" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" customWidth="1"/>
+    <col min="51" max="53" width="11.42578125" customWidth="1"/>
+    <col min="54" max="54" width="8.85546875" customWidth="1"/>
+    <col min="55" max="59" width="11.42578125" customWidth="1"/>
+    <col min="60" max="64" width="8.85546875" customWidth="1"/>
+    <col min="65" max="257" width="11.42578125" customWidth="1"/>
+    <col min="258" max="259" width="8.85546875" customWidth="1"/>
+    <col min="260" max="260" width="11.42578125" customWidth="1"/>
+    <col min="261" max="264" width="8.85546875" customWidth="1"/>
+    <col min="265" max="268" width="11.42578125" customWidth="1"/>
+    <col min="269" max="269" width="8.85546875" customWidth="1"/>
+    <col min="270" max="272" width="11.42578125" customWidth="1"/>
+    <col min="273" max="281" width="8.85546875" customWidth="1"/>
+    <col min="282" max="296" width="11.42578125" customWidth="1"/>
+    <col min="297" max="297" width="8.85546875" customWidth="1"/>
+    <col min="298" max="298" width="11.42578125" customWidth="1"/>
+    <col min="299" max="300" width="8.85546875" customWidth="1"/>
+    <col min="301" max="305" width="11.42578125" customWidth="1"/>
+    <col min="306" max="306" width="8.85546875" customWidth="1"/>
+    <col min="307" max="309" width="11.42578125" customWidth="1"/>
+    <col min="310" max="310" width="8.85546875" customWidth="1"/>
+    <col min="311" max="315" width="11.42578125" customWidth="1"/>
+    <col min="316" max="320" width="8.85546875" customWidth="1"/>
+    <col min="321" max="513" width="11.42578125" customWidth="1"/>
+    <col min="514" max="515" width="8.85546875" customWidth="1"/>
+    <col min="516" max="516" width="11.42578125" customWidth="1"/>
+    <col min="517" max="520" width="8.85546875" customWidth="1"/>
+    <col min="521" max="524" width="11.42578125" customWidth="1"/>
+    <col min="525" max="525" width="8.85546875" customWidth="1"/>
+    <col min="526" max="528" width="11.42578125" customWidth="1"/>
+    <col min="529" max="537" width="8.85546875" customWidth="1"/>
+    <col min="538" max="552" width="11.42578125" customWidth="1"/>
+    <col min="553" max="553" width="8.85546875" customWidth="1"/>
+    <col min="554" max="554" width="11.42578125" customWidth="1"/>
+    <col min="555" max="556" width="8.85546875" customWidth="1"/>
+    <col min="557" max="561" width="11.42578125" customWidth="1"/>
+    <col min="562" max="562" width="8.85546875" customWidth="1"/>
+    <col min="563" max="565" width="11.42578125" customWidth="1"/>
+    <col min="566" max="566" width="8.85546875" customWidth="1"/>
+    <col min="567" max="571" width="11.42578125" customWidth="1"/>
+    <col min="572" max="576" width="8.85546875" customWidth="1"/>
+    <col min="577" max="769" width="11.42578125" customWidth="1"/>
+    <col min="770" max="771" width="8.85546875" customWidth="1"/>
+    <col min="772" max="772" width="11.42578125" customWidth="1"/>
+    <col min="773" max="776" width="8.85546875" customWidth="1"/>
+    <col min="777" max="780" width="11.42578125" customWidth="1"/>
+    <col min="781" max="781" width="8.85546875" customWidth="1"/>
+    <col min="782" max="784" width="11.42578125" customWidth="1"/>
+    <col min="785" max="793" width="8.85546875" customWidth="1"/>
+    <col min="794" max="808" width="11.42578125" customWidth="1"/>
+    <col min="809" max="809" width="8.85546875" customWidth="1"/>
+    <col min="810" max="810" width="11.42578125" customWidth="1"/>
+    <col min="811" max="812" width="8.85546875" customWidth="1"/>
+    <col min="813" max="817" width="11.42578125" customWidth="1"/>
+    <col min="818" max="818" width="8.85546875" customWidth="1"/>
+    <col min="819" max="821" width="11.42578125" customWidth="1"/>
+    <col min="822" max="822" width="8.85546875" customWidth="1"/>
+    <col min="823" max="827" width="11.42578125" customWidth="1"/>
+    <col min="828" max="832" width="8.85546875" customWidth="1"/>
+    <col min="833" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="1026" max="1027" width="8.85546875" customWidth="1"/>
+    <col min="1028" max="1028" width="11.42578125" customWidth="1"/>
+    <col min="1029" max="1032" width="8.85546875" customWidth="1"/>
+    <col min="1033" max="1036" width="11.42578125" customWidth="1"/>
+    <col min="1037" max="1037" width="8.85546875" customWidth="1"/>
+    <col min="1038" max="1040" width="11.42578125" customWidth="1"/>
+    <col min="1041" max="1049" width="8.85546875" customWidth="1"/>
+    <col min="1050" max="1064" width="11.42578125" customWidth="1"/>
+    <col min="1065" max="1065" width="8.85546875" customWidth="1"/>
+    <col min="1066" max="1066" width="11.42578125" customWidth="1"/>
+    <col min="1067" max="1068" width="8.85546875" customWidth="1"/>
+    <col min="1069" max="1073" width="11.42578125" customWidth="1"/>
+    <col min="1074" max="1074" width="8.85546875" customWidth="1"/>
+    <col min="1075" max="1077" width="11.42578125" customWidth="1"/>
+    <col min="1078" max="1078" width="8.85546875" customWidth="1"/>
+    <col min="1079" max="1083" width="11.42578125" customWidth="1"/>
+    <col min="1084" max="1088" width="8.85546875" customWidth="1"/>
+    <col min="1089" max="1281" width="11.42578125" customWidth="1"/>
+    <col min="1282" max="1283" width="8.85546875" customWidth="1"/>
+    <col min="1284" max="1284" width="11.42578125" customWidth="1"/>
+    <col min="1285" max="1288" width="8.85546875" customWidth="1"/>
+    <col min="1289" max="1292" width="11.42578125" customWidth="1"/>
+    <col min="1293" max="1293" width="8.85546875" customWidth="1"/>
+    <col min="1294" max="1296" width="11.42578125" customWidth="1"/>
+    <col min="1297" max="1305" width="8.85546875" customWidth="1"/>
+    <col min="1306" max="1320" width="11.42578125" customWidth="1"/>
+    <col min="1321" max="1321" width="8.85546875" customWidth="1"/>
+    <col min="1322" max="1322" width="11.42578125" customWidth="1"/>
+    <col min="1323" max="1324" width="8.85546875" customWidth="1"/>
+    <col min="1325" max="1329" width="11.42578125" customWidth="1"/>
+    <col min="1330" max="1330" width="8.85546875" customWidth="1"/>
+    <col min="1331" max="1333" width="11.42578125" customWidth="1"/>
+    <col min="1334" max="1334" width="8.85546875" customWidth="1"/>
+    <col min="1335" max="1339" width="11.42578125" customWidth="1"/>
+    <col min="1340" max="1344" width="8.85546875" customWidth="1"/>
+    <col min="1345" max="1537" width="11.42578125" customWidth="1"/>
+    <col min="1538" max="1539" width="8.85546875" customWidth="1"/>
+    <col min="1540" max="1540" width="11.42578125" customWidth="1"/>
+    <col min="1541" max="1544" width="8.85546875" customWidth="1"/>
+    <col min="1545" max="1548" width="11.42578125" customWidth="1"/>
+    <col min="1549" max="1549" width="8.85546875" customWidth="1"/>
+    <col min="1550" max="1552" width="11.42578125" customWidth="1"/>
+    <col min="1553" max="1561" width="8.85546875" customWidth="1"/>
+    <col min="1562" max="1576" width="11.42578125" customWidth="1"/>
+    <col min="1577" max="1577" width="8.85546875" customWidth="1"/>
+    <col min="1578" max="1578" width="11.42578125" customWidth="1"/>
+    <col min="1579" max="1580" width="8.85546875" customWidth="1"/>
+    <col min="1581" max="1585" width="11.42578125" customWidth="1"/>
+    <col min="1586" max="1586" width="8.85546875" customWidth="1"/>
+    <col min="1587" max="1589" width="11.42578125" customWidth="1"/>
+    <col min="1590" max="1590" width="8.85546875" customWidth="1"/>
+    <col min="1591" max="1595" width="11.42578125" customWidth="1"/>
+    <col min="1596" max="1600" width="8.85546875" customWidth="1"/>
+    <col min="1601" max="1793" width="11.42578125" customWidth="1"/>
+    <col min="1794" max="1795" width="8.85546875" customWidth="1"/>
+    <col min="1796" max="1796" width="11.42578125" customWidth="1"/>
+    <col min="1797" max="1800" width="8.85546875" customWidth="1"/>
+    <col min="1801" max="1804" width="11.42578125" customWidth="1"/>
+    <col min="1805" max="1805" width="8.85546875" customWidth="1"/>
+    <col min="1806" max="1808" width="11.42578125" customWidth="1"/>
+    <col min="1809" max="1817" width="8.85546875" customWidth="1"/>
+    <col min="1818" max="1832" width="11.42578125" customWidth="1"/>
+    <col min="1833" max="1833" width="8.85546875" customWidth="1"/>
+    <col min="1834" max="1834" width="11.42578125" customWidth="1"/>
+    <col min="1835" max="1836" width="8.85546875" customWidth="1"/>
+    <col min="1837" max="1841" width="11.42578125" customWidth="1"/>
+    <col min="1842" max="1842" width="8.85546875" customWidth="1"/>
+    <col min="1843" max="1845" width="11.42578125" customWidth="1"/>
+    <col min="1846" max="1846" width="8.85546875" customWidth="1"/>
+    <col min="1847" max="1851" width="11.42578125" customWidth="1"/>
+    <col min="1852" max="1856" width="8.85546875" customWidth="1"/>
+    <col min="1857" max="2049" width="11.42578125" customWidth="1"/>
+    <col min="2050" max="2051" width="8.85546875" customWidth="1"/>
+    <col min="2052" max="2052" width="11.42578125" customWidth="1"/>
+    <col min="2053" max="2056" width="8.85546875" customWidth="1"/>
+    <col min="2057" max="2060" width="11.42578125" customWidth="1"/>
+    <col min="2061" max="2061" width="8.85546875" customWidth="1"/>
+    <col min="2062" max="2064" width="11.42578125" customWidth="1"/>
+    <col min="2065" max="2073" width="8.85546875" customWidth="1"/>
+    <col min="2074" max="2088" width="11.42578125" customWidth="1"/>
+    <col min="2089" max="2089" width="8.85546875" customWidth="1"/>
+    <col min="2090" max="2090" width="11.42578125" customWidth="1"/>
+    <col min="2091" max="2092" width="8.85546875" customWidth="1"/>
+    <col min="2093" max="2097" width="11.42578125" customWidth="1"/>
+    <col min="2098" max="2098" width="8.85546875" customWidth="1"/>
+    <col min="2099" max="2101" width="11.42578125" customWidth="1"/>
+    <col min="2102" max="2102" width="8.85546875" customWidth="1"/>
+    <col min="2103" max="2107" width="11.42578125" customWidth="1"/>
+    <col min="2108" max="2112" width="8.85546875" customWidth="1"/>
+    <col min="2113" max="2305" width="11.42578125" customWidth="1"/>
+    <col min="2306" max="2307" width="8.85546875" customWidth="1"/>
+    <col min="2308" max="2308" width="11.42578125" customWidth="1"/>
+    <col min="2309" max="2312" width="8.85546875" customWidth="1"/>
+    <col min="2313" max="2316" width="11.42578125" customWidth="1"/>
+    <col min="2317" max="2317" width="8.85546875" customWidth="1"/>
+    <col min="2318" max="2320" width="11.42578125" customWidth="1"/>
+    <col min="2321" max="2329" width="8.85546875" customWidth="1"/>
+    <col min="2330" max="2344" width="11.42578125" customWidth="1"/>
+    <col min="2345" max="2345" width="8.85546875" customWidth="1"/>
+    <col min="2346" max="2346" width="11.42578125" customWidth="1"/>
+    <col min="2347" max="2348" width="8.85546875" customWidth="1"/>
+    <col min="2349" max="2353" width="11.42578125" customWidth="1"/>
+    <col min="2354" max="2354" width="8.85546875" customWidth="1"/>
+    <col min="2355" max="2357" width="11.42578125" customWidth="1"/>
+    <col min="2358" max="2358" width="8.85546875" customWidth="1"/>
+    <col min="2359" max="2363" width="11.42578125" customWidth="1"/>
+    <col min="2364" max="2368" width="8.85546875" customWidth="1"/>
+    <col min="2369" max="2561" width="11.42578125" customWidth="1"/>
+    <col min="2562" max="2563" width="8.85546875" customWidth="1"/>
+    <col min="2564" max="2564" width="11.42578125" customWidth="1"/>
+    <col min="2565" max="2568" width="8.85546875" customWidth="1"/>
+    <col min="2569" max="2572" width="11.42578125" customWidth="1"/>
+    <col min="2573" max="2573" width="8.85546875" customWidth="1"/>
+    <col min="2574" max="2576" width="11.42578125" customWidth="1"/>
+    <col min="2577" max="2585" width="8.85546875" customWidth="1"/>
+    <col min="2586" max="2600" width="11.42578125" customWidth="1"/>
+    <col min="2601" max="2601" width="8.85546875" customWidth="1"/>
+    <col min="2602" max="2602" width="11.42578125" customWidth="1"/>
+    <col min="2603" max="2604" width="8.85546875" customWidth="1"/>
+    <col min="2605" max="2609" width="11.42578125" customWidth="1"/>
+    <col min="2610" max="2610" width="8.85546875" customWidth="1"/>
+    <col min="2611" max="2613" width="11.42578125" customWidth="1"/>
+    <col min="2614" max="2614" width="8.85546875" customWidth="1"/>
+    <col min="2615" max="2619" width="11.42578125" customWidth="1"/>
+    <col min="2620" max="2624" width="8.85546875" customWidth="1"/>
+    <col min="2625" max="2817" width="11.42578125" customWidth="1"/>
+    <col min="2818" max="2819" width="8.85546875" customWidth="1"/>
+    <col min="2820" max="2820" width="11.42578125" customWidth="1"/>
+    <col min="2821" max="2824" width="8.85546875" customWidth="1"/>
+    <col min="2825" max="2828" width="11.42578125" customWidth="1"/>
+    <col min="2829" max="2829" width="8.85546875" customWidth="1"/>
+    <col min="2830" max="2832" width="11.42578125" customWidth="1"/>
+    <col min="2833" max="2841" width="8.85546875" customWidth="1"/>
+    <col min="2842" max="2856" width="11.42578125" customWidth="1"/>
+    <col min="2857" max="2857" width="8.85546875" customWidth="1"/>
+    <col min="2858" max="2858" width="11.42578125" customWidth="1"/>
+    <col min="2859" max="2860" width="8.85546875" customWidth="1"/>
+    <col min="2861" max="2865" width="11.42578125" customWidth="1"/>
+    <col min="2866" max="2866" width="8.85546875" customWidth="1"/>
+    <col min="2867" max="2869" width="11.42578125" customWidth="1"/>
+    <col min="2870" max="2870" width="8.85546875" customWidth="1"/>
+    <col min="2871" max="2875" width="11.42578125" customWidth="1"/>
+    <col min="2876" max="2880" width="8.85546875" customWidth="1"/>
+    <col min="2881" max="3073" width="11.42578125" customWidth="1"/>
+    <col min="3074" max="3075" width="8.85546875" customWidth="1"/>
+    <col min="3076" max="3076" width="11.42578125" customWidth="1"/>
+    <col min="3077" max="3080" width="8.85546875" customWidth="1"/>
+    <col min="3081" max="3084" width="11.42578125" customWidth="1"/>
+    <col min="3085" max="3085" width="8.85546875" customWidth="1"/>
+    <col min="3086" max="3088" width="11.42578125" customWidth="1"/>
+    <col min="3089" max="3097" width="8.85546875" customWidth="1"/>
+    <col min="3098" max="3112" width="11.42578125" customWidth="1"/>
+    <col min="3113" max="3113" width="8.85546875" customWidth="1"/>
+    <col min="3114" max="3114" width="11.42578125" customWidth="1"/>
+    <col min="3115" max="3116" width="8.85546875" customWidth="1"/>
+    <col min="3117" max="3121" width="11.42578125" customWidth="1"/>
+    <col min="3122" max="3122" width="8.85546875" customWidth="1"/>
+    <col min="3123" max="3125" width="11.42578125" customWidth="1"/>
+    <col min="3126" max="3126" width="8.85546875" customWidth="1"/>
+    <col min="3127" max="3131" width="11.42578125" customWidth="1"/>
+    <col min="3132" max="3136" width="8.85546875" customWidth="1"/>
+    <col min="3137" max="3329" width="11.42578125" customWidth="1"/>
+    <col min="3330" max="3331" width="8.85546875" customWidth="1"/>
+    <col min="3332" max="3332" width="11.42578125" customWidth="1"/>
+    <col min="3333" max="3336" width="8.85546875" customWidth="1"/>
+    <col min="3337" max="3340" width="11.42578125" customWidth="1"/>
+    <col min="3341" max="3341" width="8.85546875" customWidth="1"/>
+    <col min="3342" max="3344" width="11.42578125" customWidth="1"/>
+    <col min="3345" max="3353" width="8.85546875" customWidth="1"/>
+    <col min="3354" max="3368" width="11.42578125" customWidth="1"/>
+    <col min="3369" max="3369" width="8.85546875" customWidth="1"/>
+    <col min="3370" max="3370" width="11.42578125" customWidth="1"/>
+    <col min="3371" max="3372" width="8.85546875" customWidth="1"/>
+    <col min="3373" max="3377" width="11.42578125" customWidth="1"/>
+    <col min="3378" max="3378" width="8.85546875" customWidth="1"/>
+    <col min="3379" max="3381" width="11.42578125" customWidth="1"/>
+    <col min="3382" max="3382" width="8.85546875" customWidth="1"/>
+    <col min="3383" max="3387" width="11.42578125" customWidth="1"/>
+    <col min="3388" max="3392" width="8.85546875" customWidth="1"/>
+    <col min="3393" max="3585" width="11.42578125" customWidth="1"/>
+    <col min="3586" max="3587" width="8.85546875" customWidth="1"/>
+    <col min="3588" max="3588" width="11.42578125" customWidth="1"/>
+    <col min="3589" max="3592" width="8.85546875" customWidth="1"/>
+    <col min="3593" max="3596" width="11.42578125" customWidth="1"/>
+    <col min="3597" max="3597" width="8.85546875" customWidth="1"/>
+    <col min="3598" max="3600" width="11.42578125" customWidth="1"/>
+    <col min="3601" max="3609" width="8.85546875" customWidth="1"/>
+    <col min="3610" max="3624" width="11.42578125" customWidth="1"/>
+    <col min="3625" max="3625" width="8.85546875" customWidth="1"/>
+    <col min="3626" max="3626" width="11.42578125" customWidth="1"/>
+    <col min="3627" max="3628" width="8.85546875" customWidth="1"/>
+    <col min="3629" max="3633" width="11.42578125" customWidth="1"/>
+    <col min="3634" max="3634" width="8.85546875" customWidth="1"/>
+    <col min="3635" max="3637" width="11.42578125" customWidth="1"/>
+    <col min="3638" max="3638" width="8.85546875" customWidth="1"/>
+    <col min="3639" max="3643" width="11.42578125" customWidth="1"/>
+    <col min="3644" max="3648" width="8.85546875" customWidth="1"/>
+    <col min="3649" max="3841" width="11.42578125" customWidth="1"/>
+    <col min="3842" max="3843" width="8.85546875" customWidth="1"/>
+    <col min="3844" max="3844" width="11.42578125" customWidth="1"/>
+    <col min="3845" max="3848" width="8.85546875" customWidth="1"/>
+    <col min="3849" max="3852" width="11.42578125" customWidth="1"/>
+    <col min="3853" max="3853" width="8.85546875" customWidth="1"/>
+    <col min="3854" max="3856" width="11.42578125" customWidth="1"/>
+    <col min="3857" max="3865" width="8.85546875" customWidth="1"/>
+    <col min="3866" max="3880" width="11.42578125" customWidth="1"/>
+    <col min="3881" max="3881" width="8.85546875" customWidth="1"/>
+    <col min="3882" max="3882" width="11.42578125" customWidth="1"/>
+    <col min="3883" max="3884" width="8.85546875" customWidth="1"/>
+    <col min="3885" max="3889" width="11.42578125" customWidth="1"/>
+    <col min="3890" max="3890" width="8.85546875" customWidth="1"/>
+    <col min="3891" max="3893" width="11.42578125" customWidth="1"/>
+    <col min="3894" max="3894" width="8.85546875" customWidth="1"/>
+    <col min="3895" max="3899" width="11.42578125" customWidth="1"/>
+    <col min="3900" max="3904" width="8.85546875" customWidth="1"/>
+    <col min="3905" max="4097" width="11.42578125" customWidth="1"/>
+    <col min="4098" max="4099" width="8.85546875" customWidth="1"/>
+    <col min="4100" max="4100" width="11.42578125" customWidth="1"/>
+    <col min="4101" max="4104" width="8.85546875" customWidth="1"/>
+    <col min="4105" max="4108" width="11.42578125" customWidth="1"/>
+    <col min="4109" max="4109" width="8.85546875" customWidth="1"/>
+    <col min="4110" max="4112" width="11.42578125" customWidth="1"/>
+    <col min="4113" max="4121" width="8.85546875" customWidth="1"/>
+    <col min="4122" max="4136" width="11.42578125" customWidth="1"/>
+    <col min="4137" max="4137" width="8.85546875" customWidth="1"/>
+    <col min="4138" max="4138" width="11.42578125" customWidth="1"/>
+    <col min="4139" max="4140" width="8.85546875" customWidth="1"/>
+    <col min="4141" max="4145" width="11.42578125" customWidth="1"/>
+    <col min="4146" max="4146" width="8.85546875" customWidth="1"/>
+    <col min="4147" max="4149" width="11.42578125" customWidth="1"/>
+    <col min="4150" max="4150" width="8.85546875" customWidth="1"/>
+    <col min="4151" max="4155" width="11.42578125" customWidth="1"/>
+    <col min="4156" max="4160" width="8.85546875" customWidth="1"/>
+    <col min="4161" max="4353" width="11.42578125" customWidth="1"/>
+    <col min="4354" max="4355" width="8.85546875" customWidth="1"/>
+    <col min="4356" max="4356" width="11.42578125" customWidth="1"/>
+    <col min="4357" max="4360" width="8.85546875" customWidth="1"/>
+    <col min="4361" max="4364" width="11.42578125" customWidth="1"/>
+    <col min="4365" max="4365" width="8.85546875" customWidth="1"/>
+    <col min="4366" max="4368" width="11.42578125" customWidth="1"/>
+    <col min="4369" max="4377" width="8.85546875" customWidth="1"/>
+    <col min="4378" max="4392" width="11.42578125" customWidth="1"/>
+    <col min="4393" max="4393" width="8.85546875" customWidth="1"/>
+    <col min="4394" max="4394" width="11.42578125" customWidth="1"/>
+    <col min="4395" max="4396" width="8.85546875" customWidth="1"/>
+    <col min="4397" max="4401" width="11.42578125" customWidth="1"/>
+    <col min="4402" max="4402" width="8.85546875" customWidth="1"/>
+    <col min="4403" max="4405" width="11.42578125" customWidth="1"/>
+    <col min="4406" max="4406" width="8.85546875" customWidth="1"/>
+    <col min="4407" max="4411" width="11.42578125" customWidth="1"/>
+    <col min="4412" max="4416" width="8.85546875" customWidth="1"/>
+    <col min="4417" max="4609" width="11.42578125" customWidth="1"/>
+    <col min="4610" max="4611" width="8.85546875" customWidth="1"/>
+    <col min="4612" max="4612" width="11.42578125" customWidth="1"/>
+    <col min="4613" max="4616" width="8.85546875" customWidth="1"/>
+    <col min="4617" max="4620" width="11.42578125" customWidth="1"/>
+    <col min="4621" max="4621" width="8.85546875" customWidth="1"/>
+    <col min="4622" max="4624" width="11.42578125" customWidth="1"/>
+    <col min="4625" max="4633" width="8.85546875" customWidth="1"/>
+    <col min="4634" max="4648" width="11.42578125" customWidth="1"/>
+    <col min="4649" max="4649" width="8.85546875" customWidth="1"/>
+    <col min="4650" max="4650" width="11.42578125" customWidth="1"/>
+    <col min="4651" max="4652" width="8.85546875" customWidth="1"/>
+    <col min="4653" max="4657" width="11.42578125" customWidth="1"/>
+    <col min="4658" max="4658" width="8.85546875" customWidth="1"/>
+    <col min="4659" max="4661" width="11.42578125" customWidth="1"/>
+    <col min="4662" max="4662" width="8.85546875" customWidth="1"/>
+    <col min="4663" max="4667" width="11.42578125" customWidth="1"/>
+    <col min="4668" max="4672" width="8.85546875" customWidth="1"/>
+    <col min="4673" max="4865" width="11.42578125" customWidth="1"/>
+    <col min="4866" max="4867" width="8.85546875" customWidth="1"/>
+    <col min="4868" max="4868" width="11.42578125" customWidth="1"/>
+    <col min="4869" max="4872" width="8.85546875" customWidth="1"/>
+    <col min="4873" max="4876" width="11.42578125" customWidth="1"/>
+    <col min="4877" max="4877" width="8.85546875" customWidth="1"/>
+    <col min="4878" max="4880" width="11.42578125" customWidth="1"/>
+    <col min="4881" max="4889" width="8.85546875" customWidth="1"/>
+    <col min="4890" max="4904" width="11.42578125" customWidth="1"/>
+    <col min="4905" max="4905" width="8.85546875" customWidth="1"/>
+    <col min="4906" max="4906" width="11.42578125" customWidth="1"/>
+    <col min="4907" max="4908" width="8.85546875" customWidth="1"/>
+    <col min="4909" max="4913" width="11.42578125" customWidth="1"/>
+    <col min="4914" max="4914" width="8.85546875" customWidth="1"/>
+    <col min="4915" max="4917" width="11.42578125" customWidth="1"/>
+    <col min="4918" max="4918" width="8.85546875" customWidth="1"/>
+    <col min="4919" max="4923" width="11.42578125" customWidth="1"/>
+    <col min="4924" max="4928" width="8.85546875" customWidth="1"/>
+    <col min="4929" max="5121" width="11.42578125" customWidth="1"/>
+    <col min="5122" max="5123" width="8.85546875" customWidth="1"/>
+    <col min="5124" max="5124" width="11.42578125" customWidth="1"/>
+    <col min="5125" max="5128" width="8.85546875" customWidth="1"/>
+    <col min="5129" max="5132" width="11.42578125" customWidth="1"/>
+    <col min="5133" max="5133" width="8.85546875" customWidth="1"/>
+    <col min="5134" max="5136" width="11.42578125" customWidth="1"/>
+    <col min="5137" max="5145" width="8.85546875" customWidth="1"/>
+    <col min="5146" max="5160" width="11.42578125" customWidth="1"/>
+    <col min="5161" max="5161" width="8.85546875" customWidth="1"/>
+    <col min="5162" max="5162" width="11.42578125" customWidth="1"/>
+    <col min="5163" max="5164" width="8.85546875" customWidth="1"/>
+    <col min="5165" max="5169" width="11.42578125" customWidth="1"/>
+    <col min="5170" max="5170" width="8.85546875" customWidth="1"/>
+    <col min="5171" max="5173" width="11.42578125" customWidth="1"/>
+    <col min="5174" max="5174" width="8.85546875" customWidth="1"/>
+    <col min="5175" max="5179" width="11.42578125" customWidth="1"/>
+    <col min="5180" max="5184" width="8.85546875" customWidth="1"/>
+    <col min="5185" max="5377" width="11.42578125" customWidth="1"/>
+    <col min="5378" max="5379" width="8.85546875" customWidth="1"/>
+    <col min="5380" max="5380" width="11.42578125" customWidth="1"/>
+    <col min="5381" max="5384" width="8.85546875" customWidth="1"/>
+    <col min="5385" max="5388" width="11.42578125" customWidth="1"/>
+    <col min="5389" max="5389" width="8.85546875" customWidth="1"/>
+    <col min="5390" max="5392" width="11.42578125" customWidth="1"/>
+    <col min="5393" max="5401" width="8.85546875" customWidth="1"/>
+    <col min="5402" max="5416" width="11.42578125" customWidth="1"/>
+    <col min="5417" max="5417" width="8.85546875" customWidth="1"/>
+    <col min="5418" max="5418" width="11.42578125" customWidth="1"/>
+    <col min="5419" max="5420" width="8.85546875" customWidth="1"/>
+    <col min="5421" max="5425" width="11.42578125" customWidth="1"/>
+    <col min="5426" max="5426" width="8.85546875" customWidth="1"/>
+    <col min="5427" max="5429" width="11.42578125" customWidth="1"/>
+    <col min="5430" max="5430" width="8.85546875" customWidth="1"/>
+    <col min="5431" max="5435" width="11.42578125" customWidth="1"/>
+    <col min="5436" max="5440" width="8.85546875" customWidth="1"/>
+    <col min="5441" max="5633" width="11.42578125" customWidth="1"/>
+    <col min="5634" max="5635" width="8.85546875" customWidth="1"/>
+    <col min="5636" max="5636" width="11.42578125" customWidth="1"/>
+    <col min="5637" max="5640" width="8.85546875" customWidth="1"/>
+    <col min="5641" max="5644" width="11.42578125" customWidth="1"/>
+    <col min="5645" max="5645" width="8.85546875" customWidth="1"/>
+    <col min="5646" max="5648" width="11.42578125" customWidth="1"/>
+    <col min="5649" max="5657" width="8.85546875" customWidth="1"/>
+    <col min="5658" max="5672" width="11.42578125" customWidth="1"/>
+    <col min="5673" max="5673" width="8.85546875" customWidth="1"/>
+    <col min="5674" max="5674" width="11.42578125" customWidth="1"/>
+    <col min="5675" max="5676" width="8.85546875" customWidth="1"/>
+    <col min="5677" max="5681" width="11.42578125" customWidth="1"/>
+    <col min="5682" max="5682" width="8.85546875" customWidth="1"/>
+    <col min="5683" max="5685" width="11.42578125" customWidth="1"/>
+    <col min="5686" max="5686" width="8.85546875" customWidth="1"/>
+    <col min="5687" max="5691" width="11.42578125" customWidth="1"/>
+    <col min="5692" max="5696" width="8.85546875" customWidth="1"/>
+    <col min="5697" max="5889" width="11.42578125" customWidth="1"/>
+    <col min="5890" max="5891" width="8.85546875" customWidth="1"/>
+    <col min="5892" max="5892" width="11.42578125" customWidth="1"/>
+    <col min="5893" max="5896" width="8.85546875" customWidth="1"/>
+    <col min="5897" max="5900" width="11.42578125" customWidth="1"/>
+    <col min="5901" max="5901" width="8.85546875" customWidth="1"/>
+    <col min="5902" max="5904" width="11.42578125" customWidth="1"/>
+    <col min="5905" max="5913" width="8.85546875" customWidth="1"/>
+    <col min="5914" max="5928" width="11.42578125" customWidth="1"/>
+    <col min="5929" max="5929" width="8.85546875" customWidth="1"/>
+    <col min="5930" max="5930" width="11.42578125" customWidth="1"/>
+    <col min="5931" max="5932" width="8.85546875" customWidth="1"/>
+    <col min="5933" max="5937" width="11.42578125" customWidth="1"/>
+    <col min="5938" max="5938" width="8.85546875" customWidth="1"/>
+    <col min="5939" max="5941" width="11.42578125" customWidth="1"/>
+    <col min="5942" max="5942" width="8.85546875" customWidth="1"/>
+    <col min="5943" max="5947" width="11.42578125" customWidth="1"/>
+    <col min="5948" max="5952" width="8.85546875" customWidth="1"/>
+    <col min="5953" max="6145" width="11.42578125" customWidth="1"/>
+    <col min="6146" max="6147" width="8.85546875" customWidth="1"/>
+    <col min="6148" max="6148" width="11.42578125" customWidth="1"/>
+    <col min="6149" max="6152" width="8.85546875" customWidth="1"/>
+    <col min="6153" max="6156" width="11.42578125" customWidth="1"/>
+    <col min="6157" max="6157" width="8.85546875" customWidth="1"/>
+    <col min="6158" max="6160" width="11.42578125" customWidth="1"/>
+    <col min="6161" max="6169" width="8.85546875" customWidth="1"/>
+    <col min="6170" max="6184" width="11.42578125" customWidth="1"/>
+    <col min="6185" max="6185" width="8.85546875" customWidth="1"/>
+    <col min="6186" max="6186" width="11.42578125" customWidth="1"/>
+    <col min="6187" max="6188" width="8.85546875" customWidth="1"/>
+    <col min="6189" max="6193" width="11.42578125" customWidth="1"/>
+    <col min="6194" max="6194" width="8.85546875" customWidth="1"/>
+    <col min="6195" max="6197" width="11.42578125" customWidth="1"/>
+    <col min="6198" max="6198" width="8.85546875" customWidth="1"/>
+    <col min="6199" max="6203" width="11.42578125" customWidth="1"/>
+    <col min="6204" max="6208" width="8.85546875" customWidth="1"/>
+    <col min="6209" max="6401" width="11.42578125" customWidth="1"/>
+    <col min="6402" max="6403" width="8.85546875" customWidth="1"/>
+    <col min="6404" max="6404" width="11.42578125" customWidth="1"/>
+    <col min="6405" max="6408" width="8.85546875" customWidth="1"/>
+    <col min="6409" max="6412" width="11.42578125" customWidth="1"/>
+    <col min="6413" max="6413" width="8.85546875" customWidth="1"/>
+    <col min="6414" max="6416" width="11.42578125" customWidth="1"/>
+    <col min="6417" max="6425" width="8.85546875" customWidth="1"/>
+    <col min="6426" max="6440" width="11.42578125" customWidth="1"/>
+    <col min="6441" max="6441" width="8.85546875" customWidth="1"/>
+    <col min="6442" max="6442" width="11.42578125" customWidth="1"/>
+    <col min="6443" max="6444" width="8.85546875" customWidth="1"/>
+    <col min="6445" max="6449" width="11.42578125" customWidth="1"/>
+    <col min="6450" max="6450" width="8.85546875" customWidth="1"/>
+    <col min="6451" max="6453" width="11.42578125" customWidth="1"/>
+    <col min="6454" max="6454" width="8.85546875" customWidth="1"/>
+    <col min="6455" max="6459" width="11.42578125" customWidth="1"/>
+    <col min="6460" max="6464" width="8.85546875" customWidth="1"/>
+    <col min="6465" max="6657" width="11.42578125" customWidth="1"/>
+    <col min="6658" max="6659" width="8.85546875" customWidth="1"/>
+    <col min="6660" max="6660" width="11.42578125" customWidth="1"/>
+    <col min="6661" max="6664" width="8.85546875" customWidth="1"/>
+    <col min="6665" max="6668" width="11.42578125" customWidth="1"/>
+    <col min="6669" max="6669" width="8.85546875" customWidth="1"/>
+    <col min="6670" max="6672" width="11.42578125" customWidth="1"/>
+    <col min="6673" max="6681" width="8.85546875" customWidth="1"/>
+    <col min="6682" max="6696" width="11.42578125" customWidth="1"/>
+    <col min="6697" max="6697" width="8.85546875" customWidth="1"/>
+    <col min="6698" max="6698" width="11.42578125" customWidth="1"/>
+    <col min="6699" max="6700" width="8.85546875" customWidth="1"/>
+    <col min="6701" max="6705" width="11.42578125" customWidth="1"/>
+    <col min="6706" max="6706" width="8.85546875" customWidth="1"/>
+    <col min="6707" max="6709" width="11.42578125" customWidth="1"/>
+    <col min="6710" max="6710" width="8.85546875" customWidth="1"/>
+    <col min="6711" max="6715" width="11.42578125" customWidth="1"/>
+    <col min="6716" max="6720" width="8.85546875" customWidth="1"/>
+    <col min="6721" max="6913" width="11.42578125" customWidth="1"/>
+    <col min="6914" max="6915" width="8.85546875" customWidth="1"/>
+    <col min="6916" max="6916" width="11.42578125" customWidth="1"/>
+    <col min="6917" max="6920" width="8.85546875" customWidth="1"/>
+    <col min="6921" max="6924" width="11.42578125" customWidth="1"/>
+    <col min="6925" max="6925" width="8.85546875" customWidth="1"/>
+    <col min="6926" max="6928" width="11.42578125" customWidth="1"/>
+    <col min="6929" max="6937" width="8.85546875" customWidth="1"/>
+    <col min="6938" max="6952" width="11.42578125" customWidth="1"/>
+    <col min="6953" max="6953" width="8.85546875" customWidth="1"/>
+    <col min="6954" max="6954" width="11.42578125" customWidth="1"/>
+    <col min="6955" max="6956" width="8.85546875" customWidth="1"/>
+    <col min="6957" max="6961" width="11.42578125" customWidth="1"/>
+    <col min="6962" max="6962" width="8.85546875" customWidth="1"/>
+    <col min="6963" max="6965" width="11.42578125" customWidth="1"/>
+    <col min="6966" max="6966" width="8.85546875" customWidth="1"/>
+    <col min="6967" max="6971" width="11.42578125" customWidth="1"/>
+    <col min="6972" max="6976" width="8.85546875" customWidth="1"/>
+    <col min="6977" max="7169" width="11.42578125" customWidth="1"/>
+    <col min="7170" max="7171" width="8.85546875" customWidth="1"/>
+    <col min="7172" max="7172" width="11.42578125" customWidth="1"/>
+    <col min="7173" max="7176" width="8.85546875" customWidth="1"/>
+    <col min="7177" max="7180" width="11.42578125" customWidth="1"/>
+    <col min="7181" max="7181" width="8.85546875" customWidth="1"/>
+    <col min="7182" max="7184" width="11.42578125" customWidth="1"/>
+    <col min="7185" max="7193" width="8.85546875" customWidth="1"/>
+    <col min="7194" max="7208" width="11.42578125" customWidth="1"/>
+    <col min="7209" max="7209" width="8.85546875" customWidth="1"/>
+    <col min="7210" max="7210" width="11.42578125" customWidth="1"/>
+    <col min="7211" max="7212" width="8.85546875" customWidth="1"/>
+    <col min="7213" max="7217" width="11.42578125" customWidth="1"/>
+    <col min="7218" max="7218" width="8.85546875" customWidth="1"/>
+    <col min="7219" max="7221" width="11.42578125" customWidth="1"/>
+    <col min="7222" max="7222" width="8.85546875" customWidth="1"/>
+    <col min="7223" max="7227" width="11.42578125" customWidth="1"/>
+    <col min="7228" max="7232" width="8.85546875" customWidth="1"/>
+    <col min="7233" max="7425" width="11.42578125" customWidth="1"/>
+    <col min="7426" max="7427" width="8.85546875" customWidth="1"/>
+    <col min="7428" max="7428" width="11.42578125" customWidth="1"/>
+    <col min="7429" max="7432" width="8.85546875" customWidth="1"/>
+    <col min="7433" max="7436" width="11.42578125" customWidth="1"/>
+    <col min="7437" max="7437" width="8.85546875" customWidth="1"/>
+    <col min="7438" max="7440" width="11.42578125" customWidth="1"/>
+    <col min="7441" max="7449" width="8.85546875" customWidth="1"/>
+    <col min="7450" max="7464" width="11.42578125" customWidth="1"/>
+    <col min="7465" max="7465" width="8.85546875" customWidth="1"/>
+    <col min="7466" max="7466" width="11.42578125" customWidth="1"/>
+    <col min="7467" max="7468" width="8.85546875" customWidth="1"/>
+    <col min="7469" max="7473" width="11.42578125" customWidth="1"/>
+    <col min="7474" max="7474" width="8.85546875" customWidth="1"/>
+    <col min="7475" max="7477" width="11.42578125" customWidth="1"/>
+    <col min="7478" max="7478" width="8.85546875" customWidth="1"/>
+    <col min="7479" max="7483" width="11.42578125" customWidth="1"/>
+    <col min="7484" max="7488" width="8.85546875" customWidth="1"/>
+    <col min="7489" max="7681" width="11.42578125" customWidth="1"/>
+    <col min="7682" max="7683" width="8.85546875" customWidth="1"/>
+    <col min="7684" max="7684" width="11.42578125" customWidth="1"/>
+    <col min="7685" max="7688" width="8.85546875" customWidth="1"/>
+    <col min="7689" max="7692" width="11.42578125" customWidth="1"/>
+    <col min="7693" max="7693" width="8.85546875" customWidth="1"/>
+    <col min="7694" max="7696" width="11.42578125" customWidth="1"/>
+    <col min="7697" max="7705" width="8.85546875" customWidth="1"/>
+    <col min="7706" max="7720" width="11.42578125" customWidth="1"/>
+    <col min="7721" max="7721" width="8.85546875" customWidth="1"/>
+    <col min="7722" max="7722" width="11.42578125" customWidth="1"/>
+    <col min="7723" max="7724" width="8.85546875" customWidth="1"/>
+    <col min="7725" max="7729" width="11.42578125" customWidth="1"/>
+    <col min="7730" max="7730" width="8.85546875" customWidth="1"/>
+    <col min="7731" max="7733" width="11.42578125" customWidth="1"/>
+    <col min="7734" max="7734" width="8.85546875" customWidth="1"/>
+    <col min="7735" max="7739" width="11.42578125" customWidth="1"/>
+    <col min="7740" max="7744" width="8.85546875" customWidth="1"/>
+    <col min="7745" max="7937" width="11.42578125" customWidth="1"/>
+    <col min="7938" max="7939" width="8.85546875" customWidth="1"/>
+    <col min="7940" max="7940" width="11.42578125" customWidth="1"/>
+    <col min="7941" max="7944" width="8.85546875" customWidth="1"/>
+    <col min="7945" max="7948" width="11.42578125" customWidth="1"/>
+    <col min="7949" max="7949" width="8.85546875" customWidth="1"/>
+    <col min="7950" max="7952" width="11.42578125" customWidth="1"/>
+    <col min="7953" max="7961" width="8.85546875" customWidth="1"/>
+    <col min="7962" max="7976" width="11.42578125" customWidth="1"/>
+    <col min="7977" max="7977" width="8.85546875" customWidth="1"/>
+    <col min="7978" max="7978" width="11.42578125" customWidth="1"/>
+    <col min="7979" max="7980" width="8.85546875" customWidth="1"/>
+    <col min="7981" max="7985" width="11.42578125" customWidth="1"/>
+    <col min="7986" max="7986" width="8.85546875" customWidth="1"/>
+    <col min="7987" max="7989" width="11.42578125" customWidth="1"/>
+    <col min="7990" max="7990" width="8.85546875" customWidth="1"/>
+    <col min="7991" max="7995" width="11.42578125" customWidth="1"/>
+    <col min="7996" max="8000" width="8.85546875" customWidth="1"/>
+    <col min="8001" max="8193" width="11.42578125" customWidth="1"/>
+    <col min="8194" max="8195" width="8.85546875" customWidth="1"/>
+    <col min="8196" max="8196" width="11.42578125" customWidth="1"/>
+    <col min="8197" max="8200" width="8.85546875" customWidth="1"/>
+    <col min="8201" max="8204" width="11.42578125" customWidth="1"/>
+    <col min="8205" max="8205" width="8.85546875" customWidth="1"/>
+    <col min="8206" max="8208" width="11.42578125" customWidth="1"/>
+    <col min="8209" max="8217" width="8.85546875" customWidth="1"/>
+    <col min="8218" max="8232" width="11.42578125" customWidth="1"/>
+    <col min="8233" max="8233" width="8.85546875" customWidth="1"/>
+    <col min="8234" max="8234" width="11.42578125" customWidth="1"/>
+    <col min="8235" max="8236" width="8.85546875" customWidth="1"/>
+    <col min="8237" max="8241" width="11.42578125" customWidth="1"/>
+    <col min="8242" max="8242" width="8.85546875" customWidth="1"/>
+    <col min="8243" max="8245" width="11.42578125" customWidth="1"/>
+    <col min="8246" max="8246" width="8.85546875" customWidth="1"/>
+    <col min="8247" max="8251" width="11.42578125" customWidth="1"/>
+    <col min="8252" max="8256" width="8.85546875" customWidth="1"/>
+    <col min="8257" max="8449" width="11.42578125" customWidth="1"/>
+    <col min="8450" max="8451" width="8.85546875" customWidth="1"/>
+    <col min="8452" max="8452" width="11.42578125" customWidth="1"/>
+    <col min="8453" max="8456" width="8.85546875" customWidth="1"/>
+    <col min="8457" max="8460" width="11.42578125" customWidth="1"/>
+    <col min="8461" max="8461" width="8.85546875" customWidth="1"/>
+    <col min="8462" max="8464" width="11.42578125" customWidth="1"/>
+    <col min="8465" max="8473" width="8.85546875" customWidth="1"/>
+    <col min="8474" max="8488" width="11.42578125" customWidth="1"/>
+    <col min="8489" max="8489" width="8.85546875" customWidth="1"/>
+    <col min="8490" max="8490" width="11.42578125" customWidth="1"/>
+    <col min="8491" max="8492" width="8.85546875" customWidth="1"/>
+    <col min="8493" max="8497" width="11.42578125" customWidth="1"/>
+    <col min="8498" max="8498" width="8.85546875" customWidth="1"/>
+    <col min="8499" max="8501" width="11.42578125" customWidth="1"/>
+    <col min="8502" max="8502" width="8.85546875" customWidth="1"/>
+    <col min="8503" max="8507" width="11.42578125" customWidth="1"/>
+    <col min="8508" max="8512" width="8.85546875" customWidth="1"/>
+    <col min="8513" max="8705" width="11.42578125" customWidth="1"/>
+    <col min="8706" max="8707" width="8.85546875" customWidth="1"/>
+    <col min="8708" max="8708" width="11.42578125" customWidth="1"/>
+    <col min="8709" max="8712" width="8.85546875" customWidth="1"/>
+    <col min="8713" max="8716" width="11.42578125" customWidth="1"/>
+    <col min="8717" max="8717" width="8.85546875" customWidth="1"/>
+    <col min="8718" max="8720" width="11.42578125" customWidth="1"/>
+    <col min="8721" max="8729" width="8.85546875" customWidth="1"/>
+    <col min="8730" max="8744" width="11.42578125" customWidth="1"/>
+    <col min="8745" max="8745" width="8.85546875" customWidth="1"/>
+    <col min="8746" max="8746" width="11.42578125" customWidth="1"/>
+    <col min="8747" max="8748" width="8.85546875" customWidth="1"/>
+    <col min="8749" max="8753" width="11.42578125" customWidth="1"/>
+    <col min="8754" max="8754" width="8.85546875" customWidth="1"/>
+    <col min="8755" max="8757" width="11.42578125" customWidth="1"/>
+    <col min="8758" max="8758" width="8.85546875" customWidth="1"/>
+    <col min="8759" max="8763" width="11.42578125" customWidth="1"/>
+    <col min="8764" max="8768" width="8.85546875" customWidth="1"/>
+    <col min="8769" max="8961" width="11.42578125" customWidth="1"/>
+    <col min="8962" max="8963" width="8.85546875" customWidth="1"/>
+    <col min="8964" max="8964" width="11.42578125" customWidth="1"/>
+    <col min="8965" max="8968" width="8.85546875" customWidth="1"/>
+    <col min="8969" max="8972" width="11.42578125" customWidth="1"/>
+    <col min="8973" max="8973" width="8.85546875" customWidth="1"/>
+    <col min="8974" max="8976" width="11.42578125" customWidth="1"/>
+    <col min="8977" max="8985" width="8.85546875" customWidth="1"/>
+    <col min="8986" max="9000" width="11.42578125" customWidth="1"/>
+    <col min="9001" max="9001" width="8.85546875" customWidth="1"/>
+    <col min="9002" max="9002" width="11.42578125" customWidth="1"/>
+    <col min="9003" max="9004" width="8.85546875" customWidth="1"/>
+    <col min="9005" max="9009" width="11.42578125" customWidth="1"/>
+    <col min="9010" max="9010" width="8.85546875" customWidth="1"/>
+    <col min="9011" max="9013" width="11.42578125" customWidth="1"/>
+    <col min="9014" max="9014" width="8.85546875" customWidth="1"/>
+    <col min="9015" max="9019" width="11.42578125" customWidth="1"/>
+    <col min="9020" max="9024" width="8.85546875" customWidth="1"/>
+    <col min="9025" max="9217" width="11.42578125" customWidth="1"/>
+    <col min="9218" max="9219" width="8.85546875" customWidth="1"/>
+    <col min="9220" max="9220" width="11.42578125" customWidth="1"/>
+    <col min="9221" max="9224" width="8.85546875" customWidth="1"/>
+    <col min="9225" max="9228" width="11.42578125" customWidth="1"/>
+    <col min="9229" max="9229" width="8.85546875" customWidth="1"/>
+    <col min="9230" max="9232" width="11.42578125" customWidth="1"/>
+    <col min="9233" max="9241" width="8.85546875" customWidth="1"/>
+    <col min="9242" max="9256" width="11.42578125" customWidth="1"/>
+    <col min="9257" max="9257" width="8.85546875" customWidth="1"/>
+    <col min="9258" max="9258" width="11.42578125" customWidth="1"/>
+    <col min="9259" max="9260" width="8.85546875" customWidth="1"/>
+    <col min="9261" max="9265" width="11.42578125" customWidth="1"/>
+    <col min="9266" max="9266" width="8.85546875" customWidth="1"/>
+    <col min="9267" max="9269" width="11.42578125" customWidth="1"/>
+    <col min="9270" max="9270" width="8.85546875" customWidth="1"/>
+    <col min="9271" max="9275" width="11.42578125" customWidth="1"/>
+    <col min="9276" max="9280" width="8.85546875" customWidth="1"/>
+    <col min="9281" max="9473" width="11.42578125" customWidth="1"/>
+    <col min="9474" max="9475" width="8.85546875" customWidth="1"/>
+    <col min="9476" max="9476" width="11.42578125" customWidth="1"/>
+    <col min="9477" max="9480" width="8.85546875" customWidth="1"/>
+    <col min="9481" max="9484" width="11.42578125" customWidth="1"/>
+    <col min="9485" max="9485" width="8.85546875" customWidth="1"/>
+    <col min="9486" max="9488" width="11.42578125" customWidth="1"/>
+    <col min="9489" max="9497" width="8.85546875" customWidth="1"/>
+    <col min="9498" max="9512" width="11.42578125" customWidth="1"/>
+    <col min="9513" max="9513" width="8.85546875" customWidth="1"/>
+    <col min="9514" max="9514" width="11.42578125" customWidth="1"/>
+    <col min="9515" max="9516" width="8.85546875" customWidth="1"/>
+    <col min="9517" max="9521" width="11.42578125" customWidth="1"/>
+    <col min="9522" max="9522" width="8.85546875" customWidth="1"/>
+    <col min="9523" max="9525" width="11.42578125" customWidth="1"/>
+    <col min="9526" max="9526" width="8.85546875" customWidth="1"/>
+    <col min="9527" max="9531" width="11.42578125" customWidth="1"/>
+    <col min="9532" max="9536" width="8.85546875" customWidth="1"/>
+    <col min="9537" max="9729" width="11.42578125" customWidth="1"/>
+    <col min="9730" max="9731" width="8.85546875" customWidth="1"/>
+    <col min="9732" max="9732" width="11.42578125" customWidth="1"/>
+    <col min="9733" max="9736" width="8.85546875" customWidth="1"/>
+    <col min="9737" max="9740" width="11.42578125" customWidth="1"/>
+    <col min="9741" max="9741" width="8.85546875" customWidth="1"/>
+    <col min="9742" max="9744" width="11.42578125" customWidth="1"/>
+    <col min="9745" max="9753" width="8.85546875" customWidth="1"/>
+    <col min="9754" max="9768" width="11.42578125" customWidth="1"/>
+    <col min="9769" max="9769" width="8.85546875" customWidth="1"/>
+    <col min="9770" max="9770" width="11.42578125" customWidth="1"/>
+    <col min="9771" max="9772" width="8.85546875" customWidth="1"/>
+    <col min="9773" max="9777" width="11.42578125" customWidth="1"/>
+    <col min="9778" max="9778" width="8.85546875" customWidth="1"/>
+    <col min="9779" max="9781" width="11.42578125" customWidth="1"/>
+    <col min="9782" max="9782" width="8.85546875" customWidth="1"/>
+    <col min="9783" max="9787" width="11.42578125" customWidth="1"/>
+    <col min="9788" max="9792" width="8.85546875" customWidth="1"/>
+    <col min="9793" max="9985" width="11.42578125" customWidth="1"/>
+    <col min="9986" max="9987" width="8.85546875" customWidth="1"/>
+    <col min="9988" max="9988" width="11.42578125" customWidth="1"/>
+    <col min="9989" max="9992" width="8.85546875" customWidth="1"/>
+    <col min="9993" max="9996" width="11.42578125" customWidth="1"/>
+    <col min="9997" max="9997" width="8.85546875" customWidth="1"/>
+    <col min="9998" max="10000" width="11.42578125" customWidth="1"/>
+    <col min="10001" max="10009" width="8.85546875" customWidth="1"/>
+    <col min="10010" max="10024" width="11.42578125" customWidth="1"/>
+    <col min="10025" max="10025" width="8.85546875" customWidth="1"/>
+    <col min="10026" max="10026" width="11.42578125" customWidth="1"/>
+    <col min="10027" max="10028" width="8.85546875" customWidth="1"/>
+    <col min="10029" max="10033" width="11.42578125" customWidth="1"/>
+    <col min="10034" max="10034" width="8.85546875" customWidth="1"/>
+    <col min="10035" max="10037" width="11.42578125" customWidth="1"/>
+    <col min="10038" max="10038" width="8.85546875" customWidth="1"/>
+    <col min="10039" max="10043" width="11.42578125" customWidth="1"/>
+    <col min="10044" max="10048" width="8.85546875" customWidth="1"/>
+    <col min="10049" max="10241" width="11.42578125" customWidth="1"/>
+    <col min="10242" max="10243" width="8.85546875" customWidth="1"/>
+    <col min="10244" max="10244" width="11.42578125" customWidth="1"/>
+    <col min="10245" max="10248" width="8.85546875" customWidth="1"/>
+    <col min="10249" max="10252" width="11.42578125" customWidth="1"/>
+    <col min="10253" max="10253" width="8.85546875" customWidth="1"/>
+    <col min="10254" max="10256" width="11.42578125" customWidth="1"/>
+    <col min="10257" max="10265" width="8.85546875" customWidth="1"/>
+    <col min="10266" max="10280" width="11.42578125" customWidth="1"/>
+    <col min="10281" max="10281" width="8.85546875" customWidth="1"/>
+    <col min="10282" max="10282" width="11.42578125" customWidth="1"/>
+    <col min="10283" max="10284" width="8.85546875" customWidth="1"/>
+    <col min="10285" max="10289" width="11.42578125" customWidth="1"/>
+    <col min="10290" max="10290" width="8.85546875" customWidth="1"/>
+    <col min="10291" max="10293" width="11.42578125" customWidth="1"/>
+    <col min="10294" max="10294" width="8.85546875" customWidth="1"/>
+    <col min="10295" max="10299" width="11.42578125" customWidth="1"/>
+    <col min="10300" max="10304" width="8.85546875" customWidth="1"/>
+    <col min="10305" max="10497" width="11.42578125" customWidth="1"/>
+    <col min="10498" max="10499" width="8.85546875" customWidth="1"/>
+    <col min="10500" max="10500" width="11.42578125" customWidth="1"/>
+    <col min="10501" max="10504" width="8.85546875" customWidth="1"/>
+    <col min="10505" max="10508" width="11.42578125" customWidth="1"/>
+    <col min="10509" max="10509" width="8.85546875" customWidth="1"/>
+    <col min="10510" max="10512" width="11.42578125" customWidth="1"/>
+    <col min="10513" max="10521" width="8.85546875" customWidth="1"/>
+    <col min="10522" max="10536" width="11.42578125" customWidth="1"/>
+    <col min="10537" max="10537" width="8.85546875" customWidth="1"/>
+    <col min="10538" max="10538" width="11.42578125" customWidth="1"/>
+    <col min="10539" max="10540" width="8.85546875" customWidth="1"/>
+    <col min="10541" max="10545" width="11.42578125" customWidth="1"/>
+    <col min="10546" max="10546" width="8.85546875" customWidth="1"/>
+    <col min="10547" max="10549" width="11.42578125" customWidth="1"/>
+    <col min="10550" max="10550" width="8.85546875" customWidth="1"/>
+    <col min="10551" max="10555" width="11.42578125" customWidth="1"/>
+    <col min="10556" max="10560" width="8.85546875" customWidth="1"/>
+    <col min="10561" max="10753" width="11.42578125" customWidth="1"/>
+    <col min="10754" max="10755" width="8.85546875" customWidth="1"/>
+    <col min="10756" max="10756" width="11.42578125" customWidth="1"/>
+    <col min="10757" max="10760" width="8.85546875" customWidth="1"/>
+    <col min="10761" max="10764" width="11.42578125" customWidth="1"/>
+    <col min="10765" max="10765" width="8.85546875" customWidth="1"/>
+    <col min="10766" max="10768" width="11.42578125" customWidth="1"/>
+    <col min="10769" max="10777" width="8.85546875" customWidth="1"/>
+    <col min="10778" max="10792" width="11.42578125" customWidth="1"/>
+    <col min="10793" max="10793" width="8.85546875" customWidth="1"/>
+    <col min="10794" max="10794" width="11.42578125" customWidth="1"/>
+    <col min="10795" max="10796" width="8.85546875" customWidth="1"/>
+    <col min="10797" max="10801" width="11.42578125" customWidth="1"/>
+    <col min="10802" max="10802" width="8.85546875" customWidth="1"/>
+    <col min="10803" max="10805" width="11.42578125" customWidth="1"/>
+    <col min="10806" max="10806" width="8.85546875" customWidth="1"/>
+    <col min="10807" max="10811" width="11.42578125" customWidth="1"/>
+    <col min="10812" max="10816" width="8.85546875" customWidth="1"/>
+    <col min="10817" max="11009" width="11.42578125" customWidth="1"/>
+    <col min="11010" max="11011" width="8.85546875" customWidth="1"/>
+    <col min="11012" max="11012" width="11.42578125" customWidth="1"/>
+    <col min="11013" max="11016" width="8.85546875" customWidth="1"/>
+    <col min="11017" max="11020" width="11.42578125" customWidth="1"/>
+    <col min="11021" max="11021" width="8.85546875" customWidth="1"/>
+    <col min="11022" max="11024" width="11.42578125" customWidth="1"/>
+    <col min="11025" max="11033" width="8.85546875" customWidth="1"/>
+    <col min="11034" max="11048" width="11.42578125" customWidth="1"/>
+    <col min="11049" max="11049" width="8.85546875" customWidth="1"/>
+    <col min="11050" max="11050" width="11.42578125" customWidth="1"/>
+    <col min="11051" max="11052" width="8.85546875" customWidth="1"/>
+    <col min="11053" max="11057" width="11.42578125" customWidth="1"/>
+    <col min="11058" max="11058" width="8.85546875" customWidth="1"/>
+    <col min="11059" max="11061" width="11.42578125" customWidth="1"/>
+    <col min="11062" max="11062" width="8.85546875" customWidth="1"/>
+    <col min="11063" max="11067" width="11.42578125" customWidth="1"/>
+    <col min="11068" max="11072" width="8.85546875" customWidth="1"/>
+    <col min="11073" max="11265" width="11.42578125" customWidth="1"/>
+    <col min="11266" max="11267" width="8.85546875" customWidth="1"/>
+    <col min="11268" max="11268" width="11.42578125" customWidth="1"/>
+    <col min="11269" max="11272" width="8.85546875" customWidth="1"/>
+    <col min="11273" max="11276" width="11.42578125" customWidth="1"/>
+    <col min="11277" max="11277" width="8.85546875" customWidth="1"/>
+    <col min="11278" max="11280" width="11.42578125" customWidth="1"/>
+    <col min="11281" max="11289" width="8.85546875" customWidth="1"/>
+    <col min="11290" max="11304" width="11.42578125" customWidth="1"/>
+    <col min="11305" max="11305" width="8.85546875" customWidth="1"/>
+    <col min="11306" max="11306" width="11.42578125" customWidth="1"/>
+    <col min="11307" max="11308" width="8.85546875" customWidth="1"/>
+    <col min="11309" max="11313" width="11.42578125" customWidth="1"/>
+    <col min="11314" max="11314" width="8.85546875" customWidth="1"/>
+    <col min="11315" max="11317" width="11.42578125" customWidth="1"/>
+    <col min="11318" max="11318" width="8.85546875" customWidth="1"/>
+    <col min="11319" max="11323" width="11.42578125" customWidth="1"/>
+    <col min="11324" max="11328" width="8.85546875" customWidth="1"/>
+    <col min="11329" max="11521" width="11.42578125" customWidth="1"/>
+    <col min="11522" max="11523" width="8.85546875" customWidth="1"/>
+    <col min="11524" max="11524" width="11.42578125" customWidth="1"/>
+    <col min="11525" max="11528" width="8.85546875" customWidth="1"/>
+    <col min="11529" max="11532" width="11.42578125" customWidth="1"/>
+    <col min="11533" max="11533" width="8.85546875" customWidth="1"/>
+    <col min="11534" max="11536" width="11.42578125" customWidth="1"/>
+    <col min="11537" max="11545" width="8.85546875" customWidth="1"/>
+    <col min="11546" max="11560" width="11.42578125" customWidth="1"/>
+    <col min="11561" max="11561" width="8.85546875" customWidth="1"/>
+    <col min="11562" max="11562" width="11.42578125" customWidth="1"/>
+    <col min="11563" max="11564" width="8.85546875" customWidth="1"/>
+    <col min="11565" max="11569" width="11.42578125" customWidth="1"/>
+    <col min="11570" max="11570" width="8.85546875" customWidth="1"/>
+    <col min="11571" max="11573" width="11.42578125" customWidth="1"/>
+    <col min="11574" max="11574" width="8.85546875" customWidth="1"/>
+    <col min="11575" max="11579" width="11.42578125" customWidth="1"/>
+    <col min="11580" max="11584" width="8.85546875" customWidth="1"/>
+    <col min="11585" max="11777" width="11.42578125" customWidth="1"/>
+    <col min="11778" max="11779" width="8.85546875" customWidth="1"/>
+    <col min="11780" max="11780" width="11.42578125" customWidth="1"/>
+    <col min="11781" max="11784" width="8.85546875" customWidth="1"/>
+    <col min="11785" max="11788" width="11.42578125" customWidth="1"/>
+    <col min="11789" max="11789" width="8.85546875" customWidth="1"/>
+    <col min="11790" max="11792" width="11.42578125" customWidth="1"/>
+    <col min="11793" max="11801" width="8.85546875" customWidth="1"/>
+    <col min="11802" max="11816" width="11.42578125" customWidth="1"/>
+    <col min="11817" max="11817" width="8.85546875" customWidth="1"/>
+    <col min="11818" max="11818" width="11.42578125" customWidth="1"/>
+    <col min="11819" max="11820" width="8.85546875" customWidth="1"/>
+    <col min="11821" max="11825" width="11.42578125" customWidth="1"/>
+    <col min="11826" max="11826" width="8.85546875" customWidth="1"/>
+    <col min="11827" max="11829" width="11.42578125" customWidth="1"/>
+    <col min="11830" max="11830" width="8.85546875" customWidth="1"/>
+    <col min="11831" max="11835" width="11.42578125" customWidth="1"/>
+    <col min="11836" max="11840" width="8.85546875" customWidth="1"/>
+    <col min="11841" max="12033" width="11.42578125" customWidth="1"/>
+    <col min="12034" max="12035" width="8.85546875" customWidth="1"/>
+    <col min="12036" max="12036" width="11.42578125" customWidth="1"/>
+    <col min="12037" max="12040" width="8.85546875" customWidth="1"/>
+    <col min="12041" max="12044" width="11.42578125" customWidth="1"/>
+    <col min="12045" max="12045" width="8.85546875" customWidth="1"/>
+    <col min="12046" max="12048" width="11.42578125" customWidth="1"/>
+    <col min="12049" max="12057" width="8.85546875" customWidth="1"/>
+    <col min="12058" max="12072" width="11.42578125" customWidth="1"/>
+    <col min="12073" max="12073" width="8.85546875" customWidth="1"/>
+    <col min="12074" max="12074" width="11.42578125" customWidth="1"/>
+    <col min="12075" max="12076" width="8.85546875" customWidth="1"/>
+    <col min="12077" max="12081" width="11.42578125" customWidth="1"/>
+    <col min="12082" max="12082" width="8.85546875" customWidth="1"/>
+    <col min="12083" max="12085" width="11.42578125" customWidth="1"/>
+    <col min="12086" max="12086" width="8.85546875" customWidth="1"/>
+    <col min="12087" max="12091" width="11.42578125" customWidth="1"/>
+    <col min="12092" max="12096" width="8.85546875" customWidth="1"/>
+    <col min="12097" max="12289" width="11.42578125" customWidth="1"/>
+    <col min="12290" max="12291" width="8.85546875" customWidth="1"/>
+    <col min="12292" max="12292" width="11.42578125" customWidth="1"/>
+    <col min="12293" max="12296" width="8.85546875" customWidth="1"/>
+    <col min="12297" max="12300" width="11.42578125" customWidth="1"/>
+    <col min="12301" max="12301" width="8.85546875" customWidth="1"/>
+    <col min="12302" max="12304" width="11.42578125" customWidth="1"/>
+    <col min="12305" max="12313" width="8.85546875" customWidth="1"/>
+    <col min="12314" max="12328" width="11.42578125" customWidth="1"/>
+    <col min="12329" max="12329" width="8.85546875" customWidth="1"/>
+    <col min="12330" max="12330" width="11.42578125" customWidth="1"/>
+    <col min="12331" max="12332" width="8.85546875" customWidth="1"/>
+    <col min="12333" max="12337" width="11.42578125" customWidth="1"/>
+    <col min="12338" max="12338" width="8.85546875" customWidth="1"/>
+    <col min="12339" max="12341" width="11.42578125" customWidth="1"/>
+    <col min="12342" max="12342" width="8.85546875" customWidth="1"/>
+    <col min="12343" max="12347" width="11.42578125" customWidth="1"/>
+    <col min="12348" max="12352" width="8.85546875" customWidth="1"/>
+    <col min="12353" max="12545" width="11.42578125" customWidth="1"/>
+    <col min="12546" max="12547" width="8.85546875" customWidth="1"/>
+    <col min="12548" max="12548" width="11.42578125" customWidth="1"/>
+    <col min="12549" max="12552" width="8.85546875" customWidth="1"/>
+    <col min="12553" max="12556" width="11.42578125" customWidth="1"/>
+    <col min="12557" max="12557" width="8.85546875" customWidth="1"/>
+    <col min="12558" max="12560" width="11.42578125" customWidth="1"/>
+    <col min="12561" max="12569" width="8.85546875" customWidth="1"/>
+    <col min="12570" max="12584" width="11.42578125" customWidth="1"/>
+    <col min="12585" max="12585" width="8.85546875" customWidth="1"/>
+    <col min="12586" max="12586" width="11.42578125" customWidth="1"/>
+    <col min="12587" max="12588" width="8.85546875" customWidth="1"/>
+    <col min="12589" max="12593" width="11.42578125" customWidth="1"/>
+    <col min="12594" max="12594" width="8.85546875" customWidth="1"/>
+    <col min="12595" max="12597" width="11.42578125" customWidth="1"/>
+    <col min="12598" max="12598" width="8.85546875" customWidth="1"/>
+    <col min="12599" max="12603" width="11.42578125" customWidth="1"/>
+    <col min="12604" max="12608" width="8.85546875" customWidth="1"/>
+    <col min="12609" max="12801" width="11.42578125" customWidth="1"/>
+    <col min="12802" max="12803" width="8.85546875" customWidth="1"/>
+    <col min="12804" max="12804" width="11.42578125" customWidth="1"/>
+    <col min="12805" max="12808" width="8.85546875" customWidth="1"/>
+    <col min="12809" max="12812" width="11.42578125" customWidth="1"/>
+    <col min="12813" max="12813" width="8.85546875" customWidth="1"/>
+    <col min="12814" max="12816" width="11.42578125" customWidth="1"/>
+    <col min="12817" max="12825" width="8.85546875" customWidth="1"/>
+    <col min="12826" max="12840" width="11.42578125" customWidth="1"/>
+    <col min="12841" max="12841" width="8.85546875" customWidth="1"/>
+    <col min="12842" max="12842" width="11.42578125" customWidth="1"/>
+    <col min="12843" max="12844" width="8.85546875" customWidth="1"/>
+    <col min="12845" max="12849" width="11.42578125" customWidth="1"/>
+    <col min="12850" max="12850" width="8.85546875" customWidth="1"/>
+    <col min="12851" max="12853" width="11.42578125" customWidth="1"/>
+    <col min="12854" max="12854" width="8.85546875" customWidth="1"/>
+    <col min="12855" max="12859" width="11.42578125" customWidth="1"/>
+    <col min="12860" max="12864" width="8.85546875" customWidth="1"/>
+    <col min="12865" max="13057" width="11.42578125" customWidth="1"/>
+    <col min="13058" max="13059" width="8.85546875" customWidth="1"/>
+    <col min="13060" max="13060" width="11.42578125" customWidth="1"/>
+    <col min="13061" max="13064" width="8.85546875" customWidth="1"/>
+    <col min="13065" max="13068" width="11.42578125" customWidth="1"/>
+    <col min="13069" max="13069" width="8.85546875" customWidth="1"/>
+    <col min="13070" max="13072" width="11.42578125" customWidth="1"/>
+    <col min="13073" max="13081" width="8.85546875" customWidth="1"/>
+    <col min="13082" max="13096" width="11.42578125" customWidth="1"/>
+    <col min="13097" max="13097" width="8.85546875" customWidth="1"/>
+    <col min="13098" max="13098" width="11.42578125" customWidth="1"/>
+    <col min="13099" max="13100" width="8.85546875" customWidth="1"/>
+    <col min="13101" max="13105" width="11.42578125" customWidth="1"/>
+    <col min="13106" max="13106" width="8.85546875" customWidth="1"/>
+    <col min="13107" max="13109" width="11.42578125" customWidth="1"/>
+    <col min="13110" max="13110" width="8.85546875" customWidth="1"/>
+    <col min="13111" max="13115" width="11.42578125" customWidth="1"/>
+    <col min="13116" max="13120" width="8.85546875" customWidth="1"/>
+    <col min="13121" max="13313" width="11.42578125" customWidth="1"/>
+    <col min="13314" max="13315" width="8.85546875" customWidth="1"/>
+    <col min="13316" max="13316" width="11.42578125" customWidth="1"/>
+    <col min="13317" max="13320" width="8.85546875" customWidth="1"/>
+    <col min="13321" max="13324" width="11.42578125" customWidth="1"/>
+    <col min="13325" max="13325" width="8.85546875" customWidth="1"/>
+    <col min="13326" max="13328" width="11.42578125" customWidth="1"/>
+    <col min="13329" max="13337" width="8.85546875" customWidth="1"/>
+    <col min="13338" max="13352" width="11.42578125" customWidth="1"/>
+    <col min="13353" max="13353" width="8.85546875" customWidth="1"/>
+    <col min="13354" max="13354" width="11.42578125" customWidth="1"/>
+    <col min="13355" max="13356" width="8.85546875" customWidth="1"/>
+    <col min="13357" max="13361" width="11.42578125" customWidth="1"/>
+    <col min="13362" max="13362" width="8.85546875" customWidth="1"/>
+    <col min="13363" max="13365" width="11.42578125" customWidth="1"/>
+    <col min="13366" max="13366" width="8.85546875" customWidth="1"/>
+    <col min="13367" max="13371" width="11.42578125" customWidth="1"/>
+    <col min="13372" max="13376" width="8.85546875" customWidth="1"/>
+    <col min="13377" max="13569" width="11.42578125" customWidth="1"/>
+    <col min="13570" max="13571" width="8.85546875" customWidth="1"/>
+    <col min="13572" max="13572" width="11.42578125" customWidth="1"/>
+    <col min="13573" max="13576" width="8.85546875" customWidth="1"/>
+    <col min="13577" max="13580" width="11.42578125" customWidth="1"/>
+    <col min="13581" max="13581" width="8.85546875" customWidth="1"/>
+    <col min="13582" max="13584" width="11.42578125" customWidth="1"/>
+    <col min="13585" max="13593" width="8.85546875" customWidth="1"/>
+    <col min="13594" max="13608" width="11.42578125" customWidth="1"/>
+    <col min="13609" max="13609" width="8.85546875" customWidth="1"/>
+    <col min="13610" max="13610" width="11.42578125" customWidth="1"/>
+    <col min="13611" max="13612" width="8.85546875" customWidth="1"/>
+    <col min="13613" max="13617" width="11.42578125" customWidth="1"/>
+    <col min="13618" max="13618" width="8.85546875" customWidth="1"/>
+    <col min="13619" max="13621" width="11.42578125" customWidth="1"/>
+    <col min="13622" max="13622" width="8.85546875" customWidth="1"/>
+    <col min="13623" max="13627" width="11.42578125" customWidth="1"/>
+    <col min="13628" max="13632" width="8.85546875" customWidth="1"/>
+    <col min="13633" max="13825" width="11.42578125" customWidth="1"/>
+    <col min="13826" max="13827" width="8.85546875" customWidth="1"/>
+    <col min="13828" max="13828" width="11.42578125" customWidth="1"/>
+    <col min="13829" max="13832" width="8.85546875" customWidth="1"/>
+    <col min="13833" max="13836" width="11.42578125" customWidth="1"/>
+    <col min="13837" max="13837" width="8.85546875" customWidth="1"/>
+    <col min="13838" max="13840" width="11.42578125" customWidth="1"/>
+    <col min="13841" max="13849" width="8.85546875" customWidth="1"/>
+    <col min="13850" max="13864" width="11.42578125" customWidth="1"/>
+    <col min="13865" max="13865" width="8.85546875" customWidth="1"/>
+    <col min="13866" max="13866" width="11.42578125" customWidth="1"/>
+    <col min="13867" max="13868" width="8.85546875" customWidth="1"/>
+    <col min="13869" max="13873" width="11.42578125" customWidth="1"/>
+    <col min="13874" max="13874" width="8.85546875" customWidth="1"/>
+    <col min="13875" max="13877" width="11.42578125" customWidth="1"/>
+    <col min="13878" max="13878" width="8.85546875" customWidth="1"/>
+    <col min="13879" max="13883" width="11.42578125" customWidth="1"/>
+    <col min="13884" max="13888" width="8.85546875" customWidth="1"/>
+    <col min="13889" max="14081" width="11.42578125" customWidth="1"/>
+    <col min="14082" max="14083" width="8.85546875" customWidth="1"/>
+    <col min="14084" max="14084" width="11.42578125" customWidth="1"/>
+    <col min="14085" max="14088" width="8.85546875" customWidth="1"/>
+    <col min="14089" max="14092" width="11.42578125" customWidth="1"/>
+    <col min="14093" max="14093" width="8.85546875" customWidth="1"/>
+    <col min="14094" max="14096" width="11.42578125" customWidth="1"/>
+    <col min="14097" max="14105" width="8.85546875" customWidth="1"/>
+    <col min="14106" max="14120" width="11.42578125" customWidth="1"/>
+    <col min="14121" max="14121" width="8.85546875" customWidth="1"/>
+    <col min="14122" max="14122" width="11.42578125" customWidth="1"/>
+    <col min="14123" max="14124" width="8.85546875" customWidth="1"/>
+    <col min="14125" max="14129" width="11.42578125" customWidth="1"/>
+    <col min="14130" max="14130" width="8.85546875" customWidth="1"/>
+    <col min="14131" max="14133" width="11.42578125" customWidth="1"/>
+    <col min="14134" max="14134" width="8.85546875" customWidth="1"/>
+    <col min="14135" max="14139" width="11.42578125" customWidth="1"/>
+    <col min="14140" max="14144" width="8.85546875" customWidth="1"/>
+    <col min="14145" max="14337" width="11.42578125" customWidth="1"/>
+    <col min="14338" max="14339" width="8.85546875" customWidth="1"/>
+    <col min="14340" max="14340" width="11.42578125" customWidth="1"/>
+    <col min="14341" max="14344" width="8.85546875" customWidth="1"/>
+    <col min="14345" max="14348" width="11.42578125" customWidth="1"/>
+    <col min="14349" max="14349" width="8.85546875" customWidth="1"/>
+    <col min="14350" max="14352" width="11.42578125" customWidth="1"/>
+    <col min="14353" max="14361" width="8.85546875" customWidth="1"/>
+    <col min="14362" max="14376" width="11.42578125" customWidth="1"/>
+    <col min="14377" max="14377" width="8.85546875" customWidth="1"/>
+    <col min="14378" max="14378" width="11.42578125" customWidth="1"/>
+    <col min="14379" max="14380" width="8.85546875" customWidth="1"/>
+    <col min="14381" max="14385" width="11.42578125" customWidth="1"/>
+    <col min="14386" max="14386" width="8.85546875" customWidth="1"/>
+    <col min="14387" max="14389" width="11.42578125" customWidth="1"/>
+    <col min="14390" max="14390" width="8.85546875" customWidth="1"/>
+    <col min="14391" max="14395" width="11.42578125" customWidth="1"/>
+    <col min="14396" max="14400" width="8.85546875" customWidth="1"/>
+    <col min="14401" max="14593" width="11.42578125" customWidth="1"/>
+    <col min="14594" max="14595" width="8.85546875" customWidth="1"/>
+    <col min="14596" max="14596" width="11.42578125" customWidth="1"/>
+    <col min="14597" max="14600" width="8.85546875" customWidth="1"/>
+    <col min="14601" max="14604" width="11.42578125" customWidth="1"/>
+    <col min="14605" max="14605" width="8.85546875" customWidth="1"/>
+    <col min="14606" max="14608" width="11.42578125" customWidth="1"/>
+    <col min="14609" max="14617" width="8.85546875" customWidth="1"/>
+    <col min="14618" max="14632" width="11.42578125" customWidth="1"/>
+    <col min="14633" max="14633" width="8.85546875" customWidth="1"/>
+    <col min="14634" max="14634" width="11.42578125" customWidth="1"/>
+    <col min="14635" max="14636" width="8.85546875" customWidth="1"/>
+    <col min="14637" max="14641" width="11.42578125" customWidth="1"/>
+    <col min="14642" max="14642" width="8.85546875" customWidth="1"/>
+    <col min="14643" max="14645" width="11.42578125" customWidth="1"/>
+    <col min="14646" max="14646" width="8.85546875" customWidth="1"/>
+    <col min="14647" max="14651" width="11.42578125" customWidth="1"/>
+    <col min="14652" max="14656" width="8.85546875" customWidth="1"/>
+    <col min="14657" max="14849" width="11.42578125" customWidth="1"/>
+    <col min="14850" max="14851" width="8.85546875" customWidth="1"/>
+    <col min="14852" max="14852" width="11.42578125" customWidth="1"/>
+    <col min="14853" max="14856" width="8.85546875" customWidth="1"/>
+    <col min="14857" max="14860" width="11.42578125" customWidth="1"/>
+    <col min="14861" max="14861" width="8.85546875" customWidth="1"/>
+    <col min="14862" max="14864" width="11.42578125" customWidth="1"/>
+    <col min="14865" max="14873" width="8.85546875" customWidth="1"/>
+    <col min="14874" max="14888" width="11.42578125" customWidth="1"/>
+    <col min="14889" max="14889" width="8.85546875" customWidth="1"/>
+    <col min="14890" max="14890" width="11.42578125" customWidth="1"/>
+    <col min="14891" max="14892" width="8.85546875" customWidth="1"/>
+    <col min="14893" max="14897" width="11.42578125" customWidth="1"/>
+    <col min="14898" max="14898" width="8.85546875" customWidth="1"/>
+    <col min="14899" max="14901" width="11.42578125" customWidth="1"/>
+    <col min="14902" max="14902" width="8.85546875" customWidth="1"/>
+    <col min="14903" max="14907" width="11.42578125" customWidth="1"/>
+    <col min="14908" max="14912" width="8.85546875" customWidth="1"/>
+    <col min="14913" max="15105" width="11.42578125" customWidth="1"/>
+    <col min="15106" max="15107" width="8.85546875" customWidth="1"/>
+    <col min="15108" max="15108" width="11.42578125" customWidth="1"/>
+    <col min="15109" max="15112" width="8.85546875" customWidth="1"/>
+    <col min="15113" max="15116" width="11.42578125" customWidth="1"/>
+    <col min="15117" max="15117" width="8.85546875" customWidth="1"/>
+    <col min="15118" max="15120" width="11.42578125" customWidth="1"/>
+    <col min="15121" max="15129" width="8.85546875" customWidth="1"/>
+    <col min="15130" max="15144" width="11.42578125" customWidth="1"/>
+    <col min="15145" max="15145" width="8.85546875" customWidth="1"/>
+    <col min="15146" max="15146" width="11.42578125" customWidth="1"/>
+    <col min="15147" max="15148" width="8.85546875" customWidth="1"/>
+    <col min="15149" max="15153" width="11.42578125" customWidth="1"/>
+    <col min="15154" max="15154" width="8.85546875" customWidth="1"/>
+    <col min="15155" max="15157" width="11.42578125" customWidth="1"/>
+    <col min="15158" max="15158" width="8.85546875" customWidth="1"/>
+    <col min="15159" max="15163" width="11.42578125" customWidth="1"/>
+    <col min="15164" max="15168" width="8.85546875" customWidth="1"/>
+    <col min="15169" max="15361" width="11.42578125" customWidth="1"/>
+    <col min="15362" max="15363" width="8.85546875" customWidth="1"/>
+    <col min="15364" max="15364" width="11.42578125" customWidth="1"/>
+    <col min="15365" max="15368" width="8.85546875" customWidth="1"/>
+    <col min="15369" max="15372" width="11.42578125" customWidth="1"/>
+    <col min="15373" max="15373" width="8.85546875" customWidth="1"/>
+    <col min="15374" max="15376" width="11.42578125" customWidth="1"/>
+    <col min="15377" max="15385" width="8.85546875" customWidth="1"/>
+    <col min="15386" max="15400" width="11.42578125" customWidth="1"/>
+    <col min="15401" max="15401" width="8.85546875" customWidth="1"/>
+    <col min="15402" max="15402" width="11.42578125" customWidth="1"/>
+    <col min="15403" max="15404" width="8.85546875" customWidth="1"/>
+    <col min="15405" max="15409" width="11.42578125" customWidth="1"/>
+    <col min="15410" max="15410" width="8.85546875" customWidth="1"/>
+    <col min="15411" max="15413" width="11.42578125" customWidth="1"/>
+    <col min="15414" max="15414" width="8.85546875" customWidth="1"/>
+    <col min="15415" max="15419" width="11.42578125" customWidth="1"/>
+    <col min="15420" max="15424" width="8.85546875" customWidth="1"/>
+    <col min="15425" max="15617" width="11.42578125" customWidth="1"/>
+    <col min="15618" max="15619" width="8.85546875" customWidth="1"/>
+    <col min="15620" max="15620" width="11.42578125" customWidth="1"/>
+    <col min="15621" max="15624" width="8.85546875" customWidth="1"/>
+    <col min="15625" max="15628" width="11.42578125" customWidth="1"/>
+    <col min="15629" max="15629" width="8.85546875" customWidth="1"/>
+    <col min="15630" max="15632" width="11.42578125" customWidth="1"/>
+    <col min="15633" max="15641" width="8.85546875" customWidth="1"/>
+    <col min="15642" max="15656" width="11.42578125" customWidth="1"/>
+    <col min="15657" max="15657" width="8.85546875" customWidth="1"/>
+    <col min="15658" max="15658" width="11.42578125" customWidth="1"/>
+    <col min="15659" max="15660" width="8.85546875" customWidth="1"/>
+    <col min="15661" max="15665" width="11.42578125" customWidth="1"/>
+    <col min="15666" max="15666" width="8.85546875" customWidth="1"/>
+    <col min="15667" max="15669" width="11.42578125" customWidth="1"/>
+    <col min="15670" max="15670" width="8.85546875" customWidth="1"/>
+    <col min="15671" max="15675" width="11.42578125" customWidth="1"/>
+    <col min="15676" max="15680" width="8.85546875" customWidth="1"/>
+    <col min="15681" max="15873" width="11.42578125" customWidth="1"/>
+    <col min="15874" max="15875" width="8.85546875" customWidth="1"/>
+    <col min="15876" max="15876" width="11.42578125" customWidth="1"/>
+    <col min="15877" max="15880" width="8.85546875" customWidth="1"/>
+    <col min="15881" max="15884" width="11.42578125" customWidth="1"/>
+    <col min="15885" max="15885" width="8.85546875" customWidth="1"/>
+    <col min="15886" max="15888" width="11.42578125" customWidth="1"/>
+    <col min="15889" max="15897" width="8.85546875" customWidth="1"/>
+    <col min="15898" max="15912" width="11.42578125" customWidth="1"/>
+    <col min="15913" max="15913" width="8.85546875" customWidth="1"/>
+    <col min="15914" max="15914" width="11.42578125" customWidth="1"/>
+    <col min="15915" max="15916" width="8.85546875" customWidth="1"/>
+    <col min="15917" max="15921" width="11.42578125" customWidth="1"/>
+    <col min="15922" max="15922" width="8.85546875" customWidth="1"/>
+    <col min="15923" max="15925" width="11.42578125" customWidth="1"/>
+    <col min="15926" max="15926" width="8.85546875" customWidth="1"/>
+    <col min="15927" max="15931" width="11.42578125" customWidth="1"/>
+    <col min="15932" max="15936" width="8.85546875" customWidth="1"/>
+    <col min="15937" max="16129" width="11.42578125" customWidth="1"/>
+    <col min="16130" max="16131" width="8.85546875" customWidth="1"/>
+    <col min="16132" max="16132" width="11.42578125" customWidth="1"/>
+    <col min="16133" max="16136" width="8.85546875" customWidth="1"/>
+    <col min="16137" max="16140" width="11.42578125" customWidth="1"/>
+    <col min="16141" max="16141" width="8.85546875" customWidth="1"/>
+    <col min="16142" max="16144" width="11.42578125" customWidth="1"/>
+    <col min="16145" max="16153" width="8.85546875" customWidth="1"/>
+    <col min="16154" max="16168" width="11.42578125" customWidth="1"/>
+    <col min="16169" max="16169" width="8.85546875" customWidth="1"/>
+    <col min="16170" max="16170" width="11.42578125" customWidth="1"/>
+    <col min="16171" max="16172" width="8.85546875" customWidth="1"/>
+    <col min="16173" max="16177" width="11.42578125" customWidth="1"/>
+    <col min="16178" max="16178" width="8.85546875" customWidth="1"/>
+    <col min="16179" max="16181" width="11.42578125" customWidth="1"/>
+    <col min="16182" max="16182" width="8.85546875" customWidth="1"/>
+    <col min="16183" max="16187" width="11.42578125" customWidth="1"/>
+    <col min="16188" max="16192" width="8.85546875" customWidth="1"/>
+    <col min="16193" max="16384" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>85200</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="1">
+        <v>88738</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>85200</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>20895</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>88</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="1">
+        <v>116246</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>24701</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>39</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="1">
+        <v>116273</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>25763</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>25.15</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>72100</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M5" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="1">
+        <v>116029</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
+        <v>72000</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>25836</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>75014</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1">
+        <v>116050</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>75012</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>24973</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" s="1">
+        <v>85500</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M7" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="1">
+        <v>116183</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X7" s="1">
+        <v>85700</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>25858</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>53</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>85500</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M8" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="1">
+        <v>116185</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1">
+        <v>85500</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>25859</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>59</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" s="1">
+        <v>97833</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
+        <v>75017</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>22596</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>15.37</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="1">
+        <v>75008</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="1">
+        <v>108617</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="X10" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>704</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>18.07</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>93110</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M11" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="1">
+        <v>116248</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1">
+        <v>77500</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>25869</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>45.37</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="1">
+        <v>116253</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>25870</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>31</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>75008</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="1">
+        <v>116254</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
+        <v>75006</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>25871</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>75008</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="1">
+        <v>116275</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1">
+        <v>75015</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>25877</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>40.03</v>
+      </c>
+      <c r="BL14" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G15" s="1">
+        <v>85100</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" s="1">
+        <v>116278</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="X15" s="1">
+        <v>85100</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>25878</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>65.47</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="1">
+        <v>95606</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1">
+        <v>49100</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>2330</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>53000</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="M17" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S17" s="1">
+        <v>116281</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1">
+        <v>53200</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>25879</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>76</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G18" s="1">
+        <v>33700</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S18" s="1">
+        <v>113920</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="X18" s="1">
+        <v>33000</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>23180</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>51</v>
+      </c>
+      <c r="BL18" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S19" s="1">
+        <v>116283</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1">
+        <v>49100</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>21111</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>69</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>44470</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" s="1">
+        <v>116285</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1">
+        <v>44470</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>25880</v>
+      </c>
+      <c r="BH20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK20" s="1">
+        <v>82</v>
+      </c>
+      <c r="BL20" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>44470</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="1">
+        <v>108049</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1">
+        <v>44470</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>24329</v>
+      </c>
+      <c r="BH21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK21" s="1">
+        <v>14</v>
+      </c>
+      <c r="BL21" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G22" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22" s="1">
+        <v>106262</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="X22" s="1">
+        <v>49100</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>23874</v>
+      </c>
+      <c r="BH22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK22" s="1">
+        <v>12.22</v>
+      </c>
+      <c r="BL22" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="1">
+        <v>29000</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="1">
+        <v>109458</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="X23" s="1">
+        <v>29000</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AX23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>24752</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK23" s="1">
+        <v>55</v>
+      </c>
+      <c r="BL23" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="1">
+        <v>105606</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1">
+        <v>49100</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AX24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>24073</v>
+      </c>
+      <c r="BH24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK24" s="1">
+        <v>15.94</v>
+      </c>
+      <c r="BL24" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S25" s="1">
+        <v>116292</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1">
+        <v>49100</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AX25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>24073</v>
+      </c>
+      <c r="BH25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK25" s="1">
+        <v>15.94</v>
+      </c>
+      <c r="BL25" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>29000</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="2">
+        <v>44344</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="1">
+        <v>116300</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1">
+        <v>29000</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>25881</v>
+      </c>
+      <c r="BH26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK26" s="1">
+        <v>53</v>
+      </c>
+      <c r="BL26" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E242FB-4E60-4A9F-998B-AE81F5CD0123}">
+  <dimension ref="B1:BL11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="40" width="11.42578125" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" customWidth="1"/>
+    <col min="43" max="44" width="8.85546875" customWidth="1"/>
+    <col min="45" max="49" width="11.42578125" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" customWidth="1"/>
+    <col min="51" max="53" width="11.42578125" customWidth="1"/>
+    <col min="54" max="54" width="8.85546875" customWidth="1"/>
+    <col min="55" max="59" width="11.42578125" customWidth="1"/>
+    <col min="60" max="64" width="8.85546875" customWidth="1"/>
+    <col min="65" max="257" width="11.42578125" customWidth="1"/>
+    <col min="258" max="259" width="8.85546875" customWidth="1"/>
+    <col min="260" max="260" width="11.42578125" customWidth="1"/>
+    <col min="261" max="264" width="8.85546875" customWidth="1"/>
+    <col min="265" max="268" width="11.42578125" customWidth="1"/>
+    <col min="269" max="269" width="8.85546875" customWidth="1"/>
+    <col min="270" max="272" width="11.42578125" customWidth="1"/>
+    <col min="273" max="281" width="8.85546875" customWidth="1"/>
+    <col min="282" max="296" width="11.42578125" customWidth="1"/>
+    <col min="297" max="297" width="8.85546875" customWidth="1"/>
+    <col min="298" max="298" width="11.42578125" customWidth="1"/>
+    <col min="299" max="300" width="8.85546875" customWidth="1"/>
+    <col min="301" max="305" width="11.42578125" customWidth="1"/>
+    <col min="306" max="306" width="8.85546875" customWidth="1"/>
+    <col min="307" max="309" width="11.42578125" customWidth="1"/>
+    <col min="310" max="310" width="8.85546875" customWidth="1"/>
+    <col min="311" max="315" width="11.42578125" customWidth="1"/>
+    <col min="316" max="320" width="8.85546875" customWidth="1"/>
+    <col min="321" max="513" width="11.42578125" customWidth="1"/>
+    <col min="514" max="515" width="8.85546875" customWidth="1"/>
+    <col min="516" max="516" width="11.42578125" customWidth="1"/>
+    <col min="517" max="520" width="8.85546875" customWidth="1"/>
+    <col min="521" max="524" width="11.42578125" customWidth="1"/>
+    <col min="525" max="525" width="8.85546875" customWidth="1"/>
+    <col min="526" max="528" width="11.42578125" customWidth="1"/>
+    <col min="529" max="537" width="8.85546875" customWidth="1"/>
+    <col min="538" max="552" width="11.42578125" customWidth="1"/>
+    <col min="553" max="553" width="8.85546875" customWidth="1"/>
+    <col min="554" max="554" width="11.42578125" customWidth="1"/>
+    <col min="555" max="556" width="8.85546875" customWidth="1"/>
+    <col min="557" max="561" width="11.42578125" customWidth="1"/>
+    <col min="562" max="562" width="8.85546875" customWidth="1"/>
+    <col min="563" max="565" width="11.42578125" customWidth="1"/>
+    <col min="566" max="566" width="8.85546875" customWidth="1"/>
+    <col min="567" max="571" width="11.42578125" customWidth="1"/>
+    <col min="572" max="576" width="8.85546875" customWidth="1"/>
+    <col min="577" max="769" width="11.42578125" customWidth="1"/>
+    <col min="770" max="771" width="8.85546875" customWidth="1"/>
+    <col min="772" max="772" width="11.42578125" customWidth="1"/>
+    <col min="773" max="776" width="8.85546875" customWidth="1"/>
+    <col min="777" max="780" width="11.42578125" customWidth="1"/>
+    <col min="781" max="781" width="8.85546875" customWidth="1"/>
+    <col min="782" max="784" width="11.42578125" customWidth="1"/>
+    <col min="785" max="793" width="8.85546875" customWidth="1"/>
+    <col min="794" max="808" width="11.42578125" customWidth="1"/>
+    <col min="809" max="809" width="8.85546875" customWidth="1"/>
+    <col min="810" max="810" width="11.42578125" customWidth="1"/>
+    <col min="811" max="812" width="8.85546875" customWidth="1"/>
+    <col min="813" max="817" width="11.42578125" customWidth="1"/>
+    <col min="818" max="818" width="8.85546875" customWidth="1"/>
+    <col min="819" max="821" width="11.42578125" customWidth="1"/>
+    <col min="822" max="822" width="8.85546875" customWidth="1"/>
+    <col min="823" max="827" width="11.42578125" customWidth="1"/>
+    <col min="828" max="832" width="8.85546875" customWidth="1"/>
+    <col min="833" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="1026" max="1027" width="8.85546875" customWidth="1"/>
+    <col min="1028" max="1028" width="11.42578125" customWidth="1"/>
+    <col min="1029" max="1032" width="8.85546875" customWidth="1"/>
+    <col min="1033" max="1036" width="11.42578125" customWidth="1"/>
+    <col min="1037" max="1037" width="8.85546875" customWidth="1"/>
+    <col min="1038" max="1040" width="11.42578125" customWidth="1"/>
+    <col min="1041" max="1049" width="8.85546875" customWidth="1"/>
+    <col min="1050" max="1064" width="11.42578125" customWidth="1"/>
+    <col min="1065" max="1065" width="8.85546875" customWidth="1"/>
+    <col min="1066" max="1066" width="11.42578125" customWidth="1"/>
+    <col min="1067" max="1068" width="8.85546875" customWidth="1"/>
+    <col min="1069" max="1073" width="11.42578125" customWidth="1"/>
+    <col min="1074" max="1074" width="8.85546875" customWidth="1"/>
+    <col min="1075" max="1077" width="11.42578125" customWidth="1"/>
+    <col min="1078" max="1078" width="8.85546875" customWidth="1"/>
+    <col min="1079" max="1083" width="11.42578125" customWidth="1"/>
+    <col min="1084" max="1088" width="8.85546875" customWidth="1"/>
+    <col min="1089" max="1281" width="11.42578125" customWidth="1"/>
+    <col min="1282" max="1283" width="8.85546875" customWidth="1"/>
+    <col min="1284" max="1284" width="11.42578125" customWidth="1"/>
+    <col min="1285" max="1288" width="8.85546875" customWidth="1"/>
+    <col min="1289" max="1292" width="11.42578125" customWidth="1"/>
+    <col min="1293" max="1293" width="8.85546875" customWidth="1"/>
+    <col min="1294" max="1296" width="11.42578125" customWidth="1"/>
+    <col min="1297" max="1305" width="8.85546875" customWidth="1"/>
+    <col min="1306" max="1320" width="11.42578125" customWidth="1"/>
+    <col min="1321" max="1321" width="8.85546875" customWidth="1"/>
+    <col min="1322" max="1322" width="11.42578125" customWidth="1"/>
+    <col min="1323" max="1324" width="8.85546875" customWidth="1"/>
+    <col min="1325" max="1329" width="11.42578125" customWidth="1"/>
+    <col min="1330" max="1330" width="8.85546875" customWidth="1"/>
+    <col min="1331" max="1333" width="11.42578125" customWidth="1"/>
+    <col min="1334" max="1334" width="8.85546875" customWidth="1"/>
+    <col min="1335" max="1339" width="11.42578125" customWidth="1"/>
+    <col min="1340" max="1344" width="8.85546875" customWidth="1"/>
+    <col min="1345" max="1537" width="11.42578125" customWidth="1"/>
+    <col min="1538" max="1539" width="8.85546875" customWidth="1"/>
+    <col min="1540" max="1540" width="11.42578125" customWidth="1"/>
+    <col min="1541" max="1544" width="8.85546875" customWidth="1"/>
+    <col min="1545" max="1548" width="11.42578125" customWidth="1"/>
+    <col min="1549" max="1549" width="8.85546875" customWidth="1"/>
+    <col min="1550" max="1552" width="11.42578125" customWidth="1"/>
+    <col min="1553" max="1561" width="8.85546875" customWidth="1"/>
+    <col min="1562" max="1576" width="11.42578125" customWidth="1"/>
+    <col min="1577" max="1577" width="8.85546875" customWidth="1"/>
+    <col min="1578" max="1578" width="11.42578125" customWidth="1"/>
+    <col min="1579" max="1580" width="8.85546875" customWidth="1"/>
+    <col min="1581" max="1585" width="11.42578125" customWidth="1"/>
+    <col min="1586" max="1586" width="8.85546875" customWidth="1"/>
+    <col min="1587" max="1589" width="11.42578125" customWidth="1"/>
+    <col min="1590" max="1590" width="8.85546875" customWidth="1"/>
+    <col min="1591" max="1595" width="11.42578125" customWidth="1"/>
+    <col min="1596" max="1600" width="8.85546875" customWidth="1"/>
+    <col min="1601" max="1793" width="11.42578125" customWidth="1"/>
+    <col min="1794" max="1795" width="8.85546875" customWidth="1"/>
+    <col min="1796" max="1796" width="11.42578125" customWidth="1"/>
+    <col min="1797" max="1800" width="8.85546875" customWidth="1"/>
+    <col min="1801" max="1804" width="11.42578125" customWidth="1"/>
+    <col min="1805" max="1805" width="8.85546875" customWidth="1"/>
+    <col min="1806" max="1808" width="11.42578125" customWidth="1"/>
+    <col min="1809" max="1817" width="8.85546875" customWidth="1"/>
+    <col min="1818" max="1832" width="11.42578125" customWidth="1"/>
+    <col min="1833" max="1833" width="8.85546875" customWidth="1"/>
+    <col min="1834" max="1834" width="11.42578125" customWidth="1"/>
+    <col min="1835" max="1836" width="8.85546875" customWidth="1"/>
+    <col min="1837" max="1841" width="11.42578125" customWidth="1"/>
+    <col min="1842" max="1842" width="8.85546875" customWidth="1"/>
+    <col min="1843" max="1845" width="11.42578125" customWidth="1"/>
+    <col min="1846" max="1846" width="8.85546875" customWidth="1"/>
+    <col min="1847" max="1851" width="11.42578125" customWidth="1"/>
+    <col min="1852" max="1856" width="8.85546875" customWidth="1"/>
+    <col min="1857" max="2049" width="11.42578125" customWidth="1"/>
+    <col min="2050" max="2051" width="8.85546875" customWidth="1"/>
+    <col min="2052" max="2052" width="11.42578125" customWidth="1"/>
+    <col min="2053" max="2056" width="8.85546875" customWidth="1"/>
+    <col min="2057" max="2060" width="11.42578125" customWidth="1"/>
+    <col min="2061" max="2061" width="8.85546875" customWidth="1"/>
+    <col min="2062" max="2064" width="11.42578125" customWidth="1"/>
+    <col min="2065" max="2073" width="8.85546875" customWidth="1"/>
+    <col min="2074" max="2088" width="11.42578125" customWidth="1"/>
+    <col min="2089" max="2089" width="8.85546875" customWidth="1"/>
+    <col min="2090" max="2090" width="11.42578125" customWidth="1"/>
+    <col min="2091" max="2092" width="8.85546875" customWidth="1"/>
+    <col min="2093" max="2097" width="11.42578125" customWidth="1"/>
+    <col min="2098" max="2098" width="8.85546875" customWidth="1"/>
+    <col min="2099" max="2101" width="11.42578125" customWidth="1"/>
+    <col min="2102" max="2102" width="8.85546875" customWidth="1"/>
+    <col min="2103" max="2107" width="11.42578125" customWidth="1"/>
+    <col min="2108" max="2112" width="8.85546875" customWidth="1"/>
+    <col min="2113" max="2305" width="11.42578125" customWidth="1"/>
+    <col min="2306" max="2307" width="8.85546875" customWidth="1"/>
+    <col min="2308" max="2308" width="11.42578125" customWidth="1"/>
+    <col min="2309" max="2312" width="8.85546875" customWidth="1"/>
+    <col min="2313" max="2316" width="11.42578125" customWidth="1"/>
+    <col min="2317" max="2317" width="8.85546875" customWidth="1"/>
+    <col min="2318" max="2320" width="11.42578125" customWidth="1"/>
+    <col min="2321" max="2329" width="8.85546875" customWidth="1"/>
+    <col min="2330" max="2344" width="11.42578125" customWidth="1"/>
+    <col min="2345" max="2345" width="8.85546875" customWidth="1"/>
+    <col min="2346" max="2346" width="11.42578125" customWidth="1"/>
+    <col min="2347" max="2348" width="8.85546875" customWidth="1"/>
+    <col min="2349" max="2353" width="11.42578125" customWidth="1"/>
+    <col min="2354" max="2354" width="8.85546875" customWidth="1"/>
+    <col min="2355" max="2357" width="11.42578125" customWidth="1"/>
+    <col min="2358" max="2358" width="8.85546875" customWidth="1"/>
+    <col min="2359" max="2363" width="11.42578125" customWidth="1"/>
+    <col min="2364" max="2368" width="8.85546875" customWidth="1"/>
+    <col min="2369" max="2561" width="11.42578125" customWidth="1"/>
+    <col min="2562" max="2563" width="8.85546875" customWidth="1"/>
+    <col min="2564" max="2564" width="11.42578125" customWidth="1"/>
+    <col min="2565" max="2568" width="8.85546875" customWidth="1"/>
+    <col min="2569" max="2572" width="11.42578125" customWidth="1"/>
+    <col min="2573" max="2573" width="8.85546875" customWidth="1"/>
+    <col min="2574" max="2576" width="11.42578125" customWidth="1"/>
+    <col min="2577" max="2585" width="8.85546875" customWidth="1"/>
+    <col min="2586" max="2600" width="11.42578125" customWidth="1"/>
+    <col min="2601" max="2601" width="8.85546875" customWidth="1"/>
+    <col min="2602" max="2602" width="11.42578125" customWidth="1"/>
+    <col min="2603" max="2604" width="8.85546875" customWidth="1"/>
+    <col min="2605" max="2609" width="11.42578125" customWidth="1"/>
+    <col min="2610" max="2610" width="8.85546875" customWidth="1"/>
+    <col min="2611" max="2613" width="11.42578125" customWidth="1"/>
+    <col min="2614" max="2614" width="8.85546875" customWidth="1"/>
+    <col min="2615" max="2619" width="11.42578125" customWidth="1"/>
+    <col min="2620" max="2624" width="8.85546875" customWidth="1"/>
+    <col min="2625" max="2817" width="11.42578125" customWidth="1"/>
+    <col min="2818" max="2819" width="8.85546875" customWidth="1"/>
+    <col min="2820" max="2820" width="11.42578125" customWidth="1"/>
+    <col min="2821" max="2824" width="8.85546875" customWidth="1"/>
+    <col min="2825" max="2828" width="11.42578125" customWidth="1"/>
+    <col min="2829" max="2829" width="8.85546875" customWidth="1"/>
+    <col min="2830" max="2832" width="11.42578125" customWidth="1"/>
+    <col min="2833" max="2841" width="8.85546875" customWidth="1"/>
+    <col min="2842" max="2856" width="11.42578125" customWidth="1"/>
+    <col min="2857" max="2857" width="8.85546875" customWidth="1"/>
+    <col min="2858" max="2858" width="11.42578125" customWidth="1"/>
+    <col min="2859" max="2860" width="8.85546875" customWidth="1"/>
+    <col min="2861" max="2865" width="11.42578125" customWidth="1"/>
+    <col min="2866" max="2866" width="8.85546875" customWidth="1"/>
+    <col min="2867" max="2869" width="11.42578125" customWidth="1"/>
+    <col min="2870" max="2870" width="8.85546875" customWidth="1"/>
+    <col min="2871" max="2875" width="11.42578125" customWidth="1"/>
+    <col min="2876" max="2880" width="8.85546875" customWidth="1"/>
+    <col min="2881" max="3073" width="11.42578125" customWidth="1"/>
+    <col min="3074" max="3075" width="8.85546875" customWidth="1"/>
+    <col min="3076" max="3076" width="11.42578125" customWidth="1"/>
+    <col min="3077" max="3080" width="8.85546875" customWidth="1"/>
+    <col min="3081" max="3084" width="11.42578125" customWidth="1"/>
+    <col min="3085" max="3085" width="8.85546875" customWidth="1"/>
+    <col min="3086" max="3088" width="11.42578125" customWidth="1"/>
+    <col min="3089" max="3097" width="8.85546875" customWidth="1"/>
+    <col min="3098" max="3112" width="11.42578125" customWidth="1"/>
+    <col min="3113" max="3113" width="8.85546875" customWidth="1"/>
+    <col min="3114" max="3114" width="11.42578125" customWidth="1"/>
+    <col min="3115" max="3116" width="8.85546875" customWidth="1"/>
+    <col min="3117" max="3121" width="11.42578125" customWidth="1"/>
+    <col min="3122" max="3122" width="8.85546875" customWidth="1"/>
+    <col min="3123" max="3125" width="11.42578125" customWidth="1"/>
+    <col min="3126" max="3126" width="8.85546875" customWidth="1"/>
+    <col min="3127" max="3131" width="11.42578125" customWidth="1"/>
+    <col min="3132" max="3136" width="8.85546875" customWidth="1"/>
+    <col min="3137" max="3329" width="11.42578125" customWidth="1"/>
+    <col min="3330" max="3331" width="8.85546875" customWidth="1"/>
+    <col min="3332" max="3332" width="11.42578125" customWidth="1"/>
+    <col min="3333" max="3336" width="8.85546875" customWidth="1"/>
+    <col min="3337" max="3340" width="11.42578125" customWidth="1"/>
+    <col min="3341" max="3341" width="8.85546875" customWidth="1"/>
+    <col min="3342" max="3344" width="11.42578125" customWidth="1"/>
+    <col min="3345" max="3353" width="8.85546875" customWidth="1"/>
+    <col min="3354" max="3368" width="11.42578125" customWidth="1"/>
+    <col min="3369" max="3369" width="8.85546875" customWidth="1"/>
+    <col min="3370" max="3370" width="11.42578125" customWidth="1"/>
+    <col min="3371" max="3372" width="8.85546875" customWidth="1"/>
+    <col min="3373" max="3377" width="11.42578125" customWidth="1"/>
+    <col min="3378" max="3378" width="8.85546875" customWidth="1"/>
+    <col min="3379" max="3381" width="11.42578125" customWidth="1"/>
+    <col min="3382" max="3382" width="8.85546875" customWidth="1"/>
+    <col min="3383" max="3387" width="11.42578125" customWidth="1"/>
+    <col min="3388" max="3392" width="8.85546875" customWidth="1"/>
+    <col min="3393" max="3585" width="11.42578125" customWidth="1"/>
+    <col min="3586" max="3587" width="8.85546875" customWidth="1"/>
+    <col min="3588" max="3588" width="11.42578125" customWidth="1"/>
+    <col min="3589" max="3592" width="8.85546875" customWidth="1"/>
+    <col min="3593" max="3596" width="11.42578125" customWidth="1"/>
+    <col min="3597" max="3597" width="8.85546875" customWidth="1"/>
+    <col min="3598" max="3600" width="11.42578125" customWidth="1"/>
+    <col min="3601" max="3609" width="8.85546875" customWidth="1"/>
+    <col min="3610" max="3624" width="11.42578125" customWidth="1"/>
+    <col min="3625" max="3625" width="8.85546875" customWidth="1"/>
+    <col min="3626" max="3626" width="11.42578125" customWidth="1"/>
+    <col min="3627" max="3628" width="8.85546875" customWidth="1"/>
+    <col min="3629" max="3633" width="11.42578125" customWidth="1"/>
+    <col min="3634" max="3634" width="8.85546875" customWidth="1"/>
+    <col min="3635" max="3637" width="11.42578125" customWidth="1"/>
+    <col min="3638" max="3638" width="8.85546875" customWidth="1"/>
+    <col min="3639" max="3643" width="11.42578125" customWidth="1"/>
+    <col min="3644" max="3648" width="8.85546875" customWidth="1"/>
+    <col min="3649" max="3841" width="11.42578125" customWidth="1"/>
+    <col min="3842" max="3843" width="8.85546875" customWidth="1"/>
+    <col min="3844" max="3844" width="11.42578125" customWidth="1"/>
+    <col min="3845" max="3848" width="8.85546875" customWidth="1"/>
+    <col min="3849" max="3852" width="11.42578125" customWidth="1"/>
+    <col min="3853" max="3853" width="8.85546875" customWidth="1"/>
+    <col min="3854" max="3856" width="11.42578125" customWidth="1"/>
+    <col min="3857" max="3865" width="8.85546875" customWidth="1"/>
+    <col min="3866" max="3880" width="11.42578125" customWidth="1"/>
+    <col min="3881" max="3881" width="8.85546875" customWidth="1"/>
+    <col min="3882" max="3882" width="11.42578125" customWidth="1"/>
+    <col min="3883" max="3884" width="8.85546875" customWidth="1"/>
+    <col min="3885" max="3889" width="11.42578125" customWidth="1"/>
+    <col min="3890" max="3890" width="8.85546875" customWidth="1"/>
+    <col min="3891" max="3893" width="11.42578125" customWidth="1"/>
+    <col min="3894" max="3894" width="8.85546875" customWidth="1"/>
+    <col min="3895" max="3899" width="11.42578125" customWidth="1"/>
+    <col min="3900" max="3904" width="8.85546875" customWidth="1"/>
+    <col min="3905" max="4097" width="11.42578125" customWidth="1"/>
+    <col min="4098" max="4099" width="8.85546875" customWidth="1"/>
+    <col min="4100" max="4100" width="11.42578125" customWidth="1"/>
+    <col min="4101" max="4104" width="8.85546875" customWidth="1"/>
+    <col min="4105" max="4108" width="11.42578125" customWidth="1"/>
+    <col min="4109" max="4109" width="8.85546875" customWidth="1"/>
+    <col min="4110" max="4112" width="11.42578125" customWidth="1"/>
+    <col min="4113" max="4121" width="8.85546875" customWidth="1"/>
+    <col min="4122" max="4136" width="11.42578125" customWidth="1"/>
+    <col min="4137" max="4137" width="8.85546875" customWidth="1"/>
+    <col min="4138" max="4138" width="11.42578125" customWidth="1"/>
+    <col min="4139" max="4140" width="8.85546875" customWidth="1"/>
+    <col min="4141" max="4145" width="11.42578125" customWidth="1"/>
+    <col min="4146" max="4146" width="8.85546875" customWidth="1"/>
+    <col min="4147" max="4149" width="11.42578125" customWidth="1"/>
+    <col min="4150" max="4150" width="8.85546875" customWidth="1"/>
+    <col min="4151" max="4155" width="11.42578125" customWidth="1"/>
+    <col min="4156" max="4160" width="8.85546875" customWidth="1"/>
+    <col min="4161" max="4353" width="11.42578125" customWidth="1"/>
+    <col min="4354" max="4355" width="8.85546875" customWidth="1"/>
+    <col min="4356" max="4356" width="11.42578125" customWidth="1"/>
+    <col min="4357" max="4360" width="8.85546875" customWidth="1"/>
+    <col min="4361" max="4364" width="11.42578125" customWidth="1"/>
+    <col min="4365" max="4365" width="8.85546875" customWidth="1"/>
+    <col min="4366" max="4368" width="11.42578125" customWidth="1"/>
+    <col min="4369" max="4377" width="8.85546875" customWidth="1"/>
+    <col min="4378" max="4392" width="11.42578125" customWidth="1"/>
+    <col min="4393" max="4393" width="8.85546875" customWidth="1"/>
+    <col min="4394" max="4394" width="11.42578125" customWidth="1"/>
+    <col min="4395" max="4396" width="8.85546875" customWidth="1"/>
+    <col min="4397" max="4401" width="11.42578125" customWidth="1"/>
+    <col min="4402" max="4402" width="8.85546875" customWidth="1"/>
+    <col min="4403" max="4405" width="11.42578125" customWidth="1"/>
+    <col min="4406" max="4406" width="8.85546875" customWidth="1"/>
+    <col min="4407" max="4411" width="11.42578125" customWidth="1"/>
+    <col min="4412" max="4416" width="8.85546875" customWidth="1"/>
+    <col min="4417" max="4609" width="11.42578125" customWidth="1"/>
+    <col min="4610" max="4611" width="8.85546875" customWidth="1"/>
+    <col min="4612" max="4612" width="11.42578125" customWidth="1"/>
+    <col min="4613" max="4616" width="8.85546875" customWidth="1"/>
+    <col min="4617" max="4620" width="11.42578125" customWidth="1"/>
+    <col min="4621" max="4621" width="8.85546875" customWidth="1"/>
+    <col min="4622" max="4624" width="11.42578125" customWidth="1"/>
+    <col min="4625" max="4633" width="8.85546875" customWidth="1"/>
+    <col min="4634" max="4648" width="11.42578125" customWidth="1"/>
+    <col min="4649" max="4649" width="8.85546875" customWidth="1"/>
+    <col min="4650" max="4650" width="11.42578125" customWidth="1"/>
+    <col min="4651" max="4652" width="8.85546875" customWidth="1"/>
+    <col min="4653" max="4657" width="11.42578125" customWidth="1"/>
+    <col min="4658" max="4658" width="8.85546875" customWidth="1"/>
+    <col min="4659" max="4661" width="11.42578125" customWidth="1"/>
+    <col min="4662" max="4662" width="8.85546875" customWidth="1"/>
+    <col min="4663" max="4667" width="11.42578125" customWidth="1"/>
+    <col min="4668" max="4672" width="8.85546875" customWidth="1"/>
+    <col min="4673" max="4865" width="11.42578125" customWidth="1"/>
+    <col min="4866" max="4867" width="8.85546875" customWidth="1"/>
+    <col min="4868" max="4868" width="11.42578125" customWidth="1"/>
+    <col min="4869" max="4872" width="8.85546875" customWidth="1"/>
+    <col min="4873" max="4876" width="11.42578125" customWidth="1"/>
+    <col min="4877" max="4877" width="8.85546875" customWidth="1"/>
+    <col min="4878" max="4880" width="11.42578125" customWidth="1"/>
+    <col min="4881" max="4889" width="8.85546875" customWidth="1"/>
+    <col min="4890" max="4904" width="11.42578125" customWidth="1"/>
+    <col min="4905" max="4905" width="8.85546875" customWidth="1"/>
+    <col min="4906" max="4906" width="11.42578125" customWidth="1"/>
+    <col min="4907" max="4908" width="8.85546875" customWidth="1"/>
+    <col min="4909" max="4913" width="11.42578125" customWidth="1"/>
+    <col min="4914" max="4914" width="8.85546875" customWidth="1"/>
+    <col min="4915" max="4917" width="11.42578125" customWidth="1"/>
+    <col min="4918" max="4918" width="8.85546875" customWidth="1"/>
+    <col min="4919" max="4923" width="11.42578125" customWidth="1"/>
+    <col min="4924" max="4928" width="8.85546875" customWidth="1"/>
+    <col min="4929" max="5121" width="11.42578125" customWidth="1"/>
+    <col min="5122" max="5123" width="8.85546875" customWidth="1"/>
+    <col min="5124" max="5124" width="11.42578125" customWidth="1"/>
+    <col min="5125" max="5128" width="8.85546875" customWidth="1"/>
+    <col min="5129" max="5132" width="11.42578125" customWidth="1"/>
+    <col min="5133" max="5133" width="8.85546875" customWidth="1"/>
+    <col min="5134" max="5136" width="11.42578125" customWidth="1"/>
+    <col min="5137" max="5145" width="8.85546875" customWidth="1"/>
+    <col min="5146" max="5160" width="11.42578125" customWidth="1"/>
+    <col min="5161" max="5161" width="8.85546875" customWidth="1"/>
+    <col min="5162" max="5162" width="11.42578125" customWidth="1"/>
+    <col min="5163" max="5164" width="8.85546875" customWidth="1"/>
+    <col min="5165" max="5169" width="11.42578125" customWidth="1"/>
+    <col min="5170" max="5170" width="8.85546875" customWidth="1"/>
+    <col min="5171" max="5173" width="11.42578125" customWidth="1"/>
+    <col min="5174" max="5174" width="8.85546875" customWidth="1"/>
+    <col min="5175" max="5179" width="11.42578125" customWidth="1"/>
+    <col min="5180" max="5184" width="8.85546875" customWidth="1"/>
+    <col min="5185" max="5377" width="11.42578125" customWidth="1"/>
+    <col min="5378" max="5379" width="8.85546875" customWidth="1"/>
+    <col min="5380" max="5380" width="11.42578125" customWidth="1"/>
+    <col min="5381" max="5384" width="8.85546875" customWidth="1"/>
+    <col min="5385" max="5388" width="11.42578125" customWidth="1"/>
+    <col min="5389" max="5389" width="8.85546875" customWidth="1"/>
+    <col min="5390" max="5392" width="11.42578125" customWidth="1"/>
+    <col min="5393" max="5401" width="8.85546875" customWidth="1"/>
+    <col min="5402" max="5416" width="11.42578125" customWidth="1"/>
+    <col min="5417" max="5417" width="8.85546875" customWidth="1"/>
+    <col min="5418" max="5418" width="11.42578125" customWidth="1"/>
+    <col min="5419" max="5420" width="8.85546875" customWidth="1"/>
+    <col min="5421" max="5425" width="11.42578125" customWidth="1"/>
+    <col min="5426" max="5426" width="8.85546875" customWidth="1"/>
+    <col min="5427" max="5429" width="11.42578125" customWidth="1"/>
+    <col min="5430" max="5430" width="8.85546875" customWidth="1"/>
+    <col min="5431" max="5435" width="11.42578125" customWidth="1"/>
+    <col min="5436" max="5440" width="8.85546875" customWidth="1"/>
+    <col min="5441" max="5633" width="11.42578125" customWidth="1"/>
+    <col min="5634" max="5635" width="8.85546875" customWidth="1"/>
+    <col min="5636" max="5636" width="11.42578125" customWidth="1"/>
+    <col min="5637" max="5640" width="8.85546875" customWidth="1"/>
+    <col min="5641" max="5644" width="11.42578125" customWidth="1"/>
+    <col min="5645" max="5645" width="8.85546875" customWidth="1"/>
+    <col min="5646" max="5648" width="11.42578125" customWidth="1"/>
+    <col min="5649" max="5657" width="8.85546875" customWidth="1"/>
+    <col min="5658" max="5672" width="11.42578125" customWidth="1"/>
+    <col min="5673" max="5673" width="8.85546875" customWidth="1"/>
+    <col min="5674" max="5674" width="11.42578125" customWidth="1"/>
+    <col min="5675" max="5676" width="8.85546875" customWidth="1"/>
+    <col min="5677" max="5681" width="11.42578125" customWidth="1"/>
+    <col min="5682" max="5682" width="8.85546875" customWidth="1"/>
+    <col min="5683" max="5685" width="11.42578125" customWidth="1"/>
+    <col min="5686" max="5686" width="8.85546875" customWidth="1"/>
+    <col min="5687" max="5691" width="11.42578125" customWidth="1"/>
+    <col min="5692" max="5696" width="8.85546875" customWidth="1"/>
+    <col min="5697" max="5889" width="11.42578125" customWidth="1"/>
+    <col min="5890" max="5891" width="8.85546875" customWidth="1"/>
+    <col min="5892" max="5892" width="11.42578125" customWidth="1"/>
+    <col min="5893" max="5896" width="8.85546875" customWidth="1"/>
+    <col min="5897" max="5900" width="11.42578125" customWidth="1"/>
+    <col min="5901" max="5901" width="8.85546875" customWidth="1"/>
+    <col min="5902" max="5904" width="11.42578125" customWidth="1"/>
+    <col min="5905" max="5913" width="8.85546875" customWidth="1"/>
+    <col min="5914" max="5928" width="11.42578125" customWidth="1"/>
+    <col min="5929" max="5929" width="8.85546875" customWidth="1"/>
+    <col min="5930" max="5930" width="11.42578125" customWidth="1"/>
+    <col min="5931" max="5932" width="8.85546875" customWidth="1"/>
+    <col min="5933" max="5937" width="11.42578125" customWidth="1"/>
+    <col min="5938" max="5938" width="8.85546875" customWidth="1"/>
+    <col min="5939" max="5941" width="11.42578125" customWidth="1"/>
+    <col min="5942" max="5942" width="8.85546875" customWidth="1"/>
+    <col min="5943" max="5947" width="11.42578125" customWidth="1"/>
+    <col min="5948" max="5952" width="8.85546875" customWidth="1"/>
+    <col min="5953" max="6145" width="11.42578125" customWidth="1"/>
+    <col min="6146" max="6147" width="8.85546875" customWidth="1"/>
+    <col min="6148" max="6148" width="11.42578125" customWidth="1"/>
+    <col min="6149" max="6152" width="8.85546875" customWidth="1"/>
+    <col min="6153" max="6156" width="11.42578125" customWidth="1"/>
+    <col min="6157" max="6157" width="8.85546875" customWidth="1"/>
+    <col min="6158" max="6160" width="11.42578125" customWidth="1"/>
+    <col min="6161" max="6169" width="8.85546875" customWidth="1"/>
+    <col min="6170" max="6184" width="11.42578125" customWidth="1"/>
+    <col min="6185" max="6185" width="8.85546875" customWidth="1"/>
+    <col min="6186" max="6186" width="11.42578125" customWidth="1"/>
+    <col min="6187" max="6188" width="8.85546875" customWidth="1"/>
+    <col min="6189" max="6193" width="11.42578125" customWidth="1"/>
+    <col min="6194" max="6194" width="8.85546875" customWidth="1"/>
+    <col min="6195" max="6197" width="11.42578125" customWidth="1"/>
+    <col min="6198" max="6198" width="8.85546875" customWidth="1"/>
+    <col min="6199" max="6203" width="11.42578125" customWidth="1"/>
+    <col min="6204" max="6208" width="8.85546875" customWidth="1"/>
+    <col min="6209" max="6401" width="11.42578125" customWidth="1"/>
+    <col min="6402" max="6403" width="8.85546875" customWidth="1"/>
+    <col min="6404" max="6404" width="11.42578125" customWidth="1"/>
+    <col min="6405" max="6408" width="8.85546875" customWidth="1"/>
+    <col min="6409" max="6412" width="11.42578125" customWidth="1"/>
+    <col min="6413" max="6413" width="8.85546875" customWidth="1"/>
+    <col min="6414" max="6416" width="11.42578125" customWidth="1"/>
+    <col min="6417" max="6425" width="8.85546875" customWidth="1"/>
+    <col min="6426" max="6440" width="11.42578125" customWidth="1"/>
+    <col min="6441" max="6441" width="8.85546875" customWidth="1"/>
+    <col min="6442" max="6442" width="11.42578125" customWidth="1"/>
+    <col min="6443" max="6444" width="8.85546875" customWidth="1"/>
+    <col min="6445" max="6449" width="11.42578125" customWidth="1"/>
+    <col min="6450" max="6450" width="8.85546875" customWidth="1"/>
+    <col min="6451" max="6453" width="11.42578125" customWidth="1"/>
+    <col min="6454" max="6454" width="8.85546875" customWidth="1"/>
+    <col min="6455" max="6459" width="11.42578125" customWidth="1"/>
+    <col min="6460" max="6464" width="8.85546875" customWidth="1"/>
+    <col min="6465" max="6657" width="11.42578125" customWidth="1"/>
+    <col min="6658" max="6659" width="8.85546875" customWidth="1"/>
+    <col min="6660" max="6660" width="11.42578125" customWidth="1"/>
+    <col min="6661" max="6664" width="8.85546875" customWidth="1"/>
+    <col min="6665" max="6668" width="11.42578125" customWidth="1"/>
+    <col min="6669" max="6669" width="8.85546875" customWidth="1"/>
+    <col min="6670" max="6672" width="11.42578125" customWidth="1"/>
+    <col min="6673" max="6681" width="8.85546875" customWidth="1"/>
+    <col min="6682" max="6696" width="11.42578125" customWidth="1"/>
+    <col min="6697" max="6697" width="8.85546875" customWidth="1"/>
+    <col min="6698" max="6698" width="11.42578125" customWidth="1"/>
+    <col min="6699" max="6700" width="8.85546875" customWidth="1"/>
+    <col min="6701" max="6705" width="11.42578125" customWidth="1"/>
+    <col min="6706" max="6706" width="8.85546875" customWidth="1"/>
+    <col min="6707" max="6709" width="11.42578125" customWidth="1"/>
+    <col min="6710" max="6710" width="8.85546875" customWidth="1"/>
+    <col min="6711" max="6715" width="11.42578125" customWidth="1"/>
+    <col min="6716" max="6720" width="8.85546875" customWidth="1"/>
+    <col min="6721" max="6913" width="11.42578125" customWidth="1"/>
+    <col min="6914" max="6915" width="8.85546875" customWidth="1"/>
+    <col min="6916" max="6916" width="11.42578125" customWidth="1"/>
+    <col min="6917" max="6920" width="8.85546875" customWidth="1"/>
+    <col min="6921" max="6924" width="11.42578125" customWidth="1"/>
+    <col min="6925" max="6925" width="8.85546875" customWidth="1"/>
+    <col min="6926" max="6928" width="11.42578125" customWidth="1"/>
+    <col min="6929" max="6937" width="8.85546875" customWidth="1"/>
+    <col min="6938" max="6952" width="11.42578125" customWidth="1"/>
+    <col min="6953" max="6953" width="8.85546875" customWidth="1"/>
+    <col min="6954" max="6954" width="11.42578125" customWidth="1"/>
+    <col min="6955" max="6956" width="8.85546875" customWidth="1"/>
+    <col min="6957" max="6961" width="11.42578125" customWidth="1"/>
+    <col min="6962" max="6962" width="8.85546875" customWidth="1"/>
+    <col min="6963" max="6965" width="11.42578125" customWidth="1"/>
+    <col min="6966" max="6966" width="8.85546875" customWidth="1"/>
+    <col min="6967" max="6971" width="11.42578125" customWidth="1"/>
+    <col min="6972" max="6976" width="8.85546875" customWidth="1"/>
+    <col min="6977" max="7169" width="11.42578125" customWidth="1"/>
+    <col min="7170" max="7171" width="8.85546875" customWidth="1"/>
+    <col min="7172" max="7172" width="11.42578125" customWidth="1"/>
+    <col min="7173" max="7176" width="8.85546875" customWidth="1"/>
+    <col min="7177" max="7180" width="11.42578125" customWidth="1"/>
+    <col min="7181" max="7181" width="8.85546875" customWidth="1"/>
+    <col min="7182" max="7184" width="11.42578125" customWidth="1"/>
+    <col min="7185" max="7193" width="8.85546875" customWidth="1"/>
+    <col min="7194" max="7208" width="11.42578125" customWidth="1"/>
+    <col min="7209" max="7209" width="8.85546875" customWidth="1"/>
+    <col min="7210" max="7210" width="11.42578125" customWidth="1"/>
+    <col min="7211" max="7212" width="8.85546875" customWidth="1"/>
+    <col min="7213" max="7217" width="11.42578125" customWidth="1"/>
+    <col min="7218" max="7218" width="8.85546875" customWidth="1"/>
+    <col min="7219" max="7221" width="11.42578125" customWidth="1"/>
+    <col min="7222" max="7222" width="8.85546875" customWidth="1"/>
+    <col min="7223" max="7227" width="11.42578125" customWidth="1"/>
+    <col min="7228" max="7232" width="8.85546875" customWidth="1"/>
+    <col min="7233" max="7425" width="11.42578125" customWidth="1"/>
+    <col min="7426" max="7427" width="8.85546875" customWidth="1"/>
+    <col min="7428" max="7428" width="11.42578125" customWidth="1"/>
+    <col min="7429" max="7432" width="8.85546875" customWidth="1"/>
+    <col min="7433" max="7436" width="11.42578125" customWidth="1"/>
+    <col min="7437" max="7437" width="8.85546875" customWidth="1"/>
+    <col min="7438" max="7440" width="11.42578125" customWidth="1"/>
+    <col min="7441" max="7449" width="8.85546875" customWidth="1"/>
+    <col min="7450" max="7464" width="11.42578125" customWidth="1"/>
+    <col min="7465" max="7465" width="8.85546875" customWidth="1"/>
+    <col min="7466" max="7466" width="11.42578125" customWidth="1"/>
+    <col min="7467" max="7468" width="8.85546875" customWidth="1"/>
+    <col min="7469" max="7473" width="11.42578125" customWidth="1"/>
+    <col min="7474" max="7474" width="8.85546875" customWidth="1"/>
+    <col min="7475" max="7477" width="11.42578125" customWidth="1"/>
+    <col min="7478" max="7478" width="8.85546875" customWidth="1"/>
+    <col min="7479" max="7483" width="11.42578125" customWidth="1"/>
+    <col min="7484" max="7488" width="8.85546875" customWidth="1"/>
+    <col min="7489" max="7681" width="11.42578125" customWidth="1"/>
+    <col min="7682" max="7683" width="8.85546875" customWidth="1"/>
+    <col min="7684" max="7684" width="11.42578125" customWidth="1"/>
+    <col min="7685" max="7688" width="8.85546875" customWidth="1"/>
+    <col min="7689" max="7692" width="11.42578125" customWidth="1"/>
+    <col min="7693" max="7693" width="8.85546875" customWidth="1"/>
+    <col min="7694" max="7696" width="11.42578125" customWidth="1"/>
+    <col min="7697" max="7705" width="8.85546875" customWidth="1"/>
+    <col min="7706" max="7720" width="11.42578125" customWidth="1"/>
+    <col min="7721" max="7721" width="8.85546875" customWidth="1"/>
+    <col min="7722" max="7722" width="11.42578125" customWidth="1"/>
+    <col min="7723" max="7724" width="8.85546875" customWidth="1"/>
+    <col min="7725" max="7729" width="11.42578125" customWidth="1"/>
+    <col min="7730" max="7730" width="8.85546875" customWidth="1"/>
+    <col min="7731" max="7733" width="11.42578125" customWidth="1"/>
+    <col min="7734" max="7734" width="8.85546875" customWidth="1"/>
+    <col min="7735" max="7739" width="11.42578125" customWidth="1"/>
+    <col min="7740" max="7744" width="8.85546875" customWidth="1"/>
+    <col min="7745" max="7937" width="11.42578125" customWidth="1"/>
+    <col min="7938" max="7939" width="8.85546875" customWidth="1"/>
+    <col min="7940" max="7940" width="11.42578125" customWidth="1"/>
+    <col min="7941" max="7944" width="8.85546875" customWidth="1"/>
+    <col min="7945" max="7948" width="11.42578125" customWidth="1"/>
+    <col min="7949" max="7949" width="8.85546875" customWidth="1"/>
+    <col min="7950" max="7952" width="11.42578125" customWidth="1"/>
+    <col min="7953" max="7961" width="8.85546875" customWidth="1"/>
+    <col min="7962" max="7976" width="11.42578125" customWidth="1"/>
+    <col min="7977" max="7977" width="8.85546875" customWidth="1"/>
+    <col min="7978" max="7978" width="11.42578125" customWidth="1"/>
+    <col min="7979" max="7980" width="8.85546875" customWidth="1"/>
+    <col min="7981" max="7985" width="11.42578125" customWidth="1"/>
+    <col min="7986" max="7986" width="8.85546875" customWidth="1"/>
+    <col min="7987" max="7989" width="11.42578125" customWidth="1"/>
+    <col min="7990" max="7990" width="8.85546875" customWidth="1"/>
+    <col min="7991" max="7995" width="11.42578125" customWidth="1"/>
+    <col min="7996" max="8000" width="8.85546875" customWidth="1"/>
+    <col min="8001" max="8193" width="11.42578125" customWidth="1"/>
+    <col min="8194" max="8195" width="8.85546875" customWidth="1"/>
+    <col min="8196" max="8196" width="11.42578125" customWidth="1"/>
+    <col min="8197" max="8200" width="8.85546875" customWidth="1"/>
+    <col min="8201" max="8204" width="11.42578125" customWidth="1"/>
+    <col min="8205" max="8205" width="8.85546875" customWidth="1"/>
+    <col min="8206" max="8208" width="11.42578125" customWidth="1"/>
+    <col min="8209" max="8217" width="8.85546875" customWidth="1"/>
+    <col min="8218" max="8232" width="11.42578125" customWidth="1"/>
+    <col min="8233" max="8233" width="8.85546875" customWidth="1"/>
+    <col min="8234" max="8234" width="11.42578125" customWidth="1"/>
+    <col min="8235" max="8236" width="8.85546875" customWidth="1"/>
+    <col min="8237" max="8241" width="11.42578125" customWidth="1"/>
+    <col min="8242" max="8242" width="8.85546875" customWidth="1"/>
+    <col min="8243" max="8245" width="11.42578125" customWidth="1"/>
+    <col min="8246" max="8246" width="8.85546875" customWidth="1"/>
+    <col min="8247" max="8251" width="11.42578125" customWidth="1"/>
+    <col min="8252" max="8256" width="8.85546875" customWidth="1"/>
+    <col min="8257" max="8449" width="11.42578125" customWidth="1"/>
+    <col min="8450" max="8451" width="8.85546875" customWidth="1"/>
+    <col min="8452" max="8452" width="11.42578125" customWidth="1"/>
+    <col min="8453" max="8456" width="8.85546875" customWidth="1"/>
+    <col min="8457" max="8460" width="11.42578125" customWidth="1"/>
+    <col min="8461" max="8461" width="8.85546875" customWidth="1"/>
+    <col min="8462" max="8464" width="11.42578125" customWidth="1"/>
+    <col min="8465" max="8473" width="8.85546875" customWidth="1"/>
+    <col min="8474" max="8488" width="11.42578125" customWidth="1"/>
+    <col min="8489" max="8489" width="8.85546875" customWidth="1"/>
+    <col min="8490" max="8490" width="11.42578125" customWidth="1"/>
+    <col min="8491" max="8492" width="8.85546875" customWidth="1"/>
+    <col min="8493" max="8497" width="11.42578125" customWidth="1"/>
+    <col min="8498" max="8498" width="8.85546875" customWidth="1"/>
+    <col min="8499" max="8501" width="11.42578125" customWidth="1"/>
+    <col min="8502" max="8502" width="8.85546875" customWidth="1"/>
+    <col min="8503" max="8507" width="11.42578125" customWidth="1"/>
+    <col min="8508" max="8512" width="8.85546875" customWidth="1"/>
+    <col min="8513" max="8705" width="11.42578125" customWidth="1"/>
+    <col min="8706" max="8707" width="8.85546875" customWidth="1"/>
+    <col min="8708" max="8708" width="11.42578125" customWidth="1"/>
+    <col min="8709" max="8712" width="8.85546875" customWidth="1"/>
+    <col min="8713" max="8716" width="11.42578125" customWidth="1"/>
+    <col min="8717" max="8717" width="8.85546875" customWidth="1"/>
+    <col min="8718" max="8720" width="11.42578125" customWidth="1"/>
+    <col min="8721" max="8729" width="8.85546875" customWidth="1"/>
+    <col min="8730" max="8744" width="11.42578125" customWidth="1"/>
+    <col min="8745" max="8745" width="8.85546875" customWidth="1"/>
+    <col min="8746" max="8746" width="11.42578125" customWidth="1"/>
+    <col min="8747" max="8748" width="8.85546875" customWidth="1"/>
+    <col min="8749" max="8753" width="11.42578125" customWidth="1"/>
+    <col min="8754" max="8754" width="8.85546875" customWidth="1"/>
+    <col min="8755" max="8757" width="11.42578125" customWidth="1"/>
+    <col min="8758" max="8758" width="8.85546875" customWidth="1"/>
+    <col min="8759" max="8763" width="11.42578125" customWidth="1"/>
+    <col min="8764" max="8768" width="8.85546875" customWidth="1"/>
+    <col min="8769" max="8961" width="11.42578125" customWidth="1"/>
+    <col min="8962" max="8963" width="8.85546875" customWidth="1"/>
+    <col min="8964" max="8964" width="11.42578125" customWidth="1"/>
+    <col min="8965" max="8968" width="8.85546875" customWidth="1"/>
+    <col min="8969" max="8972" width="11.42578125" customWidth="1"/>
+    <col min="8973" max="8973" width="8.85546875" customWidth="1"/>
+    <col min="8974" max="8976" width="11.42578125" customWidth="1"/>
+    <col min="8977" max="8985" width="8.85546875" customWidth="1"/>
+    <col min="8986" max="9000" width="11.42578125" customWidth="1"/>
+    <col min="9001" max="9001" width="8.85546875" customWidth="1"/>
+    <col min="9002" max="9002" width="11.42578125" customWidth="1"/>
+    <col min="9003" max="9004" width="8.85546875" customWidth="1"/>
+    <col min="9005" max="9009" width="11.42578125" customWidth="1"/>
+    <col min="9010" max="9010" width="8.85546875" customWidth="1"/>
+    <col min="9011" max="9013" width="11.42578125" customWidth="1"/>
+    <col min="9014" max="9014" width="8.85546875" customWidth="1"/>
+    <col min="9015" max="9019" width="11.42578125" customWidth="1"/>
+    <col min="9020" max="9024" width="8.85546875" customWidth="1"/>
+    <col min="9025" max="9217" width="11.42578125" customWidth="1"/>
+    <col min="9218" max="9219" width="8.85546875" customWidth="1"/>
+    <col min="9220" max="9220" width="11.42578125" customWidth="1"/>
+    <col min="9221" max="9224" width="8.85546875" customWidth="1"/>
+    <col min="9225" max="9228" width="11.42578125" customWidth="1"/>
+    <col min="9229" max="9229" width="8.85546875" customWidth="1"/>
+    <col min="9230" max="9232" width="11.42578125" customWidth="1"/>
+    <col min="9233" max="9241" width="8.85546875" customWidth="1"/>
+    <col min="9242" max="9256" width="11.42578125" customWidth="1"/>
+    <col min="9257" max="9257" width="8.85546875" customWidth="1"/>
+    <col min="9258" max="9258" width="11.42578125" customWidth="1"/>
+    <col min="9259" max="9260" width="8.85546875" customWidth="1"/>
+    <col min="9261" max="9265" width="11.42578125" customWidth="1"/>
+    <col min="9266" max="9266" width="8.85546875" customWidth="1"/>
+    <col min="9267" max="9269" width="11.42578125" customWidth="1"/>
+    <col min="9270" max="9270" width="8.85546875" customWidth="1"/>
+    <col min="9271" max="9275" width="11.42578125" customWidth="1"/>
+    <col min="9276" max="9280" width="8.85546875" customWidth="1"/>
+    <col min="9281" max="9473" width="11.42578125" customWidth="1"/>
+    <col min="9474" max="9475" width="8.85546875" customWidth="1"/>
+    <col min="9476" max="9476" width="11.42578125" customWidth="1"/>
+    <col min="9477" max="9480" width="8.85546875" customWidth="1"/>
+    <col min="9481" max="9484" width="11.42578125" customWidth="1"/>
+    <col min="9485" max="9485" width="8.85546875" customWidth="1"/>
+    <col min="9486" max="9488" width="11.42578125" customWidth="1"/>
+    <col min="9489" max="9497" width="8.85546875" customWidth="1"/>
+    <col min="9498" max="9512" width="11.42578125" customWidth="1"/>
+    <col min="9513" max="9513" width="8.85546875" customWidth="1"/>
+    <col min="9514" max="9514" width="11.42578125" customWidth="1"/>
+    <col min="9515" max="9516" width="8.85546875" customWidth="1"/>
+    <col min="9517" max="9521" width="11.42578125" customWidth="1"/>
+    <col min="9522" max="9522" width="8.85546875" customWidth="1"/>
+    <col min="9523" max="9525" width="11.42578125" customWidth="1"/>
+    <col min="9526" max="9526" width="8.85546875" customWidth="1"/>
+    <col min="9527" max="9531" width="11.42578125" customWidth="1"/>
+    <col min="9532" max="9536" width="8.85546875" customWidth="1"/>
+    <col min="9537" max="9729" width="11.42578125" customWidth="1"/>
+    <col min="9730" max="9731" width="8.85546875" customWidth="1"/>
+    <col min="9732" max="9732" width="11.42578125" customWidth="1"/>
+    <col min="9733" max="9736" width="8.85546875" customWidth="1"/>
+    <col min="9737" max="9740" width="11.42578125" customWidth="1"/>
+    <col min="9741" max="9741" width="8.85546875" customWidth="1"/>
+    <col min="9742" max="9744" width="11.42578125" customWidth="1"/>
+    <col min="9745" max="9753" width="8.85546875" customWidth="1"/>
+    <col min="9754" max="9768" width="11.42578125" customWidth="1"/>
+    <col min="9769" max="9769" width="8.85546875" customWidth="1"/>
+    <col min="9770" max="9770" width="11.42578125" customWidth="1"/>
+    <col min="9771" max="9772" width="8.85546875" customWidth="1"/>
+    <col min="9773" max="9777" width="11.42578125" customWidth="1"/>
+    <col min="9778" max="9778" width="8.85546875" customWidth="1"/>
+    <col min="9779" max="9781" width="11.42578125" customWidth="1"/>
+    <col min="9782" max="9782" width="8.85546875" customWidth="1"/>
+    <col min="9783" max="9787" width="11.42578125" customWidth="1"/>
+    <col min="9788" max="9792" width="8.85546875" customWidth="1"/>
+    <col min="9793" max="9985" width="11.42578125" customWidth="1"/>
+    <col min="9986" max="9987" width="8.85546875" customWidth="1"/>
+    <col min="9988" max="9988" width="11.42578125" customWidth="1"/>
+    <col min="9989" max="9992" width="8.85546875" customWidth="1"/>
+    <col min="9993" max="9996" width="11.42578125" customWidth="1"/>
+    <col min="9997" max="9997" width="8.85546875" customWidth="1"/>
+    <col min="9998" max="10000" width="11.42578125" customWidth="1"/>
+    <col min="10001" max="10009" width="8.85546875" customWidth="1"/>
+    <col min="10010" max="10024" width="11.42578125" customWidth="1"/>
+    <col min="10025" max="10025" width="8.85546875" customWidth="1"/>
+    <col min="10026" max="10026" width="11.42578125" customWidth="1"/>
+    <col min="10027" max="10028" width="8.85546875" customWidth="1"/>
+    <col min="10029" max="10033" width="11.42578125" customWidth="1"/>
+    <col min="10034" max="10034" width="8.85546875" customWidth="1"/>
+    <col min="10035" max="10037" width="11.42578125" customWidth="1"/>
+    <col min="10038" max="10038" width="8.85546875" customWidth="1"/>
+    <col min="10039" max="10043" width="11.42578125" customWidth="1"/>
+    <col min="10044" max="10048" width="8.85546875" customWidth="1"/>
+    <col min="10049" max="10241" width="11.42578125" customWidth="1"/>
+    <col min="10242" max="10243" width="8.85546875" customWidth="1"/>
+    <col min="10244" max="10244" width="11.42578125" customWidth="1"/>
+    <col min="10245" max="10248" width="8.85546875" customWidth="1"/>
+    <col min="10249" max="10252" width="11.42578125" customWidth="1"/>
+    <col min="10253" max="10253" width="8.85546875" customWidth="1"/>
+    <col min="10254" max="10256" width="11.42578125" customWidth="1"/>
+    <col min="10257" max="10265" width="8.85546875" customWidth="1"/>
+    <col min="10266" max="10280" width="11.42578125" customWidth="1"/>
+    <col min="10281" max="10281" width="8.85546875" customWidth="1"/>
+    <col min="10282" max="10282" width="11.42578125" customWidth="1"/>
+    <col min="10283" max="10284" width="8.85546875" customWidth="1"/>
+    <col min="10285" max="10289" width="11.42578125" customWidth="1"/>
+    <col min="10290" max="10290" width="8.85546875" customWidth="1"/>
+    <col min="10291" max="10293" width="11.42578125" customWidth="1"/>
+    <col min="10294" max="10294" width="8.85546875" customWidth="1"/>
+    <col min="10295" max="10299" width="11.42578125" customWidth="1"/>
+    <col min="10300" max="10304" width="8.85546875" customWidth="1"/>
+    <col min="10305" max="10497" width="11.42578125" customWidth="1"/>
+    <col min="10498" max="10499" width="8.85546875" customWidth="1"/>
+    <col min="10500" max="10500" width="11.42578125" customWidth="1"/>
+    <col min="10501" max="10504" width="8.85546875" customWidth="1"/>
+    <col min="10505" max="10508" width="11.42578125" customWidth="1"/>
+    <col min="10509" max="10509" width="8.85546875" customWidth="1"/>
+    <col min="10510" max="10512" width="11.42578125" customWidth="1"/>
+    <col min="10513" max="10521" width="8.85546875" customWidth="1"/>
+    <col min="10522" max="10536" width="11.42578125" customWidth="1"/>
+    <col min="10537" max="10537" width="8.85546875" customWidth="1"/>
+    <col min="10538" max="10538" width="11.42578125" customWidth="1"/>
+    <col min="10539" max="10540" width="8.85546875" customWidth="1"/>
+    <col min="10541" max="10545" width="11.42578125" customWidth="1"/>
+    <col min="10546" max="10546" width="8.85546875" customWidth="1"/>
+    <col min="10547" max="10549" width="11.42578125" customWidth="1"/>
+    <col min="10550" max="10550" width="8.85546875" customWidth="1"/>
+    <col min="10551" max="10555" width="11.42578125" customWidth="1"/>
+    <col min="10556" max="10560" width="8.85546875" customWidth="1"/>
+    <col min="10561" max="10753" width="11.42578125" customWidth="1"/>
+    <col min="10754" max="10755" width="8.85546875" customWidth="1"/>
+    <col min="10756" max="10756" width="11.42578125" customWidth="1"/>
+    <col min="10757" max="10760" width="8.85546875" customWidth="1"/>
+    <col min="10761" max="10764" width="11.42578125" customWidth="1"/>
+    <col min="10765" max="10765" width="8.85546875" customWidth="1"/>
+    <col min="10766" max="10768" width="11.42578125" customWidth="1"/>
+    <col min="10769" max="10777" width="8.85546875" customWidth="1"/>
+    <col min="10778" max="10792" width="11.42578125" customWidth="1"/>
+    <col min="10793" max="10793" width="8.85546875" customWidth="1"/>
+    <col min="10794" max="10794" width="11.42578125" customWidth="1"/>
+    <col min="10795" max="10796" width="8.85546875" customWidth="1"/>
+    <col min="10797" max="10801" width="11.42578125" customWidth="1"/>
+    <col min="10802" max="10802" width="8.85546875" customWidth="1"/>
+    <col min="10803" max="10805" width="11.42578125" customWidth="1"/>
+    <col min="10806" max="10806" width="8.85546875" customWidth="1"/>
+    <col min="10807" max="10811" width="11.42578125" customWidth="1"/>
+    <col min="10812" max="10816" width="8.85546875" customWidth="1"/>
+    <col min="10817" max="11009" width="11.42578125" customWidth="1"/>
+    <col min="11010" max="11011" width="8.85546875" customWidth="1"/>
+    <col min="11012" max="11012" width="11.42578125" customWidth="1"/>
+    <col min="11013" max="11016" width="8.85546875" customWidth="1"/>
+    <col min="11017" max="11020" width="11.42578125" customWidth="1"/>
+    <col min="11021" max="11021" width="8.85546875" customWidth="1"/>
+    <col min="11022" max="11024" width="11.42578125" customWidth="1"/>
+    <col min="11025" max="11033" width="8.85546875" customWidth="1"/>
+    <col min="11034" max="11048" width="11.42578125" customWidth="1"/>
+    <col min="11049" max="11049" width="8.85546875" customWidth="1"/>
+    <col min="11050" max="11050" width="11.42578125" customWidth="1"/>
+    <col min="11051" max="11052" width="8.85546875" customWidth="1"/>
+    <col min="11053" max="11057" width="11.42578125" customWidth="1"/>
+    <col min="11058" max="11058" width="8.85546875" customWidth="1"/>
+    <col min="11059" max="11061" width="11.42578125" customWidth="1"/>
+    <col min="11062" max="11062" width="8.85546875" customWidth="1"/>
+    <col min="11063" max="11067" width="11.42578125" customWidth="1"/>
+    <col min="11068" max="11072" width="8.85546875" customWidth="1"/>
+    <col min="11073" max="11265" width="11.42578125" customWidth="1"/>
+    <col min="11266" max="11267" width="8.85546875" customWidth="1"/>
+    <col min="11268" max="11268" width="11.42578125" customWidth="1"/>
+    <col min="11269" max="11272" width="8.85546875" customWidth="1"/>
+    <col min="11273" max="11276" width="11.42578125" customWidth="1"/>
+    <col min="11277" max="11277" width="8.85546875" customWidth="1"/>
+    <col min="11278" max="11280" width="11.42578125" customWidth="1"/>
+    <col min="11281" max="11289" width="8.85546875" customWidth="1"/>
+    <col min="11290" max="11304" width="11.42578125" customWidth="1"/>
+    <col min="11305" max="11305" width="8.85546875" customWidth="1"/>
+    <col min="11306" max="11306" width="11.42578125" customWidth="1"/>
+    <col min="11307" max="11308" width="8.85546875" customWidth="1"/>
+    <col min="11309" max="11313" width="11.42578125" customWidth="1"/>
+    <col min="11314" max="11314" width="8.85546875" customWidth="1"/>
+    <col min="11315" max="11317" width="11.42578125" customWidth="1"/>
+    <col min="11318" max="11318" width="8.85546875" customWidth="1"/>
+    <col min="11319" max="11323" width="11.42578125" customWidth="1"/>
+    <col min="11324" max="11328" width="8.85546875" customWidth="1"/>
+    <col min="11329" max="11521" width="11.42578125" customWidth="1"/>
+    <col min="11522" max="11523" width="8.85546875" customWidth="1"/>
+    <col min="11524" max="11524" width="11.42578125" customWidth="1"/>
+    <col min="11525" max="11528" width="8.85546875" customWidth="1"/>
+    <col min="11529" max="11532" width="11.42578125" customWidth="1"/>
+    <col min="11533" max="11533" width="8.85546875" customWidth="1"/>
+    <col min="11534" max="11536" width="11.42578125" customWidth="1"/>
+    <col min="11537" max="11545" width="8.85546875" customWidth="1"/>
+    <col min="11546" max="11560" width="11.42578125" customWidth="1"/>
+    <col min="11561" max="11561" width="8.85546875" customWidth="1"/>
+    <col min="11562" max="11562" width="11.42578125" customWidth="1"/>
+    <col min="11563" max="11564" width="8.85546875" customWidth="1"/>
+    <col min="11565" max="11569" width="11.42578125" customWidth="1"/>
+    <col min="11570" max="11570" width="8.85546875" customWidth="1"/>
+    <col min="11571" max="11573" width="11.42578125" customWidth="1"/>
+    <col min="11574" max="11574" width="8.85546875" customWidth="1"/>
+    <col min="11575" max="11579" width="11.42578125" customWidth="1"/>
+    <col min="11580" max="11584" width="8.85546875" customWidth="1"/>
+    <col min="11585" max="11777" width="11.42578125" customWidth="1"/>
+    <col min="11778" max="11779" width="8.85546875" customWidth="1"/>
+    <col min="11780" max="11780" width="11.42578125" customWidth="1"/>
+    <col min="11781" max="11784" width="8.85546875" customWidth="1"/>
+    <col min="11785" max="11788" width="11.42578125" customWidth="1"/>
+    <col min="11789" max="11789" width="8.85546875" customWidth="1"/>
+    <col min="11790" max="11792" width="11.42578125" customWidth="1"/>
+    <col min="11793" max="11801" width="8.85546875" customWidth="1"/>
+    <col min="11802" max="11816" width="11.42578125" customWidth="1"/>
+    <col min="11817" max="11817" width="8.85546875" customWidth="1"/>
+    <col min="11818" max="11818" width="11.42578125" customWidth="1"/>
+    <col min="11819" max="11820" width="8.85546875" customWidth="1"/>
+    <col min="11821" max="11825" width="11.42578125" customWidth="1"/>
+    <col min="11826" max="11826" width="8.85546875" customWidth="1"/>
+    <col min="11827" max="11829" width="11.42578125" customWidth="1"/>
+    <col min="11830" max="11830" width="8.85546875" customWidth="1"/>
+    <col min="11831" max="11835" width="11.42578125" customWidth="1"/>
+    <col min="11836" max="11840" width="8.85546875" customWidth="1"/>
+    <col min="11841" max="12033" width="11.42578125" customWidth="1"/>
+    <col min="12034" max="12035" width="8.85546875" customWidth="1"/>
+    <col min="12036" max="12036" width="11.42578125" customWidth="1"/>
+    <col min="12037" max="12040" width="8.85546875" customWidth="1"/>
+    <col min="12041" max="12044" width="11.42578125" customWidth="1"/>
+    <col min="12045" max="12045" width="8.85546875" customWidth="1"/>
+    <col min="12046" max="12048" width="11.42578125" customWidth="1"/>
+    <col min="12049" max="12057" width="8.85546875" customWidth="1"/>
+    <col min="12058" max="12072" width="11.42578125" customWidth="1"/>
+    <col min="12073" max="12073" width="8.85546875" customWidth="1"/>
+    <col min="12074" max="12074" width="11.42578125" customWidth="1"/>
+    <col min="12075" max="12076" width="8.85546875" customWidth="1"/>
+    <col min="12077" max="12081" width="11.42578125" customWidth="1"/>
+    <col min="12082" max="12082" width="8.85546875" customWidth="1"/>
+    <col min="12083" max="12085" width="11.42578125" customWidth="1"/>
+    <col min="12086" max="12086" width="8.85546875" customWidth="1"/>
+    <col min="12087" max="12091" width="11.42578125" customWidth="1"/>
+    <col min="12092" max="12096" width="8.85546875" customWidth="1"/>
+    <col min="12097" max="12289" width="11.42578125" customWidth="1"/>
+    <col min="12290" max="12291" width="8.85546875" customWidth="1"/>
+    <col min="12292" max="12292" width="11.42578125" customWidth="1"/>
+    <col min="12293" max="12296" width="8.85546875" customWidth="1"/>
+    <col min="12297" max="12300" width="11.42578125" customWidth="1"/>
+    <col min="12301" max="12301" width="8.85546875" customWidth="1"/>
+    <col min="12302" max="12304" width="11.42578125" customWidth="1"/>
+    <col min="12305" max="12313" width="8.85546875" customWidth="1"/>
+    <col min="12314" max="12328" width="11.42578125" customWidth="1"/>
+    <col min="12329" max="12329" width="8.85546875" customWidth="1"/>
+    <col min="12330" max="12330" width="11.42578125" customWidth="1"/>
+    <col min="12331" max="12332" width="8.85546875" customWidth="1"/>
+    <col min="12333" max="12337" width="11.42578125" customWidth="1"/>
+    <col min="12338" max="12338" width="8.85546875" customWidth="1"/>
+    <col min="12339" max="12341" width="11.42578125" customWidth="1"/>
+    <col min="12342" max="12342" width="8.85546875" customWidth="1"/>
+    <col min="12343" max="12347" width="11.42578125" customWidth="1"/>
+    <col min="12348" max="12352" width="8.85546875" customWidth="1"/>
+    <col min="12353" max="12545" width="11.42578125" customWidth="1"/>
+    <col min="12546" max="12547" width="8.85546875" customWidth="1"/>
+    <col min="12548" max="12548" width="11.42578125" customWidth="1"/>
+    <col min="12549" max="12552" width="8.85546875" customWidth="1"/>
+    <col min="12553" max="12556" width="11.42578125" customWidth="1"/>
+    <col min="12557" max="12557" width="8.85546875" customWidth="1"/>
+    <col min="12558" max="12560" width="11.42578125" customWidth="1"/>
+    <col min="12561" max="12569" width="8.85546875" customWidth="1"/>
+    <col min="12570" max="12584" width="11.42578125" customWidth="1"/>
+    <col min="12585" max="12585" width="8.85546875" customWidth="1"/>
+    <col min="12586" max="12586" width="11.42578125" customWidth="1"/>
+    <col min="12587" max="12588" width="8.85546875" customWidth="1"/>
+    <col min="12589" max="12593" width="11.42578125" customWidth="1"/>
+    <col min="12594" max="12594" width="8.85546875" customWidth="1"/>
+    <col min="12595" max="12597" width="11.42578125" customWidth="1"/>
+    <col min="12598" max="12598" width="8.85546875" customWidth="1"/>
+    <col min="12599" max="12603" width="11.42578125" customWidth="1"/>
+    <col min="12604" max="12608" width="8.85546875" customWidth="1"/>
+    <col min="12609" max="12801" width="11.42578125" customWidth="1"/>
+    <col min="12802" max="12803" width="8.85546875" customWidth="1"/>
+    <col min="12804" max="12804" width="11.42578125" customWidth="1"/>
+    <col min="12805" max="12808" width="8.85546875" customWidth="1"/>
+    <col min="12809" max="12812" width="11.42578125" customWidth="1"/>
+    <col min="12813" max="12813" width="8.85546875" customWidth="1"/>
+    <col min="12814" max="12816" width="11.42578125" customWidth="1"/>
+    <col min="12817" max="12825" width="8.85546875" customWidth="1"/>
+    <col min="12826" max="12840" width="11.42578125" customWidth="1"/>
+    <col min="12841" max="12841" width="8.85546875" customWidth="1"/>
+    <col min="12842" max="12842" width="11.42578125" customWidth="1"/>
+    <col min="12843" max="12844" width="8.85546875" customWidth="1"/>
+    <col min="12845" max="12849" width="11.42578125" customWidth="1"/>
+    <col min="12850" max="12850" width="8.85546875" customWidth="1"/>
+    <col min="12851" max="12853" width="11.42578125" customWidth="1"/>
+    <col min="12854" max="12854" width="8.85546875" customWidth="1"/>
+    <col min="12855" max="12859" width="11.42578125" customWidth="1"/>
+    <col min="12860" max="12864" width="8.85546875" customWidth="1"/>
+    <col min="12865" max="13057" width="11.42578125" customWidth="1"/>
+    <col min="13058" max="13059" width="8.85546875" customWidth="1"/>
+    <col min="13060" max="13060" width="11.42578125" customWidth="1"/>
+    <col min="13061" max="13064" width="8.85546875" customWidth="1"/>
+    <col min="13065" max="13068" width="11.42578125" customWidth="1"/>
+    <col min="13069" max="13069" width="8.85546875" customWidth="1"/>
+    <col min="13070" max="13072" width="11.42578125" customWidth="1"/>
+    <col min="13073" max="13081" width="8.85546875" customWidth="1"/>
+    <col min="13082" max="13096" width="11.42578125" customWidth="1"/>
+    <col min="13097" max="13097" width="8.85546875" customWidth="1"/>
+    <col min="13098" max="13098" width="11.42578125" customWidth="1"/>
+    <col min="13099" max="13100" width="8.85546875" customWidth="1"/>
+    <col min="13101" max="13105" width="11.42578125" customWidth="1"/>
+    <col min="13106" max="13106" width="8.85546875" customWidth="1"/>
+    <col min="13107" max="13109" width="11.42578125" customWidth="1"/>
+    <col min="13110" max="13110" width="8.85546875" customWidth="1"/>
+    <col min="13111" max="13115" width="11.42578125" customWidth="1"/>
+    <col min="13116" max="13120" width="8.85546875" customWidth="1"/>
+    <col min="13121" max="13313" width="11.42578125" customWidth="1"/>
+    <col min="13314" max="13315" width="8.85546875" customWidth="1"/>
+    <col min="13316" max="13316" width="11.42578125" customWidth="1"/>
+    <col min="13317" max="13320" width="8.85546875" customWidth="1"/>
+    <col min="13321" max="13324" width="11.42578125" customWidth="1"/>
+    <col min="13325" max="13325" width="8.85546875" customWidth="1"/>
+    <col min="13326" max="13328" width="11.42578125" customWidth="1"/>
+    <col min="13329" max="13337" width="8.85546875" customWidth="1"/>
+    <col min="13338" max="13352" width="11.42578125" customWidth="1"/>
+    <col min="13353" max="13353" width="8.85546875" customWidth="1"/>
+    <col min="13354" max="13354" width="11.42578125" customWidth="1"/>
+    <col min="13355" max="13356" width="8.85546875" customWidth="1"/>
+    <col min="13357" max="13361" width="11.42578125" customWidth="1"/>
+    <col min="13362" max="13362" width="8.85546875" customWidth="1"/>
+    <col min="13363" max="13365" width="11.42578125" customWidth="1"/>
+    <col min="13366" max="13366" width="8.85546875" customWidth="1"/>
+    <col min="13367" max="13371" width="11.42578125" customWidth="1"/>
+    <col min="13372" max="13376" width="8.85546875" customWidth="1"/>
+    <col min="13377" max="13569" width="11.42578125" customWidth="1"/>
+    <col min="13570" max="13571" width="8.85546875" customWidth="1"/>
+    <col min="13572" max="13572" width="11.42578125" customWidth="1"/>
+    <col min="13573" max="13576" width="8.85546875" customWidth="1"/>
+    <col min="13577" max="13580" width="11.42578125" customWidth="1"/>
+    <col min="13581" max="13581" width="8.85546875" customWidth="1"/>
+    <col min="13582" max="13584" width="11.42578125" customWidth="1"/>
+    <col min="13585" max="13593" width="8.85546875" customWidth="1"/>
+    <col min="13594" max="13608" width="11.42578125" customWidth="1"/>
+    <col min="13609" max="13609" width="8.85546875" customWidth="1"/>
+    <col min="13610" max="13610" width="11.42578125" customWidth="1"/>
+    <col min="13611" max="13612" width="8.85546875" customWidth="1"/>
+    <col min="13613" max="13617" width="11.42578125" customWidth="1"/>
+    <col min="13618" max="13618" width="8.85546875" customWidth="1"/>
+    <col min="13619" max="13621" width="11.42578125" customWidth="1"/>
+    <col min="13622" max="13622" width="8.85546875" customWidth="1"/>
+    <col min="13623" max="13627" width="11.42578125" customWidth="1"/>
+    <col min="13628" max="13632" width="8.85546875" customWidth="1"/>
+    <col min="13633" max="13825" width="11.42578125" customWidth="1"/>
+    <col min="13826" max="13827" width="8.85546875" customWidth="1"/>
+    <col min="13828" max="13828" width="11.42578125" customWidth="1"/>
+    <col min="13829" max="13832" width="8.85546875" customWidth="1"/>
+    <col min="13833" max="13836" width="11.42578125" customWidth="1"/>
+    <col min="13837" max="13837" width="8.85546875" customWidth="1"/>
+    <col min="13838" max="13840" width="11.42578125" customWidth="1"/>
+    <col min="13841" max="13849" width="8.85546875" customWidth="1"/>
+    <col min="13850" max="13864" width="11.42578125" customWidth="1"/>
+    <col min="13865" max="13865" width="8.85546875" customWidth="1"/>
+    <col min="13866" max="13866" width="11.42578125" customWidth="1"/>
+    <col min="13867" max="13868" width="8.85546875" customWidth="1"/>
+    <col min="13869" max="13873" width="11.42578125" customWidth="1"/>
+    <col min="13874" max="13874" width="8.85546875" customWidth="1"/>
+    <col min="13875" max="13877" width="11.42578125" customWidth="1"/>
+    <col min="13878" max="13878" width="8.85546875" customWidth="1"/>
+    <col min="13879" max="13883" width="11.42578125" customWidth="1"/>
+    <col min="13884" max="13888" width="8.85546875" customWidth="1"/>
+    <col min="13889" max="14081" width="11.42578125" customWidth="1"/>
+    <col min="14082" max="14083" width="8.85546875" customWidth="1"/>
+    <col min="14084" max="14084" width="11.42578125" customWidth="1"/>
+    <col min="14085" max="14088" width="8.85546875" customWidth="1"/>
+    <col min="14089" max="14092" width="11.42578125" customWidth="1"/>
+    <col min="14093" max="14093" width="8.85546875" customWidth="1"/>
+    <col min="14094" max="14096" width="11.42578125" customWidth="1"/>
+    <col min="14097" max="14105" width="8.85546875" customWidth="1"/>
+    <col min="14106" max="14120" width="11.42578125" customWidth="1"/>
+    <col min="14121" max="14121" width="8.85546875" customWidth="1"/>
+    <col min="14122" max="14122" width="11.42578125" customWidth="1"/>
+    <col min="14123" max="14124" width="8.85546875" customWidth="1"/>
+    <col min="14125" max="14129" width="11.42578125" customWidth="1"/>
+    <col min="14130" max="14130" width="8.85546875" customWidth="1"/>
+    <col min="14131" max="14133" width="11.42578125" customWidth="1"/>
+    <col min="14134" max="14134" width="8.85546875" customWidth="1"/>
+    <col min="14135" max="14139" width="11.42578125" customWidth="1"/>
+    <col min="14140" max="14144" width="8.85546875" customWidth="1"/>
+    <col min="14145" max="14337" width="11.42578125" customWidth="1"/>
+    <col min="14338" max="14339" width="8.85546875" customWidth="1"/>
+    <col min="14340" max="14340" width="11.42578125" customWidth="1"/>
+    <col min="14341" max="14344" width="8.85546875" customWidth="1"/>
+    <col min="14345" max="14348" width="11.42578125" customWidth="1"/>
+    <col min="14349" max="14349" width="8.85546875" customWidth="1"/>
+    <col min="14350" max="14352" width="11.42578125" customWidth="1"/>
+    <col min="14353" max="14361" width="8.85546875" customWidth="1"/>
+    <col min="14362" max="14376" width="11.42578125" customWidth="1"/>
+    <col min="14377" max="14377" width="8.85546875" customWidth="1"/>
+    <col min="14378" max="14378" width="11.42578125" customWidth="1"/>
+    <col min="14379" max="14380" width="8.85546875" customWidth="1"/>
+    <col min="14381" max="14385" width="11.42578125" customWidth="1"/>
+    <col min="14386" max="14386" width="8.85546875" customWidth="1"/>
+    <col min="14387" max="14389" width="11.42578125" customWidth="1"/>
+    <col min="14390" max="14390" width="8.85546875" customWidth="1"/>
+    <col min="14391" max="14395" width="11.42578125" customWidth="1"/>
+    <col min="14396" max="14400" width="8.85546875" customWidth="1"/>
+    <col min="14401" max="14593" width="11.42578125" customWidth="1"/>
+    <col min="14594" max="14595" width="8.85546875" customWidth="1"/>
+    <col min="14596" max="14596" width="11.42578125" customWidth="1"/>
+    <col min="14597" max="14600" width="8.85546875" customWidth="1"/>
+    <col min="14601" max="14604" width="11.42578125" customWidth="1"/>
+    <col min="14605" max="14605" width="8.85546875" customWidth="1"/>
+    <col min="14606" max="14608" width="11.42578125" customWidth="1"/>
+    <col min="14609" max="14617" width="8.85546875" customWidth="1"/>
+    <col min="14618" max="14632" width="11.42578125" customWidth="1"/>
+    <col min="14633" max="14633" width="8.85546875" customWidth="1"/>
+    <col min="14634" max="14634" width="11.42578125" customWidth="1"/>
+    <col min="14635" max="14636" width="8.85546875" customWidth="1"/>
+    <col min="14637" max="14641" width="11.42578125" customWidth="1"/>
+    <col min="14642" max="14642" width="8.85546875" customWidth="1"/>
+    <col min="14643" max="14645" width="11.42578125" customWidth="1"/>
+    <col min="14646" max="14646" width="8.85546875" customWidth="1"/>
+    <col min="14647" max="14651" width="11.42578125" customWidth="1"/>
+    <col min="14652" max="14656" width="8.85546875" customWidth="1"/>
+    <col min="14657" max="14849" width="11.42578125" customWidth="1"/>
+    <col min="14850" max="14851" width="8.85546875" customWidth="1"/>
+    <col min="14852" max="14852" width="11.42578125" customWidth="1"/>
+    <col min="14853" max="14856" width="8.85546875" customWidth="1"/>
+    <col min="14857" max="14860" width="11.42578125" customWidth="1"/>
+    <col min="14861" max="14861" width="8.85546875" customWidth="1"/>
+    <col min="14862" max="14864" width="11.42578125" customWidth="1"/>
+    <col min="14865" max="14873" width="8.85546875" customWidth="1"/>
+    <col min="14874" max="14888" width="11.42578125" customWidth="1"/>
+    <col min="14889" max="14889" width="8.85546875" customWidth="1"/>
+    <col min="14890" max="14890" width="11.42578125" customWidth="1"/>
+    <col min="14891" max="14892" width="8.85546875" customWidth="1"/>
+    <col min="14893" max="14897" width="11.42578125" customWidth="1"/>
+    <col min="14898" max="14898" width="8.85546875" customWidth="1"/>
+    <col min="14899" max="14901" width="11.42578125" customWidth="1"/>
+    <col min="14902" max="14902" width="8.85546875" customWidth="1"/>
+    <col min="14903" max="14907" width="11.42578125" customWidth="1"/>
+    <col min="14908" max="14912" width="8.85546875" customWidth="1"/>
+    <col min="14913" max="15105" width="11.42578125" customWidth="1"/>
+    <col min="15106" max="15107" width="8.85546875" customWidth="1"/>
+    <col min="15108" max="15108" width="11.42578125" customWidth="1"/>
+    <col min="15109" max="15112" width="8.85546875" customWidth="1"/>
+    <col min="15113" max="15116" width="11.42578125" customWidth="1"/>
+    <col min="15117" max="15117" width="8.85546875" customWidth="1"/>
+    <col min="15118" max="15120" width="11.42578125" customWidth="1"/>
+    <col min="15121" max="15129" width="8.85546875" customWidth="1"/>
+    <col min="15130" max="15144" width="11.42578125" customWidth="1"/>
+    <col min="15145" max="15145" width="8.85546875" customWidth="1"/>
+    <col min="15146" max="15146" width="11.42578125" customWidth="1"/>
+    <col min="15147" max="15148" width="8.85546875" customWidth="1"/>
+    <col min="15149" max="15153" width="11.42578125" customWidth="1"/>
+    <col min="15154" max="15154" width="8.85546875" customWidth="1"/>
+    <col min="15155" max="15157" width="11.42578125" customWidth="1"/>
+    <col min="15158" max="15158" width="8.85546875" customWidth="1"/>
+    <col min="15159" max="15163" width="11.42578125" customWidth="1"/>
+    <col min="15164" max="15168" width="8.85546875" customWidth="1"/>
+    <col min="15169" max="15361" width="11.42578125" customWidth="1"/>
+    <col min="15362" max="15363" width="8.85546875" customWidth="1"/>
+    <col min="15364" max="15364" width="11.42578125" customWidth="1"/>
+    <col min="15365" max="15368" width="8.85546875" customWidth="1"/>
+    <col min="15369" max="15372" width="11.42578125" customWidth="1"/>
+    <col min="15373" max="15373" width="8.85546875" customWidth="1"/>
+    <col min="15374" max="15376" width="11.42578125" customWidth="1"/>
+    <col min="15377" max="15385" width="8.85546875" customWidth="1"/>
+    <col min="15386" max="15400" width="11.42578125" customWidth="1"/>
+    <col min="15401" max="15401" width="8.85546875" customWidth="1"/>
+    <col min="15402" max="15402" width="11.42578125" customWidth="1"/>
+    <col min="15403" max="15404" width="8.85546875" customWidth="1"/>
+    <col min="15405" max="15409" width="11.42578125" customWidth="1"/>
+    <col min="15410" max="15410" width="8.85546875" customWidth="1"/>
+    <col min="15411" max="15413" width="11.42578125" customWidth="1"/>
+    <col min="15414" max="15414" width="8.85546875" customWidth="1"/>
+    <col min="15415" max="15419" width="11.42578125" customWidth="1"/>
+    <col min="15420" max="15424" width="8.85546875" customWidth="1"/>
+    <col min="15425" max="15617" width="11.42578125" customWidth="1"/>
+    <col min="15618" max="15619" width="8.85546875" customWidth="1"/>
+    <col min="15620" max="15620" width="11.42578125" customWidth="1"/>
+    <col min="15621" max="15624" width="8.85546875" customWidth="1"/>
+    <col min="15625" max="15628" width="11.42578125" customWidth="1"/>
+    <col min="15629" max="15629" width="8.85546875" customWidth="1"/>
+    <col min="15630" max="15632" width="11.42578125" customWidth="1"/>
+    <col min="15633" max="15641" width="8.85546875" customWidth="1"/>
+    <col min="15642" max="15656" width="11.42578125" customWidth="1"/>
+    <col min="15657" max="15657" width="8.85546875" customWidth="1"/>
+    <col min="15658" max="15658" width="11.42578125" customWidth="1"/>
+    <col min="15659" max="15660" width="8.85546875" customWidth="1"/>
+    <col min="15661" max="15665" width="11.42578125" customWidth="1"/>
+    <col min="15666" max="15666" width="8.85546875" customWidth="1"/>
+    <col min="15667" max="15669" width="11.42578125" customWidth="1"/>
+    <col min="15670" max="15670" width="8.85546875" customWidth="1"/>
+    <col min="15671" max="15675" width="11.42578125" customWidth="1"/>
+    <col min="15676" max="15680" width="8.85546875" customWidth="1"/>
+    <col min="15681" max="15873" width="11.42578125" customWidth="1"/>
+    <col min="15874" max="15875" width="8.85546875" customWidth="1"/>
+    <col min="15876" max="15876" width="11.42578125" customWidth="1"/>
+    <col min="15877" max="15880" width="8.85546875" customWidth="1"/>
+    <col min="15881" max="15884" width="11.42578125" customWidth="1"/>
+    <col min="15885" max="15885" width="8.85546875" customWidth="1"/>
+    <col min="15886" max="15888" width="11.42578125" customWidth="1"/>
+    <col min="15889" max="15897" width="8.85546875" customWidth="1"/>
+    <col min="15898" max="15912" width="11.42578125" customWidth="1"/>
+    <col min="15913" max="15913" width="8.85546875" customWidth="1"/>
+    <col min="15914" max="15914" width="11.42578125" customWidth="1"/>
+    <col min="15915" max="15916" width="8.85546875" customWidth="1"/>
+    <col min="15917" max="15921" width="11.42578125" customWidth="1"/>
+    <col min="15922" max="15922" width="8.85546875" customWidth="1"/>
+    <col min="15923" max="15925" width="11.42578125" customWidth="1"/>
+    <col min="15926" max="15926" width="8.85546875" customWidth="1"/>
+    <col min="15927" max="15931" width="11.42578125" customWidth="1"/>
+    <col min="15932" max="15936" width="8.85546875" customWidth="1"/>
+    <col min="15937" max="16129" width="11.42578125" customWidth="1"/>
+    <col min="16130" max="16131" width="8.85546875" customWidth="1"/>
+    <col min="16132" max="16132" width="11.42578125" customWidth="1"/>
+    <col min="16133" max="16136" width="8.85546875" customWidth="1"/>
+    <col min="16137" max="16140" width="11.42578125" customWidth="1"/>
+    <col min="16141" max="16141" width="8.85546875" customWidth="1"/>
+    <col min="16142" max="16144" width="11.42578125" customWidth="1"/>
+    <col min="16145" max="16153" width="8.85546875" customWidth="1"/>
+    <col min="16154" max="16168" width="11.42578125" customWidth="1"/>
+    <col min="16169" max="16169" width="8.85546875" customWidth="1"/>
+    <col min="16170" max="16170" width="11.42578125" customWidth="1"/>
+    <col min="16171" max="16172" width="8.85546875" customWidth="1"/>
+    <col min="16173" max="16177" width="11.42578125" customWidth="1"/>
+    <col min="16178" max="16178" width="8.85546875" customWidth="1"/>
+    <col min="16179" max="16181" width="11.42578125" customWidth="1"/>
+    <col min="16182" max="16182" width="8.85546875" customWidth="1"/>
+    <col min="16183" max="16187" width="11.42578125" customWidth="1"/>
+    <col min="16188" max="16192" width="8.85546875" customWidth="1"/>
+    <col min="16193" max="16384" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>85500</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44345</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="1">
+        <v>113926</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>85500</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>25550</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>75018</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44345</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1">
+        <v>116202</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1">
+        <v>75018</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>25865</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="2">
+        <v>44345</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="1">
+        <v>96695</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>49800</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>22354</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>96</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G5" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <v>44345</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="1">
+        <v>112665</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="X5" s="1">
+        <v>49100</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>16996</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>45</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2">
+        <v>44345</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="1">
+        <v>27529</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>49100</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>5737</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>72</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2">
+        <v>44345</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="1">
+        <v>116309</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
+        <v>49640</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>2001</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>62</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G8" s="1">
+        <v>29000</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="2">
+        <v>44345</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="1">
+        <v>109079</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="X8" s="1">
+        <v>29000</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>24690</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>65</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>49070</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="2">
+        <v>44345</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="1">
+        <v>116317</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
+        <v>49320</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>25882</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>93110</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M10" s="2">
+        <v>44345</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="1">
+        <v>116312</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1">
+        <v>93110</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>25883</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK10" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>77340</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11" s="2">
+        <v>44345</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="1">
+        <v>111074</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1">
+        <v>77340</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>25040</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3944AD-C227-4D16-BE9F-98F9466328E7}">
+  <dimension ref="B1:BL33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="40" width="11.42578125" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" customWidth="1"/>
+    <col min="43" max="44" width="8.85546875" customWidth="1"/>
+    <col min="45" max="49" width="11.42578125" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" customWidth="1"/>
+    <col min="51" max="53" width="11.42578125" customWidth="1"/>
+    <col min="54" max="54" width="8.85546875" customWidth="1"/>
+    <col min="55" max="59" width="11.42578125" customWidth="1"/>
+    <col min="60" max="64" width="8.85546875" customWidth="1"/>
+    <col min="65" max="257" width="11.42578125" customWidth="1"/>
+    <col min="258" max="259" width="8.85546875" customWidth="1"/>
+    <col min="260" max="260" width="11.42578125" customWidth="1"/>
+    <col min="261" max="264" width="8.85546875" customWidth="1"/>
+    <col min="265" max="268" width="11.42578125" customWidth="1"/>
+    <col min="269" max="269" width="8.85546875" customWidth="1"/>
+    <col min="270" max="272" width="11.42578125" customWidth="1"/>
+    <col min="273" max="281" width="8.85546875" customWidth="1"/>
+    <col min="282" max="296" width="11.42578125" customWidth="1"/>
+    <col min="297" max="297" width="8.85546875" customWidth="1"/>
+    <col min="298" max="298" width="11.42578125" customWidth="1"/>
+    <col min="299" max="300" width="8.85546875" customWidth="1"/>
+    <col min="301" max="305" width="11.42578125" customWidth="1"/>
+    <col min="306" max="306" width="8.85546875" customWidth="1"/>
+    <col min="307" max="309" width="11.42578125" customWidth="1"/>
+    <col min="310" max="310" width="8.85546875" customWidth="1"/>
+    <col min="311" max="315" width="11.42578125" customWidth="1"/>
+    <col min="316" max="320" width="8.85546875" customWidth="1"/>
+    <col min="321" max="513" width="11.42578125" customWidth="1"/>
+    <col min="514" max="515" width="8.85546875" customWidth="1"/>
+    <col min="516" max="516" width="11.42578125" customWidth="1"/>
+    <col min="517" max="520" width="8.85546875" customWidth="1"/>
+    <col min="521" max="524" width="11.42578125" customWidth="1"/>
+    <col min="525" max="525" width="8.85546875" customWidth="1"/>
+    <col min="526" max="528" width="11.42578125" customWidth="1"/>
+    <col min="529" max="537" width="8.85546875" customWidth="1"/>
+    <col min="538" max="552" width="11.42578125" customWidth="1"/>
+    <col min="553" max="553" width="8.85546875" customWidth="1"/>
+    <col min="554" max="554" width="11.42578125" customWidth="1"/>
+    <col min="555" max="556" width="8.85546875" customWidth="1"/>
+    <col min="557" max="561" width="11.42578125" customWidth="1"/>
+    <col min="562" max="562" width="8.85546875" customWidth="1"/>
+    <col min="563" max="565" width="11.42578125" customWidth="1"/>
+    <col min="566" max="566" width="8.85546875" customWidth="1"/>
+    <col min="567" max="571" width="11.42578125" customWidth="1"/>
+    <col min="572" max="576" width="8.85546875" customWidth="1"/>
+    <col min="577" max="769" width="11.42578125" customWidth="1"/>
+    <col min="770" max="771" width="8.85546875" customWidth="1"/>
+    <col min="772" max="772" width="11.42578125" customWidth="1"/>
+    <col min="773" max="776" width="8.85546875" customWidth="1"/>
+    <col min="777" max="780" width="11.42578125" customWidth="1"/>
+    <col min="781" max="781" width="8.85546875" customWidth="1"/>
+    <col min="782" max="784" width="11.42578125" customWidth="1"/>
+    <col min="785" max="793" width="8.85546875" customWidth="1"/>
+    <col min="794" max="808" width="11.42578125" customWidth="1"/>
+    <col min="809" max="809" width="8.85546875" customWidth="1"/>
+    <col min="810" max="810" width="11.42578125" customWidth="1"/>
+    <col min="811" max="812" width="8.85546875" customWidth="1"/>
+    <col min="813" max="817" width="11.42578125" customWidth="1"/>
+    <col min="818" max="818" width="8.85546875" customWidth="1"/>
+    <col min="819" max="821" width="11.42578125" customWidth="1"/>
+    <col min="822" max="822" width="8.85546875" customWidth="1"/>
+    <col min="823" max="827" width="11.42578125" customWidth="1"/>
+    <col min="828" max="832" width="8.85546875" customWidth="1"/>
+    <col min="833" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="1026" max="1027" width="8.85546875" customWidth="1"/>
+    <col min="1028" max="1028" width="11.42578125" customWidth="1"/>
+    <col min="1029" max="1032" width="8.85546875" customWidth="1"/>
+    <col min="1033" max="1036" width="11.42578125" customWidth="1"/>
+    <col min="1037" max="1037" width="8.85546875" customWidth="1"/>
+    <col min="1038" max="1040" width="11.42578125" customWidth="1"/>
+    <col min="1041" max="1049" width="8.85546875" customWidth="1"/>
+    <col min="1050" max="1064" width="11.42578125" customWidth="1"/>
+    <col min="1065" max="1065" width="8.85546875" customWidth="1"/>
+    <col min="1066" max="1066" width="11.42578125" customWidth="1"/>
+    <col min="1067" max="1068" width="8.85546875" customWidth="1"/>
+    <col min="1069" max="1073" width="11.42578125" customWidth="1"/>
+    <col min="1074" max="1074" width="8.85546875" customWidth="1"/>
+    <col min="1075" max="1077" width="11.42578125" customWidth="1"/>
+    <col min="1078" max="1078" width="8.85546875" customWidth="1"/>
+    <col min="1079" max="1083" width="11.42578125" customWidth="1"/>
+    <col min="1084" max="1088" width="8.85546875" customWidth="1"/>
+    <col min="1089" max="1281" width="11.42578125" customWidth="1"/>
+    <col min="1282" max="1283" width="8.85546875" customWidth="1"/>
+    <col min="1284" max="1284" width="11.42578125" customWidth="1"/>
+    <col min="1285" max="1288" width="8.85546875" customWidth="1"/>
+    <col min="1289" max="1292" width="11.42578125" customWidth="1"/>
+    <col min="1293" max="1293" width="8.85546875" customWidth="1"/>
+    <col min="1294" max="1296" width="11.42578125" customWidth="1"/>
+    <col min="1297" max="1305" width="8.85546875" customWidth="1"/>
+    <col min="1306" max="1320" width="11.42578125" customWidth="1"/>
+    <col min="1321" max="1321" width="8.85546875" customWidth="1"/>
+    <col min="1322" max="1322" width="11.42578125" customWidth="1"/>
+    <col min="1323" max="1324" width="8.85546875" customWidth="1"/>
+    <col min="1325" max="1329" width="11.42578125" customWidth="1"/>
+    <col min="1330" max="1330" width="8.85546875" customWidth="1"/>
+    <col min="1331" max="1333" width="11.42578125" customWidth="1"/>
+    <col min="1334" max="1334" width="8.85546875" customWidth="1"/>
+    <col min="1335" max="1339" width="11.42578125" customWidth="1"/>
+    <col min="1340" max="1344" width="8.85546875" customWidth="1"/>
+    <col min="1345" max="1537" width="11.42578125" customWidth="1"/>
+    <col min="1538" max="1539" width="8.85546875" customWidth="1"/>
+    <col min="1540" max="1540" width="11.42578125" customWidth="1"/>
+    <col min="1541" max="1544" width="8.85546875" customWidth="1"/>
+    <col min="1545" max="1548" width="11.42578125" customWidth="1"/>
+    <col min="1549" max="1549" width="8.85546875" customWidth="1"/>
+    <col min="1550" max="1552" width="11.42578125" customWidth="1"/>
+    <col min="1553" max="1561" width="8.85546875" customWidth="1"/>
+    <col min="1562" max="1576" width="11.42578125" customWidth="1"/>
+    <col min="1577" max="1577" width="8.85546875" customWidth="1"/>
+    <col min="1578" max="1578" width="11.42578125" customWidth="1"/>
+    <col min="1579" max="1580" width="8.85546875" customWidth="1"/>
+    <col min="1581" max="1585" width="11.42578125" customWidth="1"/>
+    <col min="1586" max="1586" width="8.85546875" customWidth="1"/>
+    <col min="1587" max="1589" width="11.42578125" customWidth="1"/>
+    <col min="1590" max="1590" width="8.85546875" customWidth="1"/>
+    <col min="1591" max="1595" width="11.42578125" customWidth="1"/>
+    <col min="1596" max="1600" width="8.85546875" customWidth="1"/>
+    <col min="1601" max="1793" width="11.42578125" customWidth="1"/>
+    <col min="1794" max="1795" width="8.85546875" customWidth="1"/>
+    <col min="1796" max="1796" width="11.42578125" customWidth="1"/>
+    <col min="1797" max="1800" width="8.85546875" customWidth="1"/>
+    <col min="1801" max="1804" width="11.42578125" customWidth="1"/>
+    <col min="1805" max="1805" width="8.85546875" customWidth="1"/>
+    <col min="1806" max="1808" width="11.42578125" customWidth="1"/>
+    <col min="1809" max="1817" width="8.85546875" customWidth="1"/>
+    <col min="1818" max="1832" width="11.42578125" customWidth="1"/>
+    <col min="1833" max="1833" width="8.85546875" customWidth="1"/>
+    <col min="1834" max="1834" width="11.42578125" customWidth="1"/>
+    <col min="1835" max="1836" width="8.85546875" customWidth="1"/>
+    <col min="1837" max="1841" width="11.42578125" customWidth="1"/>
+    <col min="1842" max="1842" width="8.85546875" customWidth="1"/>
+    <col min="1843" max="1845" width="11.42578125" customWidth="1"/>
+    <col min="1846" max="1846" width="8.85546875" customWidth="1"/>
+    <col min="1847" max="1851" width="11.42578125" customWidth="1"/>
+    <col min="1852" max="1856" width="8.85546875" customWidth="1"/>
+    <col min="1857" max="2049" width="11.42578125" customWidth="1"/>
+    <col min="2050" max="2051" width="8.85546875" customWidth="1"/>
+    <col min="2052" max="2052" width="11.42578125" customWidth="1"/>
+    <col min="2053" max="2056" width="8.85546875" customWidth="1"/>
+    <col min="2057" max="2060" width="11.42578125" customWidth="1"/>
+    <col min="2061" max="2061" width="8.85546875" customWidth="1"/>
+    <col min="2062" max="2064" width="11.42578125" customWidth="1"/>
+    <col min="2065" max="2073" width="8.85546875" customWidth="1"/>
+    <col min="2074" max="2088" width="11.42578125" customWidth="1"/>
+    <col min="2089" max="2089" width="8.85546875" customWidth="1"/>
+    <col min="2090" max="2090" width="11.42578125" customWidth="1"/>
+    <col min="2091" max="2092" width="8.85546875" customWidth="1"/>
+    <col min="2093" max="2097" width="11.42578125" customWidth="1"/>
+    <col min="2098" max="2098" width="8.85546875" customWidth="1"/>
+    <col min="2099" max="2101" width="11.42578125" customWidth="1"/>
+    <col min="2102" max="2102" width="8.85546875" customWidth="1"/>
+    <col min="2103" max="2107" width="11.42578125" customWidth="1"/>
+    <col min="2108" max="2112" width="8.85546875" customWidth="1"/>
+    <col min="2113" max="2305" width="11.42578125" customWidth="1"/>
+    <col min="2306" max="2307" width="8.85546875" customWidth="1"/>
+    <col min="2308" max="2308" width="11.42578125" customWidth="1"/>
+    <col min="2309" max="2312" width="8.85546875" customWidth="1"/>
+    <col min="2313" max="2316" width="11.42578125" customWidth="1"/>
+    <col min="2317" max="2317" width="8.85546875" customWidth="1"/>
+    <col min="2318" max="2320" width="11.42578125" customWidth="1"/>
+    <col min="2321" max="2329" width="8.85546875" customWidth="1"/>
+    <col min="2330" max="2344" width="11.42578125" customWidth="1"/>
+    <col min="2345" max="2345" width="8.85546875" customWidth="1"/>
+    <col min="2346" max="2346" width="11.42578125" customWidth="1"/>
+    <col min="2347" max="2348" width="8.85546875" customWidth="1"/>
+    <col min="2349" max="2353" width="11.42578125" customWidth="1"/>
+    <col min="2354" max="2354" width="8.85546875" customWidth="1"/>
+    <col min="2355" max="2357" width="11.42578125" customWidth="1"/>
+    <col min="2358" max="2358" width="8.85546875" customWidth="1"/>
+    <col min="2359" max="2363" width="11.42578125" customWidth="1"/>
+    <col min="2364" max="2368" width="8.85546875" customWidth="1"/>
+    <col min="2369" max="2561" width="11.42578125" customWidth="1"/>
+    <col min="2562" max="2563" width="8.85546875" customWidth="1"/>
+    <col min="2564" max="2564" width="11.42578125" customWidth="1"/>
+    <col min="2565" max="2568" width="8.85546875" customWidth="1"/>
+    <col min="2569" max="2572" width="11.42578125" customWidth="1"/>
+    <col min="2573" max="2573" width="8.85546875" customWidth="1"/>
+    <col min="2574" max="2576" width="11.42578125" customWidth="1"/>
+    <col min="2577" max="2585" width="8.85546875" customWidth="1"/>
+    <col min="2586" max="2600" width="11.42578125" customWidth="1"/>
+    <col min="2601" max="2601" width="8.85546875" customWidth="1"/>
+    <col min="2602" max="2602" width="11.42578125" customWidth="1"/>
+    <col min="2603" max="2604" width="8.85546875" customWidth="1"/>
+    <col min="2605" max="2609" width="11.42578125" customWidth="1"/>
+    <col min="2610" max="2610" width="8.85546875" customWidth="1"/>
+    <col min="2611" max="2613" width="11.42578125" customWidth="1"/>
+    <col min="2614" max="2614" width="8.85546875" customWidth="1"/>
+    <col min="2615" max="2619" width="11.42578125" customWidth="1"/>
+    <col min="2620" max="2624" width="8.85546875" customWidth="1"/>
+    <col min="2625" max="2817" width="11.42578125" customWidth="1"/>
+    <col min="2818" max="2819" width="8.85546875" customWidth="1"/>
+    <col min="2820" max="2820" width="11.42578125" customWidth="1"/>
+    <col min="2821" max="2824" width="8.85546875" customWidth="1"/>
+    <col min="2825" max="2828" width="11.42578125" customWidth="1"/>
+    <col min="2829" max="2829" width="8.85546875" customWidth="1"/>
+    <col min="2830" max="2832" width="11.42578125" customWidth="1"/>
+    <col min="2833" max="2841" width="8.85546875" customWidth="1"/>
+    <col min="2842" max="2856" width="11.42578125" customWidth="1"/>
+    <col min="2857" max="2857" width="8.85546875" customWidth="1"/>
+    <col min="2858" max="2858" width="11.42578125" customWidth="1"/>
+    <col min="2859" max="2860" width="8.85546875" customWidth="1"/>
+    <col min="2861" max="2865" width="11.42578125" customWidth="1"/>
+    <col min="2866" max="2866" width="8.85546875" customWidth="1"/>
+    <col min="2867" max="2869" width="11.42578125" customWidth="1"/>
+    <col min="2870" max="2870" width="8.85546875" customWidth="1"/>
+    <col min="2871" max="2875" width="11.42578125" customWidth="1"/>
+    <col min="2876" max="2880" width="8.85546875" customWidth="1"/>
+    <col min="2881" max="3073" width="11.42578125" customWidth="1"/>
+    <col min="3074" max="3075" width="8.85546875" customWidth="1"/>
+    <col min="3076" max="3076" width="11.42578125" customWidth="1"/>
+    <col min="3077" max="3080" width="8.85546875" customWidth="1"/>
+    <col min="3081" max="3084" width="11.42578125" customWidth="1"/>
+    <col min="3085" max="3085" width="8.85546875" customWidth="1"/>
+    <col min="3086" max="3088" width="11.42578125" customWidth="1"/>
+    <col min="3089" max="3097" width="8.85546875" customWidth="1"/>
+    <col min="3098" max="3112" width="11.42578125" customWidth="1"/>
+    <col min="3113" max="3113" width="8.85546875" customWidth="1"/>
+    <col min="3114" max="3114" width="11.42578125" customWidth="1"/>
+    <col min="3115" max="3116" width="8.85546875" customWidth="1"/>
+    <col min="3117" max="3121" width="11.42578125" customWidth="1"/>
+    <col min="3122" max="3122" width="8.85546875" customWidth="1"/>
+    <col min="3123" max="3125" width="11.42578125" customWidth="1"/>
+    <col min="3126" max="3126" width="8.85546875" customWidth="1"/>
+    <col min="3127" max="3131" width="11.42578125" customWidth="1"/>
+    <col min="3132" max="3136" width="8.85546875" customWidth="1"/>
+    <col min="3137" max="3329" width="11.42578125" customWidth="1"/>
+    <col min="3330" max="3331" width="8.85546875" customWidth="1"/>
+    <col min="3332" max="3332" width="11.42578125" customWidth="1"/>
+    <col min="3333" max="3336" width="8.85546875" customWidth="1"/>
+    <col min="3337" max="3340" width="11.42578125" customWidth="1"/>
+    <col min="3341" max="3341" width="8.85546875" customWidth="1"/>
+    <col min="3342" max="3344" width="11.42578125" customWidth="1"/>
+    <col min="3345" max="3353" width="8.85546875" customWidth="1"/>
+    <col min="3354" max="3368" width="11.42578125" customWidth="1"/>
+    <col min="3369" max="3369" width="8.85546875" customWidth="1"/>
+    <col min="3370" max="3370" width="11.42578125" customWidth="1"/>
+    <col min="3371" max="3372" width="8.85546875" customWidth="1"/>
+    <col min="3373" max="3377" width="11.42578125" customWidth="1"/>
+    <col min="3378" max="3378" width="8.85546875" customWidth="1"/>
+    <col min="3379" max="3381" width="11.42578125" customWidth="1"/>
+    <col min="3382" max="3382" width="8.85546875" customWidth="1"/>
+    <col min="3383" max="3387" width="11.42578125" customWidth="1"/>
+    <col min="3388" max="3392" width="8.85546875" customWidth="1"/>
+    <col min="3393" max="3585" width="11.42578125" customWidth="1"/>
+    <col min="3586" max="3587" width="8.85546875" customWidth="1"/>
+    <col min="3588" max="3588" width="11.42578125" customWidth="1"/>
+    <col min="3589" max="3592" width="8.85546875" customWidth="1"/>
+    <col min="3593" max="3596" width="11.42578125" customWidth="1"/>
+    <col min="3597" max="3597" width="8.85546875" customWidth="1"/>
+    <col min="3598" max="3600" width="11.42578125" customWidth="1"/>
+    <col min="3601" max="3609" width="8.85546875" customWidth="1"/>
+    <col min="3610" max="3624" width="11.42578125" customWidth="1"/>
+    <col min="3625" max="3625" width="8.85546875" customWidth="1"/>
+    <col min="3626" max="3626" width="11.42578125" customWidth="1"/>
+    <col min="3627" max="3628" width="8.85546875" customWidth="1"/>
+    <col min="3629" max="3633" width="11.42578125" customWidth="1"/>
+    <col min="3634" max="3634" width="8.85546875" customWidth="1"/>
+    <col min="3635" max="3637" width="11.42578125" customWidth="1"/>
+    <col min="3638" max="3638" width="8.85546875" customWidth="1"/>
+    <col min="3639" max="3643" width="11.42578125" customWidth="1"/>
+    <col min="3644" max="3648" width="8.85546875" customWidth="1"/>
+    <col min="3649" max="3841" width="11.42578125" customWidth="1"/>
+    <col min="3842" max="3843" width="8.85546875" customWidth="1"/>
+    <col min="3844" max="3844" width="11.42578125" customWidth="1"/>
+    <col min="3845" max="3848" width="8.85546875" customWidth="1"/>
+    <col min="3849" max="3852" width="11.42578125" customWidth="1"/>
+    <col min="3853" max="3853" width="8.85546875" customWidth="1"/>
+    <col min="3854" max="3856" width="11.42578125" customWidth="1"/>
+    <col min="3857" max="3865" width="8.85546875" customWidth="1"/>
+    <col min="3866" max="3880" width="11.42578125" customWidth="1"/>
+    <col min="3881" max="3881" width="8.85546875" customWidth="1"/>
+    <col min="3882" max="3882" width="11.42578125" customWidth="1"/>
+    <col min="3883" max="3884" width="8.85546875" customWidth="1"/>
+    <col min="3885" max="3889" width="11.42578125" customWidth="1"/>
+    <col min="3890" max="3890" width="8.85546875" customWidth="1"/>
+    <col min="3891" max="3893" width="11.42578125" customWidth="1"/>
+    <col min="3894" max="3894" width="8.85546875" customWidth="1"/>
+    <col min="3895" max="3899" width="11.42578125" customWidth="1"/>
+    <col min="3900" max="3904" width="8.85546875" customWidth="1"/>
+    <col min="3905" max="4097" width="11.42578125" customWidth="1"/>
+    <col min="4098" max="4099" width="8.85546875" customWidth="1"/>
+    <col min="4100" max="4100" width="11.42578125" customWidth="1"/>
+    <col min="4101" max="4104" width="8.85546875" customWidth="1"/>
+    <col min="4105" max="4108" width="11.42578125" customWidth="1"/>
+    <col min="4109" max="4109" width="8.85546875" customWidth="1"/>
+    <col min="4110" max="4112" width="11.42578125" customWidth="1"/>
+    <col min="4113" max="4121" width="8.85546875" customWidth="1"/>
+    <col min="4122" max="4136" width="11.42578125" customWidth="1"/>
+    <col min="4137" max="4137" width="8.85546875" customWidth="1"/>
+    <col min="4138" max="4138" width="11.42578125" customWidth="1"/>
+    <col min="4139" max="4140" width="8.85546875" customWidth="1"/>
+    <col min="4141" max="4145" width="11.42578125" customWidth="1"/>
+    <col min="4146" max="4146" width="8.85546875" customWidth="1"/>
+    <col min="4147" max="4149" width="11.42578125" customWidth="1"/>
+    <col min="4150" max="4150" width="8.85546875" customWidth="1"/>
+    <col min="4151" max="4155" width="11.42578125" customWidth="1"/>
+    <col min="4156" max="4160" width="8.85546875" customWidth="1"/>
+    <col min="4161" max="4353" width="11.42578125" customWidth="1"/>
+    <col min="4354" max="4355" width="8.85546875" customWidth="1"/>
+    <col min="4356" max="4356" width="11.42578125" customWidth="1"/>
+    <col min="4357" max="4360" width="8.85546875" customWidth="1"/>
+    <col min="4361" max="4364" width="11.42578125" customWidth="1"/>
+    <col min="4365" max="4365" width="8.85546875" customWidth="1"/>
+    <col min="4366" max="4368" width="11.42578125" customWidth="1"/>
+    <col min="4369" max="4377" width="8.85546875" customWidth="1"/>
+    <col min="4378" max="4392" width="11.42578125" customWidth="1"/>
+    <col min="4393" max="4393" width="8.85546875" customWidth="1"/>
+    <col min="4394" max="4394" width="11.42578125" customWidth="1"/>
+    <col min="4395" max="4396" width="8.85546875" customWidth="1"/>
+    <col min="4397" max="4401" width="11.42578125" customWidth="1"/>
+    <col min="4402" max="4402" width="8.85546875" customWidth="1"/>
+    <col min="4403" max="4405" width="11.42578125" customWidth="1"/>
+    <col min="4406" max="4406" width="8.85546875" customWidth="1"/>
+    <col min="4407" max="4411" width="11.42578125" customWidth="1"/>
+    <col min="4412" max="4416" width="8.85546875" customWidth="1"/>
+    <col min="4417" max="4609" width="11.42578125" customWidth="1"/>
+    <col min="4610" max="4611" width="8.85546875" customWidth="1"/>
+    <col min="4612" max="4612" width="11.42578125" customWidth="1"/>
+    <col min="4613" max="4616" width="8.85546875" customWidth="1"/>
+    <col min="4617" max="4620" width="11.42578125" customWidth="1"/>
+    <col min="4621" max="4621" width="8.85546875" customWidth="1"/>
+    <col min="4622" max="4624" width="11.42578125" customWidth="1"/>
+    <col min="4625" max="4633" width="8.85546875" customWidth="1"/>
+    <col min="4634" max="4648" width="11.42578125" customWidth="1"/>
+    <col min="4649" max="4649" width="8.85546875" customWidth="1"/>
+    <col min="4650" max="4650" width="11.42578125" customWidth="1"/>
+    <col min="4651" max="4652" width="8.85546875" customWidth="1"/>
+    <col min="4653" max="4657" width="11.42578125" customWidth="1"/>
+    <col min="4658" max="4658" width="8.85546875" customWidth="1"/>
+    <col min="4659" max="4661" width="11.42578125" customWidth="1"/>
+    <col min="4662" max="4662" width="8.85546875" customWidth="1"/>
+    <col min="4663" max="4667" width="11.42578125" customWidth="1"/>
+    <col min="4668" max="4672" width="8.85546875" customWidth="1"/>
+    <col min="4673" max="4865" width="11.42578125" customWidth="1"/>
+    <col min="4866" max="4867" width="8.85546875" customWidth="1"/>
+    <col min="4868" max="4868" width="11.42578125" customWidth="1"/>
+    <col min="4869" max="4872" width="8.85546875" customWidth="1"/>
+    <col min="4873" max="4876" width="11.42578125" customWidth="1"/>
+    <col min="4877" max="4877" width="8.85546875" customWidth="1"/>
+    <col min="4878" max="4880" width="11.42578125" customWidth="1"/>
+    <col min="4881" max="4889" width="8.85546875" customWidth="1"/>
+    <col min="4890" max="4904" width="11.42578125" customWidth="1"/>
+    <col min="4905" max="4905" width="8.85546875" customWidth="1"/>
+    <col min="4906" max="4906" width="11.42578125" customWidth="1"/>
+    <col min="4907" max="4908" width="8.85546875" customWidth="1"/>
+    <col min="4909" max="4913" width="11.42578125" customWidth="1"/>
+    <col min="4914" max="4914" width="8.85546875" customWidth="1"/>
+    <col min="4915" max="4917" width="11.42578125" customWidth="1"/>
+    <col min="4918" max="4918" width="8.85546875" customWidth="1"/>
+    <col min="4919" max="4923" width="11.42578125" customWidth="1"/>
+    <col min="4924" max="4928" width="8.85546875" customWidth="1"/>
+    <col min="4929" max="5121" width="11.42578125" customWidth="1"/>
+    <col min="5122" max="5123" width="8.85546875" customWidth="1"/>
+    <col min="5124" max="5124" width="11.42578125" customWidth="1"/>
+    <col min="5125" max="5128" width="8.85546875" customWidth="1"/>
+    <col min="5129" max="5132" width="11.42578125" customWidth="1"/>
+    <col min="5133" max="5133" width="8.85546875" customWidth="1"/>
+    <col min="5134" max="5136" width="11.42578125" customWidth="1"/>
+    <col min="5137" max="5145" width="8.85546875" customWidth="1"/>
+    <col min="5146" max="5160" width="11.42578125" customWidth="1"/>
+    <col min="5161" max="5161" width="8.85546875" customWidth="1"/>
+    <col min="5162" max="5162" width="11.42578125" customWidth="1"/>
+    <col min="5163" max="5164" width="8.85546875" customWidth="1"/>
+    <col min="5165" max="5169" width="11.42578125" customWidth="1"/>
+    <col min="5170" max="5170" width="8.85546875" customWidth="1"/>
+    <col min="5171" max="5173" width="11.42578125" customWidth="1"/>
+    <col min="5174" max="5174" width="8.85546875" customWidth="1"/>
+    <col min="5175" max="5179" width="11.42578125" customWidth="1"/>
+    <col min="5180" max="5184" width="8.85546875" customWidth="1"/>
+    <col min="5185" max="5377" width="11.42578125" customWidth="1"/>
+    <col min="5378" max="5379" width="8.85546875" customWidth="1"/>
+    <col min="5380" max="5380" width="11.42578125" customWidth="1"/>
+    <col min="5381" max="5384" width="8.85546875" customWidth="1"/>
+    <col min="5385" max="5388" width="11.42578125" customWidth="1"/>
+    <col min="5389" max="5389" width="8.85546875" customWidth="1"/>
+    <col min="5390" max="5392" width="11.42578125" customWidth="1"/>
+    <col min="5393" max="5401" width="8.85546875" customWidth="1"/>
+    <col min="5402" max="5416" width="11.42578125" customWidth="1"/>
+    <col min="5417" max="5417" width="8.85546875" customWidth="1"/>
+    <col min="5418" max="5418" width="11.42578125" customWidth="1"/>
+    <col min="5419" max="5420" width="8.85546875" customWidth="1"/>
+    <col min="5421" max="5425" width="11.42578125" customWidth="1"/>
+    <col min="5426" max="5426" width="8.85546875" customWidth="1"/>
+    <col min="5427" max="5429" width="11.42578125" customWidth="1"/>
+    <col min="5430" max="5430" width="8.85546875" customWidth="1"/>
+    <col min="5431" max="5435" width="11.42578125" customWidth="1"/>
+    <col min="5436" max="5440" width="8.85546875" customWidth="1"/>
+    <col min="5441" max="5633" width="11.42578125" customWidth="1"/>
+    <col min="5634" max="5635" width="8.85546875" customWidth="1"/>
+    <col min="5636" max="5636" width="11.42578125" customWidth="1"/>
+    <col min="5637" max="5640" width="8.85546875" customWidth="1"/>
+    <col min="5641" max="5644" width="11.42578125" customWidth="1"/>
+    <col min="5645" max="5645" width="8.85546875" customWidth="1"/>
+    <col min="5646" max="5648" width="11.42578125" customWidth="1"/>
+    <col min="5649" max="5657" width="8.85546875" customWidth="1"/>
+    <col min="5658" max="5672" width="11.42578125" customWidth="1"/>
+    <col min="5673" max="5673" width="8.85546875" customWidth="1"/>
+    <col min="5674" max="5674" width="11.42578125" customWidth="1"/>
+    <col min="5675" max="5676" width="8.85546875" customWidth="1"/>
+    <col min="5677" max="5681" width="11.42578125" customWidth="1"/>
+    <col min="5682" max="5682" width="8.85546875" customWidth="1"/>
+    <col min="5683" max="5685" width="11.42578125" customWidth="1"/>
+    <col min="5686" max="5686" width="8.85546875" customWidth="1"/>
+    <col min="5687" max="5691" width="11.42578125" customWidth="1"/>
+    <col min="5692" max="5696" width="8.85546875" customWidth="1"/>
+    <col min="5697" max="5889" width="11.42578125" customWidth="1"/>
+    <col min="5890" max="5891" width="8.85546875" customWidth="1"/>
+    <col min="5892" max="5892" width="11.42578125" customWidth="1"/>
+    <col min="5893" max="5896" width="8.85546875" customWidth="1"/>
+    <col min="5897" max="5900" width="11.42578125" customWidth="1"/>
+    <col min="5901" max="5901" width="8.85546875" customWidth="1"/>
+    <col min="5902" max="5904" width="11.42578125" customWidth="1"/>
+    <col min="5905" max="5913" width="8.85546875" customWidth="1"/>
+    <col min="5914" max="5928" width="11.42578125" customWidth="1"/>
+    <col min="5929" max="5929" width="8.85546875" customWidth="1"/>
+    <col min="5930" max="5930" width="11.42578125" customWidth="1"/>
+    <col min="5931" max="5932" width="8.85546875" customWidth="1"/>
+    <col min="5933" max="5937" width="11.42578125" customWidth="1"/>
+    <col min="5938" max="5938" width="8.85546875" customWidth="1"/>
+    <col min="5939" max="5941" width="11.42578125" customWidth="1"/>
+    <col min="5942" max="5942" width="8.85546875" customWidth="1"/>
+    <col min="5943" max="5947" width="11.42578125" customWidth="1"/>
+    <col min="5948" max="5952" width="8.85546875" customWidth="1"/>
+    <col min="5953" max="6145" width="11.42578125" customWidth="1"/>
+    <col min="6146" max="6147" width="8.85546875" customWidth="1"/>
+    <col min="6148" max="6148" width="11.42578125" customWidth="1"/>
+    <col min="6149" max="6152" width="8.85546875" customWidth="1"/>
+    <col min="6153" max="6156" width="11.42578125" customWidth="1"/>
+    <col min="6157" max="6157" width="8.85546875" customWidth="1"/>
+    <col min="6158" max="6160" width="11.42578125" customWidth="1"/>
+    <col min="6161" max="6169" width="8.85546875" customWidth="1"/>
+    <col min="6170" max="6184" width="11.42578125" customWidth="1"/>
+    <col min="6185" max="6185" width="8.85546875" customWidth="1"/>
+    <col min="6186" max="6186" width="11.42578125" customWidth="1"/>
+    <col min="6187" max="6188" width="8.85546875" customWidth="1"/>
+    <col min="6189" max="6193" width="11.42578125" customWidth="1"/>
+    <col min="6194" max="6194" width="8.85546875" customWidth="1"/>
+    <col min="6195" max="6197" width="11.42578125" customWidth="1"/>
+    <col min="6198" max="6198" width="8.85546875" customWidth="1"/>
+    <col min="6199" max="6203" width="11.42578125" customWidth="1"/>
+    <col min="6204" max="6208" width="8.85546875" customWidth="1"/>
+    <col min="6209" max="6401" width="11.42578125" customWidth="1"/>
+    <col min="6402" max="6403" width="8.85546875" customWidth="1"/>
+    <col min="6404" max="6404" width="11.42578125" customWidth="1"/>
+    <col min="6405" max="6408" width="8.85546875" customWidth="1"/>
+    <col min="6409" max="6412" width="11.42578125" customWidth="1"/>
+    <col min="6413" max="6413" width="8.85546875" customWidth="1"/>
+    <col min="6414" max="6416" width="11.42578125" customWidth="1"/>
+    <col min="6417" max="6425" width="8.85546875" customWidth="1"/>
+    <col min="6426" max="6440" width="11.42578125" customWidth="1"/>
+    <col min="6441" max="6441" width="8.85546875" customWidth="1"/>
+    <col min="6442" max="6442" width="11.42578125" customWidth="1"/>
+    <col min="6443" max="6444" width="8.85546875" customWidth="1"/>
+    <col min="6445" max="6449" width="11.42578125" customWidth="1"/>
+    <col min="6450" max="6450" width="8.85546875" customWidth="1"/>
+    <col min="6451" max="6453" width="11.42578125" customWidth="1"/>
+    <col min="6454" max="6454" width="8.85546875" customWidth="1"/>
+    <col min="6455" max="6459" width="11.42578125" customWidth="1"/>
+    <col min="6460" max="6464" width="8.85546875" customWidth="1"/>
+    <col min="6465" max="6657" width="11.42578125" customWidth="1"/>
+    <col min="6658" max="6659" width="8.85546875" customWidth="1"/>
+    <col min="6660" max="6660" width="11.42578125" customWidth="1"/>
+    <col min="6661" max="6664" width="8.85546875" customWidth="1"/>
+    <col min="6665" max="6668" width="11.42578125" customWidth="1"/>
+    <col min="6669" max="6669" width="8.85546875" customWidth="1"/>
+    <col min="6670" max="6672" width="11.42578125" customWidth="1"/>
+    <col min="6673" max="6681" width="8.85546875" customWidth="1"/>
+    <col min="6682" max="6696" width="11.42578125" customWidth="1"/>
+    <col min="6697" max="6697" width="8.85546875" customWidth="1"/>
+    <col min="6698" max="6698" width="11.42578125" customWidth="1"/>
+    <col min="6699" max="6700" width="8.85546875" customWidth="1"/>
+    <col min="6701" max="6705" width="11.42578125" customWidth="1"/>
+    <col min="6706" max="6706" width="8.85546875" customWidth="1"/>
+    <col min="6707" max="6709" width="11.42578125" customWidth="1"/>
+    <col min="6710" max="6710" width="8.85546875" customWidth="1"/>
+    <col min="6711" max="6715" width="11.42578125" customWidth="1"/>
+    <col min="6716" max="6720" width="8.85546875" customWidth="1"/>
+    <col min="6721" max="6913" width="11.42578125" customWidth="1"/>
+    <col min="6914" max="6915" width="8.85546875" customWidth="1"/>
+    <col min="6916" max="6916" width="11.42578125" customWidth="1"/>
+    <col min="6917" max="6920" width="8.85546875" customWidth="1"/>
+    <col min="6921" max="6924" width="11.42578125" customWidth="1"/>
+    <col min="6925" max="6925" width="8.85546875" customWidth="1"/>
+    <col min="6926" max="6928" width="11.42578125" customWidth="1"/>
+    <col min="6929" max="6937" width="8.85546875" customWidth="1"/>
+    <col min="6938" max="6952" width="11.42578125" customWidth="1"/>
+    <col min="6953" max="6953" width="8.85546875" customWidth="1"/>
+    <col min="6954" max="6954" width="11.42578125" customWidth="1"/>
+    <col min="6955" max="6956" width="8.85546875" customWidth="1"/>
+    <col min="6957" max="6961" width="11.42578125" customWidth="1"/>
+    <col min="6962" max="6962" width="8.85546875" customWidth="1"/>
+    <col min="6963" max="6965" width="11.42578125" customWidth="1"/>
+    <col min="6966" max="6966" width="8.85546875" customWidth="1"/>
+    <col min="6967" max="6971" width="11.42578125" customWidth="1"/>
+    <col min="6972" max="6976" width="8.85546875" customWidth="1"/>
+    <col min="6977" max="7169" width="11.42578125" customWidth="1"/>
+    <col min="7170" max="7171" width="8.85546875" customWidth="1"/>
+    <col min="7172" max="7172" width="11.42578125" customWidth="1"/>
+    <col min="7173" max="7176" width="8.85546875" customWidth="1"/>
+    <col min="7177" max="7180" width="11.42578125" customWidth="1"/>
+    <col min="7181" max="7181" width="8.85546875" customWidth="1"/>
+    <col min="7182" max="7184" width="11.42578125" customWidth="1"/>
+    <col min="7185" max="7193" width="8.85546875" customWidth="1"/>
+    <col min="7194" max="7208" width="11.42578125" customWidth="1"/>
+    <col min="7209" max="7209" width="8.85546875" customWidth="1"/>
+    <col min="7210" max="7210" width="11.42578125" customWidth="1"/>
+    <col min="7211" max="7212" width="8.85546875" customWidth="1"/>
+    <col min="7213" max="7217" width="11.42578125" customWidth="1"/>
+    <col min="7218" max="7218" width="8.85546875" customWidth="1"/>
+    <col min="7219" max="7221" width="11.42578125" customWidth="1"/>
+    <col min="7222" max="7222" width="8.85546875" customWidth="1"/>
+    <col min="7223" max="7227" width="11.42578125" customWidth="1"/>
+    <col min="7228" max="7232" width="8.85546875" customWidth="1"/>
+    <col min="7233" max="7425" width="11.42578125" customWidth="1"/>
+    <col min="7426" max="7427" width="8.85546875" customWidth="1"/>
+    <col min="7428" max="7428" width="11.42578125" customWidth="1"/>
+    <col min="7429" max="7432" width="8.85546875" customWidth="1"/>
+    <col min="7433" max="7436" width="11.42578125" customWidth="1"/>
+    <col min="7437" max="7437" width="8.85546875" customWidth="1"/>
+    <col min="7438" max="7440" width="11.42578125" customWidth="1"/>
+    <col min="7441" max="7449" width="8.85546875" customWidth="1"/>
+    <col min="7450" max="7464" width="11.42578125" customWidth="1"/>
+    <col min="7465" max="7465" width="8.85546875" customWidth="1"/>
+    <col min="7466" max="7466" width="11.42578125" customWidth="1"/>
+    <col min="7467" max="7468" width="8.85546875" customWidth="1"/>
+    <col min="7469" max="7473" width="11.42578125" customWidth="1"/>
+    <col min="7474" max="7474" width="8.85546875" customWidth="1"/>
+    <col min="7475" max="7477" width="11.42578125" customWidth="1"/>
+    <col min="7478" max="7478" width="8.85546875" customWidth="1"/>
+    <col min="7479" max="7483" width="11.42578125" customWidth="1"/>
+    <col min="7484" max="7488" width="8.85546875" customWidth="1"/>
+    <col min="7489" max="7681" width="11.42578125" customWidth="1"/>
+    <col min="7682" max="7683" width="8.85546875" customWidth="1"/>
+    <col min="7684" max="7684" width="11.42578125" customWidth="1"/>
+    <col min="7685" max="7688" width="8.85546875" customWidth="1"/>
+    <col min="7689" max="7692" width="11.42578125" customWidth="1"/>
+    <col min="7693" max="7693" width="8.85546875" customWidth="1"/>
+    <col min="7694" max="7696" width="11.42578125" customWidth="1"/>
+    <col min="7697" max="7705" width="8.85546875" customWidth="1"/>
+    <col min="7706" max="7720" width="11.42578125" customWidth="1"/>
+    <col min="7721" max="7721" width="8.85546875" customWidth="1"/>
+    <col min="7722" max="7722" width="11.42578125" customWidth="1"/>
+    <col min="7723" max="7724" width="8.85546875" customWidth="1"/>
+    <col min="7725" max="7729" width="11.42578125" customWidth="1"/>
+    <col min="7730" max="7730" width="8.85546875" customWidth="1"/>
+    <col min="7731" max="7733" width="11.42578125" customWidth="1"/>
+    <col min="7734" max="7734" width="8.85546875" customWidth="1"/>
+    <col min="7735" max="7739" width="11.42578125" customWidth="1"/>
+    <col min="7740" max="7744" width="8.85546875" customWidth="1"/>
+    <col min="7745" max="7937" width="11.42578125" customWidth="1"/>
+    <col min="7938" max="7939" width="8.85546875" customWidth="1"/>
+    <col min="7940" max="7940" width="11.42578125" customWidth="1"/>
+    <col min="7941" max="7944" width="8.85546875" customWidth="1"/>
+    <col min="7945" max="7948" width="11.42578125" customWidth="1"/>
+    <col min="7949" max="7949" width="8.85546875" customWidth="1"/>
+    <col min="7950" max="7952" width="11.42578125" customWidth="1"/>
+    <col min="7953" max="7961" width="8.85546875" customWidth="1"/>
+    <col min="7962" max="7976" width="11.42578125" customWidth="1"/>
+    <col min="7977" max="7977" width="8.85546875" customWidth="1"/>
+    <col min="7978" max="7978" width="11.42578125" customWidth="1"/>
+    <col min="7979" max="7980" width="8.85546875" customWidth="1"/>
+    <col min="7981" max="7985" width="11.42578125" customWidth="1"/>
+    <col min="7986" max="7986" width="8.85546875" customWidth="1"/>
+    <col min="7987" max="7989" width="11.42578125" customWidth="1"/>
+    <col min="7990" max="7990" width="8.85546875" customWidth="1"/>
+    <col min="7991" max="7995" width="11.42578125" customWidth="1"/>
+    <col min="7996" max="8000" width="8.85546875" customWidth="1"/>
+    <col min="8001" max="8193" width="11.42578125" customWidth="1"/>
+    <col min="8194" max="8195" width="8.85546875" customWidth="1"/>
+    <col min="8196" max="8196" width="11.42578125" customWidth="1"/>
+    <col min="8197" max="8200" width="8.85546875" customWidth="1"/>
+    <col min="8201" max="8204" width="11.42578125" customWidth="1"/>
+    <col min="8205" max="8205" width="8.85546875" customWidth="1"/>
+    <col min="8206" max="8208" width="11.42578125" customWidth="1"/>
+    <col min="8209" max="8217" width="8.85546875" customWidth="1"/>
+    <col min="8218" max="8232" width="11.42578125" customWidth="1"/>
+    <col min="8233" max="8233" width="8.85546875" customWidth="1"/>
+    <col min="8234" max="8234" width="11.42578125" customWidth="1"/>
+    <col min="8235" max="8236" width="8.85546875" customWidth="1"/>
+    <col min="8237" max="8241" width="11.42578125" customWidth="1"/>
+    <col min="8242" max="8242" width="8.85546875" customWidth="1"/>
+    <col min="8243" max="8245" width="11.42578125" customWidth="1"/>
+    <col min="8246" max="8246" width="8.85546875" customWidth="1"/>
+    <col min="8247" max="8251" width="11.42578125" customWidth="1"/>
+    <col min="8252" max="8256" width="8.85546875" customWidth="1"/>
+    <col min="8257" max="8449" width="11.42578125" customWidth="1"/>
+    <col min="8450" max="8451" width="8.85546875" customWidth="1"/>
+    <col min="8452" max="8452" width="11.42578125" customWidth="1"/>
+    <col min="8453" max="8456" width="8.85546875" customWidth="1"/>
+    <col min="8457" max="8460" width="11.42578125" customWidth="1"/>
+    <col min="8461" max="8461" width="8.85546875" customWidth="1"/>
+    <col min="8462" max="8464" width="11.42578125" customWidth="1"/>
+    <col min="8465" max="8473" width="8.85546875" customWidth="1"/>
+    <col min="8474" max="8488" width="11.42578125" customWidth="1"/>
+    <col min="8489" max="8489" width="8.85546875" customWidth="1"/>
+    <col min="8490" max="8490" width="11.42578125" customWidth="1"/>
+    <col min="8491" max="8492" width="8.85546875" customWidth="1"/>
+    <col min="8493" max="8497" width="11.42578125" customWidth="1"/>
+    <col min="8498" max="8498" width="8.85546875" customWidth="1"/>
+    <col min="8499" max="8501" width="11.42578125" customWidth="1"/>
+    <col min="8502" max="8502" width="8.85546875" customWidth="1"/>
+    <col min="8503" max="8507" width="11.42578125" customWidth="1"/>
+    <col min="8508" max="8512" width="8.85546875" customWidth="1"/>
+    <col min="8513" max="8705" width="11.42578125" customWidth="1"/>
+    <col min="8706" max="8707" width="8.85546875" customWidth="1"/>
+    <col min="8708" max="8708" width="11.42578125" customWidth="1"/>
+    <col min="8709" max="8712" width="8.85546875" customWidth="1"/>
+    <col min="8713" max="8716" width="11.42578125" customWidth="1"/>
+    <col min="8717" max="8717" width="8.85546875" customWidth="1"/>
+    <col min="8718" max="8720" width="11.42578125" customWidth="1"/>
+    <col min="8721" max="8729" width="8.85546875" customWidth="1"/>
+    <col min="8730" max="8744" width="11.42578125" customWidth="1"/>
+    <col min="8745" max="8745" width="8.85546875" customWidth="1"/>
+    <col min="8746" max="8746" width="11.42578125" customWidth="1"/>
+    <col min="8747" max="8748" width="8.85546875" customWidth="1"/>
+    <col min="8749" max="8753" width="11.42578125" customWidth="1"/>
+    <col min="8754" max="8754" width="8.85546875" customWidth="1"/>
+    <col min="8755" max="8757" width="11.42578125" customWidth="1"/>
+    <col min="8758" max="8758" width="8.85546875" customWidth="1"/>
+    <col min="8759" max="8763" width="11.42578125" customWidth="1"/>
+    <col min="8764" max="8768" width="8.85546875" customWidth="1"/>
+    <col min="8769" max="8961" width="11.42578125" customWidth="1"/>
+    <col min="8962" max="8963" width="8.85546875" customWidth="1"/>
+    <col min="8964" max="8964" width="11.42578125" customWidth="1"/>
+    <col min="8965" max="8968" width="8.85546875" customWidth="1"/>
+    <col min="8969" max="8972" width="11.42578125" customWidth="1"/>
+    <col min="8973" max="8973" width="8.85546875" customWidth="1"/>
+    <col min="8974" max="8976" width="11.42578125" customWidth="1"/>
+    <col min="8977" max="8985" width="8.85546875" customWidth="1"/>
+    <col min="8986" max="9000" width="11.42578125" customWidth="1"/>
+    <col min="9001" max="9001" width="8.85546875" customWidth="1"/>
+    <col min="9002" max="9002" width="11.42578125" customWidth="1"/>
+    <col min="9003" max="9004" width="8.85546875" customWidth="1"/>
+    <col min="9005" max="9009" width="11.42578125" customWidth="1"/>
+    <col min="9010" max="9010" width="8.85546875" customWidth="1"/>
+    <col min="9011" max="9013" width="11.42578125" customWidth="1"/>
+    <col min="9014" max="9014" width="8.85546875" customWidth="1"/>
+    <col min="9015" max="9019" width="11.42578125" customWidth="1"/>
+    <col min="9020" max="9024" width="8.85546875" customWidth="1"/>
+    <col min="9025" max="9217" width="11.42578125" customWidth="1"/>
+    <col min="9218" max="9219" width="8.85546875" customWidth="1"/>
+    <col min="9220" max="9220" width="11.42578125" customWidth="1"/>
+    <col min="9221" max="9224" width="8.85546875" customWidth="1"/>
+    <col min="9225" max="9228" width="11.42578125" customWidth="1"/>
+    <col min="9229" max="9229" width="8.85546875" customWidth="1"/>
+    <col min="9230" max="9232" width="11.42578125" customWidth="1"/>
+    <col min="9233" max="9241" width="8.85546875" customWidth="1"/>
+    <col min="9242" max="9256" width="11.42578125" customWidth="1"/>
+    <col min="9257" max="9257" width="8.85546875" customWidth="1"/>
+    <col min="9258" max="9258" width="11.42578125" customWidth="1"/>
+    <col min="9259" max="9260" width="8.85546875" customWidth="1"/>
+    <col min="9261" max="9265" width="11.42578125" customWidth="1"/>
+    <col min="9266" max="9266" width="8.85546875" customWidth="1"/>
+    <col min="9267" max="9269" width="11.42578125" customWidth="1"/>
+    <col min="9270" max="9270" width="8.85546875" customWidth="1"/>
+    <col min="9271" max="9275" width="11.42578125" customWidth="1"/>
+    <col min="9276" max="9280" width="8.85546875" customWidth="1"/>
+    <col min="9281" max="9473" width="11.42578125" customWidth="1"/>
+    <col min="9474" max="9475" width="8.85546875" customWidth="1"/>
+    <col min="9476" max="9476" width="11.42578125" customWidth="1"/>
+    <col min="9477" max="9480" width="8.85546875" customWidth="1"/>
+    <col min="9481" max="9484" width="11.42578125" customWidth="1"/>
+    <col min="9485" max="9485" width="8.85546875" customWidth="1"/>
+    <col min="9486" max="9488" width="11.42578125" customWidth="1"/>
+    <col min="9489" max="9497" width="8.85546875" customWidth="1"/>
+    <col min="9498" max="9512" width="11.42578125" customWidth="1"/>
+    <col min="9513" max="9513" width="8.85546875" customWidth="1"/>
+    <col min="9514" max="9514" width="11.42578125" customWidth="1"/>
+    <col min="9515" max="9516" width="8.85546875" customWidth="1"/>
+    <col min="9517" max="9521" width="11.42578125" customWidth="1"/>
+    <col min="9522" max="9522" width="8.85546875" customWidth="1"/>
+    <col min="9523" max="9525" width="11.42578125" customWidth="1"/>
+    <col min="9526" max="9526" width="8.85546875" customWidth="1"/>
+    <col min="9527" max="9531" width="11.42578125" customWidth="1"/>
+    <col min="9532" max="9536" width="8.85546875" customWidth="1"/>
+    <col min="9537" max="9729" width="11.42578125" customWidth="1"/>
+    <col min="9730" max="9731" width="8.85546875" customWidth="1"/>
+    <col min="9732" max="9732" width="11.42578125" customWidth="1"/>
+    <col min="9733" max="9736" width="8.85546875" customWidth="1"/>
+    <col min="9737" max="9740" width="11.42578125" customWidth="1"/>
+    <col min="9741" max="9741" width="8.85546875" customWidth="1"/>
+    <col min="9742" max="9744" width="11.42578125" customWidth="1"/>
+    <col min="9745" max="9753" width="8.85546875" customWidth="1"/>
+    <col min="9754" max="9768" width="11.42578125" customWidth="1"/>
+    <col min="9769" max="9769" width="8.85546875" customWidth="1"/>
+    <col min="9770" max="9770" width="11.42578125" customWidth="1"/>
+    <col min="9771" max="9772" width="8.85546875" customWidth="1"/>
+    <col min="9773" max="9777" width="11.42578125" customWidth="1"/>
+    <col min="9778" max="9778" width="8.85546875" customWidth="1"/>
+    <col min="9779" max="9781" width="11.42578125" customWidth="1"/>
+    <col min="9782" max="9782" width="8.85546875" customWidth="1"/>
+    <col min="9783" max="9787" width="11.42578125" customWidth="1"/>
+    <col min="9788" max="9792" width="8.85546875" customWidth="1"/>
+    <col min="9793" max="9985" width="11.42578125" customWidth="1"/>
+    <col min="9986" max="9987" width="8.85546875" customWidth="1"/>
+    <col min="9988" max="9988" width="11.42578125" customWidth="1"/>
+    <col min="9989" max="9992" width="8.85546875" customWidth="1"/>
+    <col min="9993" max="9996" width="11.42578125" customWidth="1"/>
+    <col min="9997" max="9997" width="8.85546875" customWidth="1"/>
+    <col min="9998" max="10000" width="11.42578125" customWidth="1"/>
+    <col min="10001" max="10009" width="8.85546875" customWidth="1"/>
+    <col min="10010" max="10024" width="11.42578125" customWidth="1"/>
+    <col min="10025" max="10025" width="8.85546875" customWidth="1"/>
+    <col min="10026" max="10026" width="11.42578125" customWidth="1"/>
+    <col min="10027" max="10028" width="8.85546875" customWidth="1"/>
+    <col min="10029" max="10033" width="11.42578125" customWidth="1"/>
+    <col min="10034" max="10034" width="8.85546875" customWidth="1"/>
+    <col min="10035" max="10037" width="11.42578125" customWidth="1"/>
+    <col min="10038" max="10038" width="8.85546875" customWidth="1"/>
+    <col min="10039" max="10043" width="11.42578125" customWidth="1"/>
+    <col min="10044" max="10048" width="8.85546875" customWidth="1"/>
+    <col min="10049" max="10241" width="11.42578125" customWidth="1"/>
+    <col min="10242" max="10243" width="8.85546875" customWidth="1"/>
+    <col min="10244" max="10244" width="11.42578125" customWidth="1"/>
+    <col min="10245" max="10248" width="8.85546875" customWidth="1"/>
+    <col min="10249" max="10252" width="11.42578125" customWidth="1"/>
+    <col min="10253" max="10253" width="8.85546875" customWidth="1"/>
+    <col min="10254" max="10256" width="11.42578125" customWidth="1"/>
+    <col min="10257" max="10265" width="8.85546875" customWidth="1"/>
+    <col min="10266" max="10280" width="11.42578125" customWidth="1"/>
+    <col min="10281" max="10281" width="8.85546875" customWidth="1"/>
+    <col min="10282" max="10282" width="11.42578125" customWidth="1"/>
+    <col min="10283" max="10284" width="8.85546875" customWidth="1"/>
+    <col min="10285" max="10289" width="11.42578125" customWidth="1"/>
+    <col min="10290" max="10290" width="8.85546875" customWidth="1"/>
+    <col min="10291" max="10293" width="11.42578125" customWidth="1"/>
+    <col min="10294" max="10294" width="8.85546875" customWidth="1"/>
+    <col min="10295" max="10299" width="11.42578125" customWidth="1"/>
+    <col min="10300" max="10304" width="8.85546875" customWidth="1"/>
+    <col min="10305" max="10497" width="11.42578125" customWidth="1"/>
+    <col min="10498" max="10499" width="8.85546875" customWidth="1"/>
+    <col min="10500" max="10500" width="11.42578125" customWidth="1"/>
+    <col min="10501" max="10504" width="8.85546875" customWidth="1"/>
+    <col min="10505" max="10508" width="11.42578125" customWidth="1"/>
+    <col min="10509" max="10509" width="8.85546875" customWidth="1"/>
+    <col min="10510" max="10512" width="11.42578125" customWidth="1"/>
+    <col min="10513" max="10521" width="8.85546875" customWidth="1"/>
+    <col min="10522" max="10536" width="11.42578125" customWidth="1"/>
+    <col min="10537" max="10537" width="8.85546875" customWidth="1"/>
+    <col min="10538" max="10538" width="11.42578125" customWidth="1"/>
+    <col min="10539" max="10540" width="8.85546875" customWidth="1"/>
+    <col min="10541" max="10545" width="11.42578125" customWidth="1"/>
+    <col min="10546" max="10546" width="8.85546875" customWidth="1"/>
+    <col min="10547" max="10549" width="11.42578125" customWidth="1"/>
+    <col min="10550" max="10550" width="8.85546875" customWidth="1"/>
+    <col min="10551" max="10555" width="11.42578125" customWidth="1"/>
+    <col min="10556" max="10560" width="8.85546875" customWidth="1"/>
+    <col min="10561" max="10753" width="11.42578125" customWidth="1"/>
+    <col min="10754" max="10755" width="8.85546875" customWidth="1"/>
+    <col min="10756" max="10756" width="11.42578125" customWidth="1"/>
+    <col min="10757" max="10760" width="8.85546875" customWidth="1"/>
+    <col min="10761" max="10764" width="11.42578125" customWidth="1"/>
+    <col min="10765" max="10765" width="8.85546875" customWidth="1"/>
+    <col min="10766" max="10768" width="11.42578125" customWidth="1"/>
+    <col min="10769" max="10777" width="8.85546875" customWidth="1"/>
+    <col min="10778" max="10792" width="11.42578125" customWidth="1"/>
+    <col min="10793" max="10793" width="8.85546875" customWidth="1"/>
+    <col min="10794" max="10794" width="11.42578125" customWidth="1"/>
+    <col min="10795" max="10796" width="8.85546875" customWidth="1"/>
+    <col min="10797" max="10801" width="11.42578125" customWidth="1"/>
+    <col min="10802" max="10802" width="8.85546875" customWidth="1"/>
+    <col min="10803" max="10805" width="11.42578125" customWidth="1"/>
+    <col min="10806" max="10806" width="8.85546875" customWidth="1"/>
+    <col min="10807" max="10811" width="11.42578125" customWidth="1"/>
+    <col min="10812" max="10816" width="8.85546875" customWidth="1"/>
+    <col min="10817" max="11009" width="11.42578125" customWidth="1"/>
+    <col min="11010" max="11011" width="8.85546875" customWidth="1"/>
+    <col min="11012" max="11012" width="11.42578125" customWidth="1"/>
+    <col min="11013" max="11016" width="8.85546875" customWidth="1"/>
+    <col min="11017" max="11020" width="11.42578125" customWidth="1"/>
+    <col min="11021" max="11021" width="8.85546875" customWidth="1"/>
+    <col min="11022" max="11024" width="11.42578125" customWidth="1"/>
+    <col min="11025" max="11033" width="8.85546875" customWidth="1"/>
+    <col min="11034" max="11048" width="11.42578125" customWidth="1"/>
+    <col min="11049" max="11049" width="8.85546875" customWidth="1"/>
+    <col min="11050" max="11050" width="11.42578125" customWidth="1"/>
+    <col min="11051" max="11052" width="8.85546875" customWidth="1"/>
+    <col min="11053" max="11057" width="11.42578125" customWidth="1"/>
+    <col min="11058" max="11058" width="8.85546875" customWidth="1"/>
+    <col min="11059" max="11061" width="11.42578125" customWidth="1"/>
+    <col min="11062" max="11062" width="8.85546875" customWidth="1"/>
+    <col min="11063" max="11067" width="11.42578125" customWidth="1"/>
+    <col min="11068" max="11072" width="8.85546875" customWidth="1"/>
+    <col min="11073" max="11265" width="11.42578125" customWidth="1"/>
+    <col min="11266" max="11267" width="8.85546875" customWidth="1"/>
+    <col min="11268" max="11268" width="11.42578125" customWidth="1"/>
+    <col min="11269" max="11272" width="8.85546875" customWidth="1"/>
+    <col min="11273" max="11276" width="11.42578125" customWidth="1"/>
+    <col min="11277" max="11277" width="8.85546875" customWidth="1"/>
+    <col min="11278" max="11280" width="11.42578125" customWidth="1"/>
+    <col min="11281" max="11289" width="8.85546875" customWidth="1"/>
+    <col min="11290" max="11304" width="11.42578125" customWidth="1"/>
+    <col min="11305" max="11305" width="8.85546875" customWidth="1"/>
+    <col min="11306" max="11306" width="11.42578125" customWidth="1"/>
+    <col min="11307" max="11308" width="8.85546875" customWidth="1"/>
+    <col min="11309" max="11313" width="11.42578125" customWidth="1"/>
+    <col min="11314" max="11314" width="8.85546875" customWidth="1"/>
+    <col min="11315" max="11317" width="11.42578125" customWidth="1"/>
+    <col min="11318" max="11318" width="8.85546875" customWidth="1"/>
+    <col min="11319" max="11323" width="11.42578125" customWidth="1"/>
+    <col min="11324" max="11328" width="8.85546875" customWidth="1"/>
+    <col min="11329" max="11521" width="11.42578125" customWidth="1"/>
+    <col min="11522" max="11523" width="8.85546875" customWidth="1"/>
+    <col min="11524" max="11524" width="11.42578125" customWidth="1"/>
+    <col min="11525" max="11528" width="8.85546875" customWidth="1"/>
+    <col min="11529" max="11532" width="11.42578125" customWidth="1"/>
+    <col min="11533" max="11533" width="8.85546875" customWidth="1"/>
+    <col min="11534" max="11536" width="11.42578125" customWidth="1"/>
+    <col min="11537" max="11545" width="8.85546875" customWidth="1"/>
+    <col min="11546" max="11560" width="11.42578125" customWidth="1"/>
+    <col min="11561" max="11561" width="8.85546875" customWidth="1"/>
+    <col min="11562" max="11562" width="11.42578125" customWidth="1"/>
+    <col min="11563" max="11564" width="8.85546875" customWidth="1"/>
+    <col min="11565" max="11569" width="11.42578125" customWidth="1"/>
+    <col min="11570" max="11570" width="8.85546875" customWidth="1"/>
+    <col min="11571" max="11573" width="11.42578125" customWidth="1"/>
+    <col min="11574" max="11574" width="8.85546875" customWidth="1"/>
+    <col min="11575" max="11579" width="11.42578125" customWidth="1"/>
+    <col min="11580" max="11584" width="8.85546875" customWidth="1"/>
+    <col min="11585" max="11777" width="11.42578125" customWidth="1"/>
+    <col min="11778" max="11779" width="8.85546875" customWidth="1"/>
+    <col min="11780" max="11780" width="11.42578125" customWidth="1"/>
+    <col min="11781" max="11784" width="8.85546875" customWidth="1"/>
+    <col min="11785" max="11788" width="11.42578125" customWidth="1"/>
+    <col min="11789" max="11789" width="8.85546875" customWidth="1"/>
+    <col min="11790" max="11792" width="11.42578125" customWidth="1"/>
+    <col min="11793" max="11801" width="8.85546875" customWidth="1"/>
+    <col min="11802" max="11816" width="11.42578125" customWidth="1"/>
+    <col min="11817" max="11817" width="8.85546875" customWidth="1"/>
+    <col min="11818" max="11818" width="11.42578125" customWidth="1"/>
+    <col min="11819" max="11820" width="8.85546875" customWidth="1"/>
+    <col min="11821" max="11825" width="11.42578125" customWidth="1"/>
+    <col min="11826" max="11826" width="8.85546875" customWidth="1"/>
+    <col min="11827" max="11829" width="11.42578125" customWidth="1"/>
+    <col min="11830" max="11830" width="8.85546875" customWidth="1"/>
+    <col min="11831" max="11835" width="11.42578125" customWidth="1"/>
+    <col min="11836" max="11840" width="8.85546875" customWidth="1"/>
+    <col min="11841" max="12033" width="11.42578125" customWidth="1"/>
+    <col min="12034" max="12035" width="8.85546875" customWidth="1"/>
+    <col min="12036" max="12036" width="11.42578125" customWidth="1"/>
+    <col min="12037" max="12040" width="8.85546875" customWidth="1"/>
+    <col min="12041" max="12044" width="11.42578125" customWidth="1"/>
+    <col min="12045" max="12045" width="8.85546875" customWidth="1"/>
+    <col min="12046" max="12048" width="11.42578125" customWidth="1"/>
+    <col min="12049" max="12057" width="8.85546875" customWidth="1"/>
+    <col min="12058" max="12072" width="11.42578125" customWidth="1"/>
+    <col min="12073" max="12073" width="8.85546875" customWidth="1"/>
+    <col min="12074" max="12074" width="11.42578125" customWidth="1"/>
+    <col min="12075" max="12076" width="8.85546875" customWidth="1"/>
+    <col min="12077" max="12081" width="11.42578125" customWidth="1"/>
+    <col min="12082" max="12082" width="8.85546875" customWidth="1"/>
+    <col min="12083" max="12085" width="11.42578125" customWidth="1"/>
+    <col min="12086" max="12086" width="8.85546875" customWidth="1"/>
+    <col min="12087" max="12091" width="11.42578125" customWidth="1"/>
+    <col min="12092" max="12096" width="8.85546875" customWidth="1"/>
+    <col min="12097" max="12289" width="11.42578125" customWidth="1"/>
+    <col min="12290" max="12291" width="8.85546875" customWidth="1"/>
+    <col min="12292" max="12292" width="11.42578125" customWidth="1"/>
+    <col min="12293" max="12296" width="8.85546875" customWidth="1"/>
+    <col min="12297" max="12300" width="11.42578125" customWidth="1"/>
+    <col min="12301" max="12301" width="8.85546875" customWidth="1"/>
+    <col min="12302" max="12304" width="11.42578125" customWidth="1"/>
+    <col min="12305" max="12313" width="8.85546875" customWidth="1"/>
+    <col min="12314" max="12328" width="11.42578125" customWidth="1"/>
+    <col min="12329" max="12329" width="8.85546875" customWidth="1"/>
+    <col min="12330" max="12330" width="11.42578125" customWidth="1"/>
+    <col min="12331" max="12332" width="8.85546875" customWidth="1"/>
+    <col min="12333" max="12337" width="11.42578125" customWidth="1"/>
+    <col min="12338" max="12338" width="8.85546875" customWidth="1"/>
+    <col min="12339" max="12341" width="11.42578125" customWidth="1"/>
+    <col min="12342" max="12342" width="8.85546875" customWidth="1"/>
+    <col min="12343" max="12347" width="11.42578125" customWidth="1"/>
+    <col min="12348" max="12352" width="8.85546875" customWidth="1"/>
+    <col min="12353" max="12545" width="11.42578125" customWidth="1"/>
+    <col min="12546" max="12547" width="8.85546875" customWidth="1"/>
+    <col min="12548" max="12548" width="11.42578125" customWidth="1"/>
+    <col min="12549" max="12552" width="8.85546875" customWidth="1"/>
+    <col min="12553" max="12556" width="11.42578125" customWidth="1"/>
+    <col min="12557" max="12557" width="8.85546875" customWidth="1"/>
+    <col min="12558" max="12560" width="11.42578125" customWidth="1"/>
+    <col min="12561" max="12569" width="8.85546875" customWidth="1"/>
+    <col min="12570" max="12584" width="11.42578125" customWidth="1"/>
+    <col min="12585" max="12585" width="8.85546875" customWidth="1"/>
+    <col min="12586" max="12586" width="11.42578125" customWidth="1"/>
+    <col min="12587" max="12588" width="8.85546875" customWidth="1"/>
+    <col min="12589" max="12593" width="11.42578125" customWidth="1"/>
+    <col min="12594" max="12594" width="8.85546875" customWidth="1"/>
+    <col min="12595" max="12597" width="11.42578125" customWidth="1"/>
+    <col min="12598" max="12598" width="8.85546875" customWidth="1"/>
+    <col min="12599" max="12603" width="11.42578125" customWidth="1"/>
+    <col min="12604" max="12608" width="8.85546875" customWidth="1"/>
+    <col min="12609" max="12801" width="11.42578125" customWidth="1"/>
+    <col min="12802" max="12803" width="8.85546875" customWidth="1"/>
+    <col min="12804" max="12804" width="11.42578125" customWidth="1"/>
+    <col min="12805" max="12808" width="8.85546875" customWidth="1"/>
+    <col min="12809" max="12812" width="11.42578125" customWidth="1"/>
+    <col min="12813" max="12813" width="8.85546875" customWidth="1"/>
+    <col min="12814" max="12816" width="11.42578125" customWidth="1"/>
+    <col min="12817" max="12825" width="8.85546875" customWidth="1"/>
+    <col min="12826" max="12840" width="11.42578125" customWidth="1"/>
+    <col min="12841" max="12841" width="8.85546875" customWidth="1"/>
+    <col min="12842" max="12842" width="11.42578125" customWidth="1"/>
+    <col min="12843" max="12844" width="8.85546875" customWidth="1"/>
+    <col min="12845" max="12849" width="11.42578125" customWidth="1"/>
+    <col min="12850" max="12850" width="8.85546875" customWidth="1"/>
+    <col min="12851" max="12853" width="11.42578125" customWidth="1"/>
+    <col min="12854" max="12854" width="8.85546875" customWidth="1"/>
+    <col min="12855" max="12859" width="11.42578125" customWidth="1"/>
+    <col min="12860" max="12864" width="8.85546875" customWidth="1"/>
+    <col min="12865" max="13057" width="11.42578125" customWidth="1"/>
+    <col min="13058" max="13059" width="8.85546875" customWidth="1"/>
+    <col min="13060" max="13060" width="11.42578125" customWidth="1"/>
+    <col min="13061" max="13064" width="8.85546875" customWidth="1"/>
+    <col min="13065" max="13068" width="11.42578125" customWidth="1"/>
+    <col min="13069" max="13069" width="8.85546875" customWidth="1"/>
+    <col min="13070" max="13072" width="11.42578125" customWidth="1"/>
+    <col min="13073" max="13081" width="8.85546875" customWidth="1"/>
+    <col min="13082" max="13096" width="11.42578125" customWidth="1"/>
+    <col min="13097" max="13097" width="8.85546875" customWidth="1"/>
+    <col min="13098" max="13098" width="11.42578125" customWidth="1"/>
+    <col min="13099" max="13100" width="8.85546875" customWidth="1"/>
+    <col min="13101" max="13105" width="11.42578125" customWidth="1"/>
+    <col min="13106" max="13106" width="8.85546875" customWidth="1"/>
+    <col min="13107" max="13109" width="11.42578125" customWidth="1"/>
+    <col min="13110" max="13110" width="8.85546875" customWidth="1"/>
+    <col min="13111" max="13115" width="11.42578125" customWidth="1"/>
+    <col min="13116" max="13120" width="8.85546875" customWidth="1"/>
+    <col min="13121" max="13313" width="11.42578125" customWidth="1"/>
+    <col min="13314" max="13315" width="8.85546875" customWidth="1"/>
+    <col min="13316" max="13316" width="11.42578125" customWidth="1"/>
+    <col min="13317" max="13320" width="8.85546875" customWidth="1"/>
+    <col min="13321" max="13324" width="11.42578125" customWidth="1"/>
+    <col min="13325" max="13325" width="8.85546875" customWidth="1"/>
+    <col min="13326" max="13328" width="11.42578125" customWidth="1"/>
+    <col min="13329" max="13337" width="8.85546875" customWidth="1"/>
+    <col min="13338" max="13352" width="11.42578125" customWidth="1"/>
+    <col min="13353" max="13353" width="8.85546875" customWidth="1"/>
+    <col min="13354" max="13354" width="11.42578125" customWidth="1"/>
+    <col min="13355" max="13356" width="8.85546875" customWidth="1"/>
+    <col min="13357" max="13361" width="11.42578125" customWidth="1"/>
+    <col min="13362" max="13362" width="8.85546875" customWidth="1"/>
+    <col min="13363" max="13365" width="11.42578125" customWidth="1"/>
+    <col min="13366" max="13366" width="8.85546875" customWidth="1"/>
+    <col min="13367" max="13371" width="11.42578125" customWidth="1"/>
+    <col min="13372" max="13376" width="8.85546875" customWidth="1"/>
+    <col min="13377" max="13569" width="11.42578125" customWidth="1"/>
+    <col min="13570" max="13571" width="8.85546875" customWidth="1"/>
+    <col min="13572" max="13572" width="11.42578125" customWidth="1"/>
+    <col min="13573" max="13576" width="8.85546875" customWidth="1"/>
+    <col min="13577" max="13580" width="11.42578125" customWidth="1"/>
+    <col min="13581" max="13581" width="8.85546875" customWidth="1"/>
+    <col min="13582" max="13584" width="11.42578125" customWidth="1"/>
+    <col min="13585" max="13593" width="8.85546875" customWidth="1"/>
+    <col min="13594" max="13608" width="11.42578125" customWidth="1"/>
+    <col min="13609" max="13609" width="8.85546875" customWidth="1"/>
+    <col min="13610" max="13610" width="11.42578125" customWidth="1"/>
+    <col min="13611" max="13612" width="8.85546875" customWidth="1"/>
+    <col min="13613" max="13617" width="11.42578125" customWidth="1"/>
+    <col min="13618" max="13618" width="8.85546875" customWidth="1"/>
+    <col min="13619" max="13621" width="11.42578125" customWidth="1"/>
+    <col min="13622" max="13622" width="8.85546875" customWidth="1"/>
+    <col min="13623" max="13627" width="11.42578125" customWidth="1"/>
+    <col min="13628" max="13632" width="8.85546875" customWidth="1"/>
+    <col min="13633" max="13825" width="11.42578125" customWidth="1"/>
+    <col min="13826" max="13827" width="8.85546875" customWidth="1"/>
+    <col min="13828" max="13828" width="11.42578125" customWidth="1"/>
+    <col min="13829" max="13832" width="8.85546875" customWidth="1"/>
+    <col min="13833" max="13836" width="11.42578125" customWidth="1"/>
+    <col min="13837" max="13837" width="8.85546875" customWidth="1"/>
+    <col min="13838" max="13840" width="11.42578125" customWidth="1"/>
+    <col min="13841" max="13849" width="8.85546875" customWidth="1"/>
+    <col min="13850" max="13864" width="11.42578125" customWidth="1"/>
+    <col min="13865" max="13865" width="8.85546875" customWidth="1"/>
+    <col min="13866" max="13866" width="11.42578125" customWidth="1"/>
+    <col min="13867" max="13868" width="8.85546875" customWidth="1"/>
+    <col min="13869" max="13873" width="11.42578125" customWidth="1"/>
+    <col min="13874" max="13874" width="8.85546875" customWidth="1"/>
+    <col min="13875" max="13877" width="11.42578125" customWidth="1"/>
+    <col min="13878" max="13878" width="8.85546875" customWidth="1"/>
+    <col min="13879" max="13883" width="11.42578125" customWidth="1"/>
+    <col min="13884" max="13888" width="8.85546875" customWidth="1"/>
+    <col min="13889" max="14081" width="11.42578125" customWidth="1"/>
+    <col min="14082" max="14083" width="8.85546875" customWidth="1"/>
+    <col min="14084" max="14084" width="11.42578125" customWidth="1"/>
+    <col min="14085" max="14088" width="8.85546875" customWidth="1"/>
+    <col min="14089" max="14092" width="11.42578125" customWidth="1"/>
+    <col min="14093" max="14093" width="8.85546875" customWidth="1"/>
+    <col min="14094" max="14096" width="11.42578125" customWidth="1"/>
+    <col min="14097" max="14105" width="8.85546875" customWidth="1"/>
+    <col min="14106" max="14120" width="11.42578125" customWidth="1"/>
+    <col min="14121" max="14121" width="8.85546875" customWidth="1"/>
+    <col min="14122" max="14122" width="11.42578125" customWidth="1"/>
+    <col min="14123" max="14124" width="8.85546875" customWidth="1"/>
+    <col min="14125" max="14129" width="11.42578125" customWidth="1"/>
+    <col min="14130" max="14130" width="8.85546875" customWidth="1"/>
+    <col min="14131" max="14133" width="11.42578125" customWidth="1"/>
+    <col min="14134" max="14134" width="8.85546875" customWidth="1"/>
+    <col min="14135" max="14139" width="11.42578125" customWidth="1"/>
+    <col min="14140" max="14144" width="8.85546875" customWidth="1"/>
+    <col min="14145" max="14337" width="11.42578125" customWidth="1"/>
+    <col min="14338" max="14339" width="8.85546875" customWidth="1"/>
+    <col min="14340" max="14340" width="11.42578125" customWidth="1"/>
+    <col min="14341" max="14344" width="8.85546875" customWidth="1"/>
+    <col min="14345" max="14348" width="11.42578125" customWidth="1"/>
+    <col min="14349" max="14349" width="8.85546875" customWidth="1"/>
+    <col min="14350" max="14352" width="11.42578125" customWidth="1"/>
+    <col min="14353" max="14361" width="8.85546875" customWidth="1"/>
+    <col min="14362" max="14376" width="11.42578125" customWidth="1"/>
+    <col min="14377" max="14377" width="8.85546875" customWidth="1"/>
+    <col min="14378" max="14378" width="11.42578125" customWidth="1"/>
+    <col min="14379" max="14380" width="8.85546875" customWidth="1"/>
+    <col min="14381" max="14385" width="11.42578125" customWidth="1"/>
+    <col min="14386" max="14386" width="8.85546875" customWidth="1"/>
+    <col min="14387" max="14389" width="11.42578125" customWidth="1"/>
+    <col min="14390" max="14390" width="8.85546875" customWidth="1"/>
+    <col min="14391" max="14395" width="11.42578125" customWidth="1"/>
+    <col min="14396" max="14400" width="8.85546875" customWidth="1"/>
+    <col min="14401" max="14593" width="11.42578125" customWidth="1"/>
+    <col min="14594" max="14595" width="8.85546875" customWidth="1"/>
+    <col min="14596" max="14596" width="11.42578125" customWidth="1"/>
+    <col min="14597" max="14600" width="8.85546875" customWidth="1"/>
+    <col min="14601" max="14604" width="11.42578125" customWidth="1"/>
+    <col min="14605" max="14605" width="8.85546875" customWidth="1"/>
+    <col min="14606" max="14608" width="11.42578125" customWidth="1"/>
+    <col min="14609" max="14617" width="8.85546875" customWidth="1"/>
+    <col min="14618" max="14632" width="11.42578125" customWidth="1"/>
+    <col min="14633" max="14633" width="8.85546875" customWidth="1"/>
+    <col min="14634" max="14634" width="11.42578125" customWidth="1"/>
+    <col min="14635" max="14636" width="8.85546875" customWidth="1"/>
+    <col min="14637" max="14641" width="11.42578125" customWidth="1"/>
+    <col min="14642" max="14642" width="8.85546875" customWidth="1"/>
+    <col min="14643" max="14645" width="11.42578125" customWidth="1"/>
+    <col min="14646" max="14646" width="8.85546875" customWidth="1"/>
+    <col min="14647" max="14651" width="11.42578125" customWidth="1"/>
+    <col min="14652" max="14656" width="8.85546875" customWidth="1"/>
+    <col min="14657" max="14849" width="11.42578125" customWidth="1"/>
+    <col min="14850" max="14851" width="8.85546875" customWidth="1"/>
+    <col min="14852" max="14852" width="11.42578125" customWidth="1"/>
+    <col min="14853" max="14856" width="8.85546875" customWidth="1"/>
+    <col min="14857" max="14860" width="11.42578125" customWidth="1"/>
+    <col min="14861" max="14861" width="8.85546875" customWidth="1"/>
+    <col min="14862" max="14864" width="11.42578125" customWidth="1"/>
+    <col min="14865" max="14873" width="8.85546875" customWidth="1"/>
+    <col min="14874" max="14888" width="11.42578125" customWidth="1"/>
+    <col min="14889" max="14889" width="8.85546875" customWidth="1"/>
+    <col min="14890" max="14890" width="11.42578125" customWidth="1"/>
+    <col min="14891" max="14892" width="8.85546875" customWidth="1"/>
+    <col min="14893" max="14897" width="11.42578125" customWidth="1"/>
+    <col min="14898" max="14898" width="8.85546875" customWidth="1"/>
+    <col min="14899" max="14901" width="11.42578125" customWidth="1"/>
+    <col min="14902" max="14902" width="8.85546875" customWidth="1"/>
+    <col min="14903" max="14907" width="11.42578125" customWidth="1"/>
+    <col min="14908" max="14912" width="8.85546875" customWidth="1"/>
+    <col min="14913" max="15105" width="11.42578125" customWidth="1"/>
+    <col min="15106" max="15107" width="8.85546875" customWidth="1"/>
+    <col min="15108" max="15108" width="11.42578125" customWidth="1"/>
+    <col min="15109" max="15112" width="8.85546875" customWidth="1"/>
+    <col min="15113" max="15116" width="11.42578125" customWidth="1"/>
+    <col min="15117" max="15117" width="8.85546875" customWidth="1"/>
+    <col min="15118" max="15120" width="11.42578125" customWidth="1"/>
+    <col min="15121" max="15129" width="8.85546875" customWidth="1"/>
+    <col min="15130" max="15144" width="11.42578125" customWidth="1"/>
+    <col min="15145" max="15145" width="8.85546875" customWidth="1"/>
+    <col min="15146" max="15146" width="11.42578125" customWidth="1"/>
+    <col min="15147" max="15148" width="8.85546875" customWidth="1"/>
+    <col min="15149" max="15153" width="11.42578125" customWidth="1"/>
+    <col min="15154" max="15154" width="8.85546875" customWidth="1"/>
+    <col min="15155" max="15157" width="11.42578125" customWidth="1"/>
+    <col min="15158" max="15158" width="8.85546875" customWidth="1"/>
+    <col min="15159" max="15163" width="11.42578125" customWidth="1"/>
+    <col min="15164" max="15168" width="8.85546875" customWidth="1"/>
+    <col min="15169" max="15361" width="11.42578125" customWidth="1"/>
+    <col min="15362" max="15363" width="8.85546875" customWidth="1"/>
+    <col min="15364" max="15364" width="11.42578125" customWidth="1"/>
+    <col min="15365" max="15368" width="8.85546875" customWidth="1"/>
+    <col min="15369" max="15372" width="11.42578125" customWidth="1"/>
+    <col min="15373" max="15373" width="8.85546875" customWidth="1"/>
+    <col min="15374" max="15376" width="11.42578125" customWidth="1"/>
+    <col min="15377" max="15385" width="8.85546875" customWidth="1"/>
+    <col min="15386" max="15400" width="11.42578125" customWidth="1"/>
+    <col min="15401" max="15401" width="8.85546875" customWidth="1"/>
+    <col min="15402" max="15402" width="11.42578125" customWidth="1"/>
+    <col min="15403" max="15404" width="8.85546875" customWidth="1"/>
+    <col min="15405" max="15409" width="11.42578125" customWidth="1"/>
+    <col min="15410" max="15410" width="8.85546875" customWidth="1"/>
+    <col min="15411" max="15413" width="11.42578125" customWidth="1"/>
+    <col min="15414" max="15414" width="8.85546875" customWidth="1"/>
+    <col min="15415" max="15419" width="11.42578125" customWidth="1"/>
+    <col min="15420" max="15424" width="8.85546875" customWidth="1"/>
+    <col min="15425" max="15617" width="11.42578125" customWidth="1"/>
+    <col min="15618" max="15619" width="8.85546875" customWidth="1"/>
+    <col min="15620" max="15620" width="11.42578125" customWidth="1"/>
+    <col min="15621" max="15624" width="8.85546875" customWidth="1"/>
+    <col min="15625" max="15628" width="11.42578125" customWidth="1"/>
+    <col min="15629" max="15629" width="8.85546875" customWidth="1"/>
+    <col min="15630" max="15632" width="11.42578125" customWidth="1"/>
+    <col min="15633" max="15641" width="8.85546875" customWidth="1"/>
+    <col min="15642" max="15656" width="11.42578125" customWidth="1"/>
+    <col min="15657" max="15657" width="8.85546875" customWidth="1"/>
+    <col min="15658" max="15658" width="11.42578125" customWidth="1"/>
+    <col min="15659" max="15660" width="8.85546875" customWidth="1"/>
+    <col min="15661" max="15665" width="11.42578125" customWidth="1"/>
+    <col min="15666" max="15666" width="8.85546875" customWidth="1"/>
+    <col min="15667" max="15669" width="11.42578125" customWidth="1"/>
+    <col min="15670" max="15670" width="8.85546875" customWidth="1"/>
+    <col min="15671" max="15675" width="11.42578125" customWidth="1"/>
+    <col min="15676" max="15680" width="8.85546875" customWidth="1"/>
+    <col min="15681" max="15873" width="11.42578125" customWidth="1"/>
+    <col min="15874" max="15875" width="8.85546875" customWidth="1"/>
+    <col min="15876" max="15876" width="11.42578125" customWidth="1"/>
+    <col min="15877" max="15880" width="8.85546875" customWidth="1"/>
+    <col min="15881" max="15884" width="11.42578125" customWidth="1"/>
+    <col min="15885" max="15885" width="8.85546875" customWidth="1"/>
+    <col min="15886" max="15888" width="11.42578125" customWidth="1"/>
+    <col min="15889" max="15897" width="8.85546875" customWidth="1"/>
+    <col min="15898" max="15912" width="11.42578125" customWidth="1"/>
+    <col min="15913" max="15913" width="8.85546875" customWidth="1"/>
+    <col min="15914" max="15914" width="11.42578125" customWidth="1"/>
+    <col min="15915" max="15916" width="8.85546875" customWidth="1"/>
+    <col min="15917" max="15921" width="11.42578125" customWidth="1"/>
+    <col min="15922" max="15922" width="8.85546875" customWidth="1"/>
+    <col min="15923" max="15925" width="11.42578125" customWidth="1"/>
+    <col min="15926" max="15926" width="8.85546875" customWidth="1"/>
+    <col min="15927" max="15931" width="11.42578125" customWidth="1"/>
+    <col min="15932" max="15936" width="8.85546875" customWidth="1"/>
+    <col min="15937" max="16129" width="11.42578125" customWidth="1"/>
+    <col min="16130" max="16131" width="8.85546875" customWidth="1"/>
+    <col min="16132" max="16132" width="11.42578125" customWidth="1"/>
+    <col min="16133" max="16136" width="8.85546875" customWidth="1"/>
+    <col min="16137" max="16140" width="11.42578125" customWidth="1"/>
+    <col min="16141" max="16141" width="8.85546875" customWidth="1"/>
+    <col min="16142" max="16144" width="11.42578125" customWidth="1"/>
+    <col min="16145" max="16153" width="8.85546875" customWidth="1"/>
+    <col min="16154" max="16168" width="11.42578125" customWidth="1"/>
+    <col min="16169" max="16169" width="8.85546875" customWidth="1"/>
+    <col min="16170" max="16170" width="11.42578125" customWidth="1"/>
+    <col min="16171" max="16172" width="8.85546875" customWidth="1"/>
+    <col min="16173" max="16177" width="11.42578125" customWidth="1"/>
+    <col min="16178" max="16178" width="8.85546875" customWidth="1"/>
+    <col min="16179" max="16181" width="11.42578125" customWidth="1"/>
+    <col min="16182" max="16182" width="8.85546875" customWidth="1"/>
+    <col min="16183" max="16187" width="11.42578125" customWidth="1"/>
+    <col min="16188" max="16192" width="8.85546875" customWidth="1"/>
+    <col min="16193" max="16384" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="1"/>
